--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Declarações\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32A1EB-3697-461E-88E4-3A9CFCE07606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD34BDC-4843-4525-B93C-25EC29053560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="736">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1163,9 +1166,6 @@
     <t xml:space="preserve">Não saia da vossa boca nenhuma palavra torpe, e sim unicamente a que for boa para edificação, conforme a necessidade, e assim, transmita graça aos que ouvem. </t>
   </si>
   <si>
-    <t>Eu sou o corpo de Cristo e satanás não tem poder sobre mim, porque eu venço o mal com o bem</t>
-  </si>
-  <si>
     <t>Eu sou de Deus e venci satanás, porque maior é aquele que está em mim do que o que está no mundo</t>
   </si>
   <si>
@@ -1175,24 +1175,15 @@
     <t>Estou longe da opressão e o medo não se aproxima de mim</t>
   </si>
   <si>
-    <t>Nenhuma arma forjada contra mim prosperará porque a minha justiça é do Senhor, mas tudo o que eu faço prospera, porque sou como árvores plantadas juntos aos ribeiros de águas.</t>
-  </si>
-  <si>
     <t>Sou liberto dos males deste mundo porque essa é a vontade de Deus!</t>
   </si>
   <si>
-    <t>Nenhum mal me sucederá e nenhuma praga chegará a minha habitação porque tu deste ordens aos teus anjos ao meu respeito, e eles me guardam em todos os meus caminhos. No meu caminho está a vida e não a morte</t>
-  </si>
-  <si>
     <t>Sou um praticante da palavra de Deus e sou abençoado nos meus atos. Sou feliz nestas coisas que faço porque sou um praticante da palavra de Deus</t>
   </si>
   <si>
     <t>Tomo o escudo da fé e apago todos os dardos inflamados que o maligno lança sobre mim.</t>
   </si>
   <si>
-    <t>Cristo me redimiu da maldição da lei, assim, eu proíbo toda doença e enfermidade de vir sobre o meu corpo. Todo germe de enfermidade e todo vírus que toca esse corpo morre instantaneamente em nome de Jesus! Cada órgão e cada tecido deste corpo funcionam na perfeição com a qual Deus os criou para funcionar, e eu proíbo qualquer mal funcionamento neste corpo em nome de Jesus Cristo!</t>
-  </si>
-  <si>
     <t>Sou um vencedor e venço pelo sangue do Cordeiro e pela palavra do meu testemunho!</t>
   </si>
   <si>
@@ -1226,18 +1217,9 @@
     <t>Tendo eu toda a suficiência em todas as coisas, sou abundante em todas as boas obras” "Não tenho falta porque o meu Deus supre todas as minhas necessidades, portanto nunca terei falta segundo as suas riquezas em glória. Por Cristo Jesus eu sou suprido</t>
   </si>
   <si>
-    <t>O Senhor é o meu pastor e nada me falta porque Jesus se fez pobre a fim de que através da sua pobreza eu pudesse ter abundância. Porque Ele veio para que eu pudesse ter vida e a tivesse com abundância.</t>
-  </si>
-  <si>
     <t>Eu tendo recebido o dom da Justiça reino em vida como rei, por meio de Cristo Jesus</t>
   </si>
   <si>
-    <t>O Senhor tem prazer na prosperidade do seu servo e as bênçãos de Abraão me pertencem</t>
-  </si>
-  <si>
-    <t>O Espírito da Verdade permanece em mim e me ensina todas as coisas, Ele me guia a toda verdade, assim confesso que tenho o conhecimento perfeito de todas as situações e de todas as circunstâncias com as quais eu me deparo, porque tenho a sabedoria de Deus.</t>
-  </si>
-  <si>
     <t>Confio no Senhor de todo o meu coração e não me firmo no meu próprio entendimento</t>
   </si>
   <si>
@@ -1322,8 +1304,943 @@
     <t>Sou abençoado com todas as sortes de bençãos espirituais em Cristo. Tudo foi conquistado para mim na cruz.</t>
   </si>
   <si>
-    <t xml:space="preserve">1° Co 12.27
-Rm 12.21 </t>
+    <t xml:space="preserve">Filhinhos, sois de Deus, e já os tendes vencido; porque maior é o que está em vós do que o que está no mundo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainda que eu andasse pelo vale da sombra da morte, não temeria mal algum, porque tu estás comigo; a tua vara e o teu cajado me consolam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com justiça serás estabelecida; estarás longe da opressão, porque já não temerás; e também do terror, porque não chegará a ti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O qual se deu a si mesmo por nossos pecados, para nos livrar do presente século mau, segundo a vontade de Deus nosso Pai, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E sede cumpridores da palavra, e não somente ouvintes, enganando-vos a vós mesmos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tomando sobretudo o escudo da fé, com o qual podereis apagar todos os dardos inflamados do maligno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E eles o venceram pelo sangue do Cordeiro e pela palavra do seu testemunho; e não amaram as suas vidas até à morte.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sujeitai-vos, pois, a Deus, resisti ao diabo, e ele fugirá de vós. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para sempre, ó Senhor, a tua palavra permanece no céu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E todos os teus filhos serão ensinados do Senhor; e a paz de teus filhos será abundante. </t>
+  </si>
+  <si>
+    <t>2 Co 8.9 Jo 10.10 Jo 5.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 Porque já sabeis a graça de nosso Senhor Jesus Cristo que, sendo rico, por amor de vós se fez pobre; para que pela sua pobreza enriquecêsseis.  Eu vim para que tenham vida, e a tenham com abundância.  24 Na verdade, na verdade vos digo que quem ouve a minha palavra, e crê naquele que me enviou, tem a vida eterna, e não entrará em condenação, mas passou da morte para a vida. </t>
+  </si>
+  <si>
+    <t>Sl 119.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A minha alma está pegada ao pó; vivifica-me segundo a tua palavra. </t>
+  </si>
+  <si>
+    <t>Sl 37.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleita-te também no Senhor, e te concederá os desejos do teu coração. </t>
+  </si>
+  <si>
+    <t>Lc 6.38</t>
+  </si>
+  <si>
+    <t>Dai, e ser-vos-á dado; boa medida, recalcada, sacudida e transbordando, vos deitarão no vosso regaço; porque com a mesma medida com que medirdes também vos medirão de novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Co 9.6-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 E digo isto: Que o que semeia pouco, pouco também ceifará; e o que semeia em abundância, em abundância ceifará. 7 Cada um contribua segundo propôs no seu coração; não com tristeza, ou por necessidade; porque Deus ama ao que dá com alegria. 8 E Deus é poderoso para fazer abundar em vós toda a graça, a fim de que tendo sempre, em tudo, toda a suficiência, abundeis em toda a boa obra; 9 Conforme está escrito:Espalhou, deu aos pobres;a sua justiça permanece para sempre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O meu Deus, segundo as suas riquezas, suprirá todas as vossas necessidades em glória, por Cristo Jesus. </t>
+  </si>
+  <si>
+    <t>Porque, se pela ofensa de um só, a morte reinou por esse, muito mais os que recebem a abundância da graça, e do dom da justiça, reinarão em vida por um só, Jesus Cristo.</t>
+  </si>
+  <si>
+    <t>Confia no Senhor de todo o teu coração, e não te estribes no teu próprio entendimento.</t>
+  </si>
+  <si>
+    <t>Reconhece-o em todos os teus caminhos, e ele endireitará as tuas veredas</t>
+  </si>
+  <si>
+    <t>Sl 119.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâmpada para os meus pés é tua palavra, e luz para o meu caminho. </t>
+  </si>
+  <si>
+    <t>Sl 138.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  O Senhor aperfeiçoará o que me toca; a tua benignidade, ó Senhor, dura para sempre; não desampares as obras das tuas mãos. </t>
+  </si>
+  <si>
+    <t>Cl 3.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A palavra de Cristo habita em vós abundantemente, em toda a sabedoria, ensinando-vos e admoestando-vos uns aos outros, com salmos, hinos e cânticos espirituais, cantando ao Senhor com graça em vosso coração. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jo 10.3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A este o porteiro abre, e as ovelhas ouvem a sua voz, e chama pelo nome às suas ovelhas, e as traz para fora. 4 E, quando tira para fora as suas ovelhas, vai adiante delas, e as ovelhas o seguem, porque conhecem a sua voz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1Co 1.30  2Co 5.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Mas vós sois dele, em Jesus Cristo, o qual para nós foi feito por Deus sabedoria, e justiça, e santificação, e redenção; 21 Àquele que não conheceu pecado, o fez pecado por nós; para que nele fôssemos feitos justiça de Deus. </t>
+  </si>
+  <si>
+    <t>Cl 1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por esta razão, nós também, desde o dia em que o ouvimos, não cessamos de orar por vós, e de pedir que sejais cheios do conhecimento da sua vontade, em toda a sabedoria e inteligência espiritual;  </t>
+  </si>
+  <si>
+    <t>2Co 5.17  Ef 2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assim que, se alguém está em Cristo, nova criatura é; as coisas velhas já passaram; eis que tudo se fez novo. Porque somos feitura sua, criados em Cri10sto Jesus para as boas obras, as quais Deus preparou para que andássemos nelas. </t>
+  </si>
+  <si>
+    <t> Porque, quem conheceu a mente do Senhor, para que possa instruí-lo? Mas nós temos a mente de Cristo.</t>
+  </si>
+  <si>
+    <t>Cl 3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E vos vestistes do novo, que se renova para o conhecimento, segundo a imagem daquele que o criou; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ef 1.17 Rm 12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17 Para que o Deus de nosso Senhor Jesus Cristo, o Pai da glória, vos dê em seu conhecimento o espírito de sabedoria e de revelação; 2 E não sede conformados com este mundo, mas sede transformados pela renovação do vosso entendimento, para que experimenteis qual seja a boa, agradável, e perfeita vontade de Deus.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cl 1.10-11</t>
+  </si>
+  <si>
+    <t>10 Para que possais andar dignamente diante do Senhor, agradando-lhe em tudo, frutificando em toda a boa obra, e crescendo no conhecimento de Deus; 11 Corroborados em toda a fortaleza, segundo a força da sua glória, em toda a paciência, e longanimidade com gozo;</t>
+  </si>
+  <si>
+    <t>Cl 1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O qual nos tirou da potestade das trevas, e nos transportou para o reino do Filho do seu amor; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1Jo 5.4  1Jo 4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 Quem é que vence o mundo, senão aquele que crê que Jesus é o Filho de Deus? 4 Filhinhos, sois de Deus, e já os tendes vencido; porque maior é o que está em vós do que o que está no mundo.</t>
+  </si>
+  <si>
+    <t>Fp 4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posso todas as coisas em Cristo que me fortalece. </t>
+  </si>
+  <si>
+    <t>Ne 8.10  Sl 27.1</t>
+  </si>
+  <si>
+    <t>10 Disse-lhes mais: Ide, comei as gorduras, e bebei as doçuras, e enviai porções aos que não têm nada preparado para si; porque este dia é consagrado ao nosso Senhor; portanto não vos entristeçais; porque a alegria do Senhor é a vossa força.  1 O SENHOR é a minha luz e a minha salvação; a quem temerei? O SENHOR é a força da minha vida; de quem me recearei?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fp 4.7-8</t>
+  </si>
+  <si>
+    <t>7 E a paz de Deus, que excede todo o entendimento, guardará os vossos corações e os vossos pensamentos em Cristo Jesus. 8 Quanto ao mais, irmãos, tudo o que é verdadeiro, tudo o que é honesto, tudo o que é justo, tudo o que é puro, tudo o que é amável, tudo o que é de boa fama, se há alguma virtude, e se há algum louvor, nisso pensai.</t>
+  </si>
+  <si>
+    <t>Ef 4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes, seguindo a verdade em amor, cresçamos em tudo naquele que é a cabeça, Cristo, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ef 4.29-30</t>
+  </si>
+  <si>
+    <t> Não saia da vossa boca nenhuma palavra torpe, mas só a que for boa para promover a edificação, para que dê graça aos que a ouvem. 30 E não entristeçais o Espírito Santo de Deus, no qual estais selados para o dia da redenção.</t>
+  </si>
+  <si>
+    <t>Jo 10.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu Pai, que me deu, é maior do que todos; e ninguém pode arrebatá-las da mão de meu Pai. </t>
+  </si>
+  <si>
+    <t>Cl 3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E a paz de Deus, para a qual também fostes chamados em um corpo, domine em vossos corações; e sede agradecidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pv 4.21-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não as deixes apartar-se dos teus olhos; guarda-as no íntimo do teu coração. 22 Porque são vida para os que as acham, e saúde para todo o seu corpo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Co 6.16  Jo 10.11  2 Pd 1.4 Rm 8.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 E que consenso tem o templo de Deus com os ídolos? Porque vós sois o templo do Deus vivente, como Deus disse: Neles habitarei, e entre eles andarei; e eu serei o seu Deus e eles serão o meu povo. 11 Eu sou o bom Pastor; o bom Pastor dá a sua vida pelas ovelhas.  3 Visto como o seu divino poder nos deu tudo o que diz respeito à vida e piedade, pelo conhecimento daquele que nos chamou pela sua glória e virtude; 4 Pelas quais ele nos tem dado grandíssimas e preciosas promessas, para que por elas fiqueis participantes da natureza divina, havendo escapado da corrupção, que pela concupiscência há no mundo. 31 Que diremos, pois, a estas coisas? Se Deus é por nós, quem será contra nós? </t>
+  </si>
+  <si>
+    <t>Mc 16.17-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E estes sinais seguirão aos que crerem: Em meu nome expulsarão os demônios; falarão novas línguas; 18 Pegarão nas serpentes; e, se beberem alguma coisa mortífera, não lhes fará dano algum; e porãoas mãos sobre os enfermos, e os curarão. </t>
+  </si>
+  <si>
+    <t>Mt 16.19 Mt 18.18 Ef 6.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.  18 Em verdade vos digo que tudo o que ligardes na terra será ligado no céu, e tudo o que desligardes na terra será desligado no céu.  12 Porque não temos que lutar contra a carne e o sangue, mas, sim, contra os principados, contra as potestades, contra os príncipes das trevas deste século, contra as hostes espirituais da maldade, nos lugares celestiais. </t>
+  </si>
+  <si>
+    <t>Cl 2.10  Ef 2.10</t>
+  </si>
+  <si>
+    <t>10 E estais perfeitos nele, que é a cabeça de todo o principado e potestade;  10 Porque somos feitura sua, criados em Cristo Jesus para as boas obras, as quais Deus preparou para que andássemos nelas.</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Não sejas vencido pelo mal, mas vence o mal com o bem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm 12.21 </t>
+  </si>
+  <si>
+    <t>Satanás não tem poder sobre mim, porque eu venço o mal com o bem</t>
+  </si>
+  <si>
+    <t>LIVRO</t>
+  </si>
+  <si>
+    <t>CAPITULO E VERSÍCULO</t>
+  </si>
+  <si>
+    <t>VERSÃO</t>
+  </si>
+  <si>
+    <t>Salmos</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>139:14</t>
+  </si>
+  <si>
+    <t>3:7</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>65:11</t>
+  </si>
+  <si>
+    <t>23:6</t>
+  </si>
+  <si>
+    <t>45:13</t>
+  </si>
+  <si>
+    <t>4:16</t>
+  </si>
+  <si>
+    <t>1Coríntios 2:9</t>
+  </si>
+  <si>
+    <t>2:8,9</t>
+  </si>
+  <si>
+    <t>3:13</t>
+  </si>
+  <si>
+    <t>20:4</t>
+  </si>
+  <si>
+    <t>7:38</t>
+  </si>
+  <si>
+    <t>1 João 1:9</t>
+  </si>
+  <si>
+    <t>2 Coríntios 5:17</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>18:21</t>
+  </si>
+  <si>
+    <t>4:29</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>11:23</t>
+  </si>
+  <si>
+    <t>35:1</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>34:7</t>
+  </si>
+  <si>
+    <t>13:6</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>16:17</t>
+  </si>
+  <si>
+    <t>2:15</t>
+  </si>
+  <si>
+    <t>20:15-17</t>
+  </si>
+  <si>
+    <t>6:13</t>
+  </si>
+  <si>
+    <t>144:1</t>
+  </si>
+  <si>
+    <t>19:26</t>
+  </si>
+  <si>
+    <t>40:31</t>
+  </si>
+  <si>
+    <t>91:2</t>
+  </si>
+  <si>
+    <t>91:7</t>
+  </si>
+  <si>
+    <t>41:10</t>
+  </si>
+  <si>
+    <t>41:11</t>
+  </si>
+  <si>
+    <t>41:12</t>
+  </si>
+  <si>
+    <t>23:5</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>6:38</t>
+  </si>
+  <si>
+    <t>37:25</t>
+  </si>
+  <si>
+    <t>3:11</t>
+  </si>
+  <si>
+    <t>144:13</t>
+  </si>
+  <si>
+    <t>5:19</t>
+  </si>
+  <si>
+    <t>22:9</t>
+  </si>
+  <si>
+    <t>29:11</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>4:19</t>
+  </si>
+  <si>
+    <t>119.25</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>2 Co 9.6-9</t>
+  </si>
+  <si>
+    <t>16.13  Tg 1.5</t>
+  </si>
+  <si>
+    <t>119.105</t>
+  </si>
+  <si>
+    <t>138.8</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>10.3-4</t>
+  </si>
+  <si>
+    <t>1Co 1.30  2Co 5.21</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>1.17 Rm 12.2</t>
+  </si>
+  <si>
+    <t>1.10-11</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1Jo 5.4  1Jo 4.4</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>8.10  Sl 27.1</t>
+  </si>
+  <si>
+    <t>4.7-8</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.29-30</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>4.21-22</t>
+  </si>
+  <si>
+    <t>2 Co 6.16  Jo 10.11  2 Pd 1.4 Rm 8.31</t>
+  </si>
+  <si>
+    <t>16.17-18</t>
+  </si>
+  <si>
+    <t>16.19 Mt 18.18 Ef 6.12</t>
+  </si>
+  <si>
+    <t>2.10  Ef 2.10</t>
+  </si>
+  <si>
+    <t>Efésios</t>
+  </si>
+  <si>
+    <t>Provérbios</t>
+  </si>
+  <si>
+    <t>Apocalipse</t>
+  </si>
+  <si>
+    <t>Jeremias</t>
+  </si>
+  <si>
+    <t>Hebreus</t>
+  </si>
+  <si>
+    <t>1Coríntios</t>
+  </si>
+  <si>
+    <t>Gálatas</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>1 João</t>
+  </si>
+  <si>
+    <t>2 Coríntios</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Números</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Colossenses</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>1 Tessalonicenses</t>
+  </si>
+  <si>
+    <t>Mateus</t>
+  </si>
+  <si>
+    <t>Isaías</t>
+  </si>
+  <si>
+    <t>Filipenses</t>
+  </si>
+  <si>
+    <t>Malaquias</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>Eclesiastes</t>
+  </si>
+  <si>
+    <t>1 Crônicas</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t>Sl</t>
+  </si>
+  <si>
+    <t>Ef</t>
+  </si>
+  <si>
+    <t>2 Co</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>Pv</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>1Co</t>
+  </si>
+  <si>
+    <t>2Co</t>
+  </si>
+  <si>
+    <t>1Jo</t>
+  </si>
+  <si>
+    <t>Fp</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>NVI</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>NAA</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>NTLH</t>
+  </si>
+  <si>
+    <t>KJA</t>
+  </si>
+  <si>
+    <t>KJV</t>
+  </si>
+  <si>
+    <t>2:14</t>
+  </si>
+  <si>
+    <t>5:23</t>
+  </si>
+  <si>
+    <t>4:18</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>128:1-2</t>
+  </si>
+  <si>
+    <t>35:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salmos 35:27 - RA</t>
+  </si>
+  <si>
+    <t>29:12</t>
+  </si>
+  <si>
+    <t>8:9</t>
+  </si>
+  <si>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 João 4:4 </t>
+  </si>
+  <si>
+    <t>23:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salmos 23:4</t>
+  </si>
+  <si>
+    <t>Isaías 54.14</t>
+  </si>
+  <si>
+    <t>54:14</t>
+  </si>
+  <si>
+    <t>Isaías 54.17</t>
+  </si>
+  <si>
+    <t>54:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pois será como a árvore plantada junto a ribeiros de águas, a qual dá o seu fruto no seu tempo; as suas folhas não cairão, e tudo quanto fizer prosperará.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 Toda a ferramenta preparada contra ti não prosperará, e toda a língua que se levantar contra ti em juízo tu a condenarás; esta é a herança dos servos do Senhor, e a sua justiça que de mim procede, diz o Senhor.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma arma forjada contra mim prosperará porque a minha justiça é do Senhor, </t>
+  </si>
+  <si>
+    <t>Tudo o que eu faço prospera, porque sou como árvores plantadas juntos aos ribeiros de águas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Salmos 1:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gálatas 1:4 </t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sl 91.10-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provérbios 12.28</t>
+  </si>
+  <si>
+    <t>12:28</t>
+  </si>
+  <si>
+    <t>91:10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Na vereda da justiça está a vida, e no caminho da sua carreira não há morte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 Nenhum mal te sucederá, nem praga alguma chegará à tua tenda. 11 Porque aos seus anjos dará ordem a teu respeito, para te guardarem em todos os teus caminhos. </t>
+  </si>
+  <si>
+    <t>Tiago 1.22</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>1:22</t>
+  </si>
+  <si>
+    <t>Efésios 6.16</t>
+  </si>
+  <si>
+    <t>6:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No meu caminho está a vida e não a morte</t>
+  </si>
+  <si>
+    <t>Nenhum mal me sucederá e nenhuma praga chegará a minha habitação porque tu deste ordens aos teus anjos ao meu respeito, e eles me guardam em todos os meus caminhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gálatas 3:13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Romanos 8:11 </t>
+  </si>
+  <si>
+    <t>Romanos</t>
+  </si>
+  <si>
+    <t>8:11</t>
+  </si>
+  <si>
+    <t>Mateus 16:19</t>
+  </si>
+  <si>
+    <t>16:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 Cristo nos resgatou da maldição da lei, fazendo-se maldição por nós; porque está escrito: Maldito todo aquele que for pendurado no madeiro; </t>
+  </si>
+  <si>
+    <t>19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 E, se o Espírito daquele que dentre os mortos ressuscitou a Jesus habita em vós, aquele que dentre os mortos ressuscitou a Cristo também vivificará os vossos corpos mortais, pelo seu Espírito que em vós habita. </t>
+  </si>
+  <si>
+    <t>Cada órgão e cada tecido deste corpo funcionam na perfeição com a qual Deus os criou para funcionar, e eu proíbo qualquer mal funcionamento neste corpo em nome de Jesus Cristo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristo me redimiu da maldição da lei, assim, eu proíbo toda doença e enfermidade de vir sobre o meu corpo. Todo germe de enfermidade e todo vírus que toca esse corpo morre instantaneamente em nome de Jesus! </t>
+  </si>
+  <si>
+    <t>Uso a minha autoridade de ligar na terra, e rejeito todo tipo de doença, assim como no céu não existe doenças.</t>
+  </si>
+  <si>
+    <t>Apocalipse 12:11</t>
+  </si>
+  <si>
+    <t>Tiago 4:7</t>
+  </si>
+  <si>
+    <t>4:7</t>
+  </si>
+  <si>
+    <t>Salmos 119:89</t>
+  </si>
+  <si>
+    <t>119:89</t>
+  </si>
+  <si>
+    <t>54:13</t>
+  </si>
+  <si>
+    <t>Isaías 54:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gálatas 3:13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 O Senhor mandará que a bênção esteja contigo nos teus celeiros, e em tudo o que puseres a tua mão; e te abençoará na terra que te der o Senhor teu Deus. </t>
+  </si>
+  <si>
+    <t>E, se o Espírito daquele que dos mortos ressuscitou a Jesus habita em vós, aquele que dos mortos ressuscitou a Cristo também vivificará o vosso corpo mortal, pelo seu Espírito que em vós habita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romanos 8:11</t>
+  </si>
+  <si>
+    <t>O Espírito do Senhor me vivifíca e me dá saúde plena.</t>
+  </si>
+  <si>
+    <t>E eu te darei as chaves do Reino dos céus, e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deuteronômio 28:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deuteronômio</t>
+  </si>
+  <si>
+    <t>28:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filipenses 4:19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:19 </t>
+  </si>
+  <si>
+    <t>2Co 8.9  Jo 10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 O Senhor é o meu pastor, nada me faltará.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmos 23:1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:1 </t>
+  </si>
+  <si>
+    <t>O Senhor é o meu pastor e nada me falta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Porque já sabeis a graça de nosso Senhor Jesus Cristo que, sendo rico, por amor de vós se fez pobre; para que pela sua pobreza enriquecêsseis.  </t>
+  </si>
+  <si>
+    <t>Eu vim para que tenham vida, e a tenham com abundância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1 2Co 8.9  </t>
+  </si>
+  <si>
+    <t>João 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porque Ele veio para que eu pudesse ter vida e a tivesse com abundância.</t>
+  </si>
+  <si>
+    <t>Jesus se fez pobre a fim de que através da sua pobreza eu pudesse ter abundância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romanos 5:17</t>
+  </si>
+  <si>
+    <t>5:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 Para que a bênção de Abraão chegasse aos gentios por Jesus Cristo, e para que pela fé nós recebamos a promessa do Espírito. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 Cantem e alegrem-se os que amam a minha justiça, e digam continuamente: O Senhor seja engrandecido, o qual ama a prosperidade do seu servo. </t>
+  </si>
+  <si>
+    <t>O Senhor tem prazer na minha prosperidade.</t>
+  </si>
+  <si>
+    <t>Eu sou herdeiro das bênçãos de Abraão.</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>Provérbios 3:5</t>
+  </si>
+  <si>
+    <t>Provérbios 3:6</t>
+  </si>
+  <si>
+    <t>Salmos 35:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gálatas 3:14</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> João 16:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:13  </t>
+  </si>
+  <si>
+    <t>Tiago 1:5</t>
+  </si>
+  <si>
+    <t>13 Mas, quando vier aquele Espírito de verdade, ele vos guiará em toda a verdade; porque não falará de si mesmo, mas dirá tudo o que tiver ouvido, e vos anunciará o que há de vir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 E, se algum de vós tem falta de sabedoria, peça-a a Deus, que a todos dá liberalmente, e o não lança em rosto, e ser-lhe-á dada. </t>
+  </si>
+  <si>
+    <t>O Espírito da Verdade permanece em mim e me ensina todas as coisas, Ele me guia a toda verdade, assim confesso que tenho o conhecimento perfeito de todas as situações e de todas as circunstâncias com as quais eu me deparo</t>
+  </si>
+  <si>
+    <t>Tenho a sabedoria de Deus, e sei lidar com qualquer circunstância.</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +2395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,17 +2436,29 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1543,28 +2472,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1573,10 +2484,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1584,6 +2501,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,7 +2828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14F1B4-78FF-40F2-8B6E-6A68EC962608}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K30" sqref="K30:O30"/>
     </sheetView>
   </sheetViews>
@@ -1922,29 +2849,29 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="14" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
@@ -1952,13 +2879,13 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="16" t="s">
         <v>275</v>
       </c>
@@ -1968,13 +2895,13 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="16" t="s">
         <v>105</v>
       </c>
@@ -1982,103 +2909,103 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="17" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="22" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="17" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="22" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="17" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="22" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="16" t="s">
         <v>296</v>
       </c>
@@ -2095,147 +3022,147 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="18" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="18" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="17" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="20" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="27" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="18" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="17" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -2245,20 +3172,20 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="16" t="s">
         <v>324</v>
       </c>
@@ -2268,20 +3195,20 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="24" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="16" t="s">
         <v>259</v>
       </c>
@@ -2289,22 +3216,22 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="16" t="s">
         <v>194</v>
       </c>
@@ -2312,103 +3239,103 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="30" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="18" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="18" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="22" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="20" t="s">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="20" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="16" t="s">
         <v>276</v>
       </c>
@@ -2418,133 +3345,133 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="22" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="17" t="s">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="17" t="s">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="17" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="16" t="s">
         <v>295</v>
       </c>
@@ -2561,147 +3488,147 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="22" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="18" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20" t="s">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="27" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="20" t="s">
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="27" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="18" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="17" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -2711,20 +3638,20 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="24" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
       <c r="P27" s="16" t="s">
         <v>323</v>
       </c>
@@ -2734,20 +3661,20 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="16" t="s">
         <v>260</v>
       </c>
@@ -2755,13 +3682,13 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -2778,29 +3705,29 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="18" t="s">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="16" t="s">
         <v>204</v>
       </c>
@@ -2808,41 +3735,103 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="18" t="s">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="F15:J15"/>
@@ -2867,85 +3856,23 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2956,7 +3883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B126ADBD-F5D3-41E0-9768-A30995F5196A}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -3690,1454 +4617,3068 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="60.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2">
+      <c r="F2" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2">
         <v>49</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>51</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>54</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>55</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>58</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>61</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>66</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>197</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>74</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>81</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>88</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>92</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>96</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>97</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>98</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>103</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>348</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>104</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>44</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>45</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>47</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>57</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>69</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>46</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>48</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>53</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>56</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>59</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>60</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>67</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>71</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>73</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>75</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>76</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>77</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>232</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>78</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>79</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>80</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>82</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>83</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>86</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>87</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>91</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="H44" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>101</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>338</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>102</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>351</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>105</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>106</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>357</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>107</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>360</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>108</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>362</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>109</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>365</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>110</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>43</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>52</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>62</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>63</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>173</v>
+        <v>643</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>64</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>65</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>68</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>72</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="H60" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>84</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>261</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>85</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>89</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>90</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>93</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>94</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>95</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>99</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="H68" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>100</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>652</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>664</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
+        <v>686</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E85" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C72" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C74" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C76" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="8" t="s">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C79" s="8" t="s">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C80" s="8" t="s">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>694</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="8" t="s">
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>702</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C82" s="8" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E93" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C83" s="8" t="s">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C84" s="8" t="s">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C85" s="8" t="s">
+    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="8" t="s">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C87" s="8" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>708</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="36" t="s">
+        <v>705</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E100" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C88" s="8" t="s">
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E102" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>730</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E104" s="36" t="s">
+        <v>732</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E106" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="89" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C89" s="8" t="s">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>723</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C90" s="8" t="s">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C91" s="8" t="s">
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C92" s="8" t="s">
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C93" s="8" t="s">
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="3:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="C94" s="8" t="s">
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C95" s="8" t="s">
+    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C96" s="8" t="s">
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E114" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C97" s="8" t="s">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E115" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="8" t="s">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C99" s="8" t="s">
+    <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="100" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C100" s="8" t="s">
+    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E118" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C101" s="8" t="s">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E119" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C102" s="8" t="s">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E120" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C103" s="8" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C104" s="8" t="s">
+    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A122" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="105" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C105" s="8" t="s">
+    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="106" spans="3:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="C106" s="8" t="s">
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C107" s="8" t="s">
+    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C108" s="8" t="s">
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C109" s="8" t="s">
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="8" t="s">
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="111" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C111" s="8" t="s">
+    <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A129" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C129" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="112" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C112" s="8" t="s">
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C113" s="8" t="s">
+    <row r="131" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E131" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C114" s="8" t="s">
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C116" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C117" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C118" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C119" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="C120" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C121" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:E69">
-    <sortCondition ref="E2:E69"/>
+  <sortState ref="A2:H69">
+    <sortCondition ref="H2:H69"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E70" r:id="rId1" tooltip="Romanos 12:21" display="https://bkjfiel.com.br/romanos-12-21" xr:uid="{F7D7FD28-1932-4C73-B851-38D9DACFBAEC}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD34BDC-4843-4525-B93C-25EC29053560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5B84C-0E0E-4CAA-95A0-D3675D4CB9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="739">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1199,9 +1199,6 @@
     <t>Cristo me redimiu da maldição da lei, Cristo me redimiu da pobreza, Cristo me redimiu da doença, Cristo me redimiu da morte espiritual</t>
   </si>
   <si>
-    <t>Em lugar da pobreza Ele me deu riquezas, em lugar da doença Ele me deu saúde, em lugar da morte Ele me deu vida eterna</t>
-  </si>
-  <si>
     <t>Ele me vivifica segundo a palavra de Deus</t>
   </si>
   <si>
@@ -1334,33 +1331,15 @@
     <t xml:space="preserve">E todos os teus filhos serão ensinados do Senhor; e a paz de teus filhos será abundante. </t>
   </si>
   <si>
-    <t>2 Co 8.9 Jo 10.10 Jo 5.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9 Porque já sabeis a graça de nosso Senhor Jesus Cristo que, sendo rico, por amor de vós se fez pobre; para que pela sua pobreza enriquecêsseis.  Eu vim para que tenham vida, e a tenham com abundância.  24 Na verdade, na verdade vos digo que quem ouve a minha palavra, e crê naquele que me enviou, tem a vida eterna, e não entrará em condenação, mas passou da morte para a vida. </t>
-  </si>
-  <si>
-    <t>Sl 119.25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A minha alma está pegada ao pó; vivifica-me segundo a tua palavra. </t>
   </si>
   <si>
-    <t>Sl 37.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deleita-te também no Senhor, e te concederá os desejos do teu coração. </t>
   </si>
   <si>
-    <t>Lc 6.38</t>
-  </si>
-  <si>
     <t>Dai, e ser-vos-á dado; boa medida, recalcada, sacudida e transbordando, vos deitarão no vosso regaço; porque com a mesma medida com que medirdes também vos medirão de novo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 Co 9.6-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">6 E digo isto: Que o que semeia pouco, pouco também ceifará; e o que semeia em abundância, em abundância ceifará. 7 Cada um contribua segundo propôs no seu coração; não com tristeza, ou por necessidade; porque Deus ama ao que dá com alegria. 8 E Deus é poderoso para fazer abundar em vós toda a graça, a fim de que tendo sempre, em tudo, toda a suficiência, abundeis em toda a boa obra; 9 Conforme está escrito:Espalhou, deu aos pobres;a sua justiça permanece para sempre. </t>
   </si>
   <si>
@@ -1529,9 +1508,6 @@
     <t>Não sejas vencido pelo mal, mas vence o mal com o bem.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rm 12.21 </t>
-  </si>
-  <si>
     <t>Satanás não tem poder sobre mim, porque eu venço o mal com o bem</t>
   </si>
   <si>
@@ -1577,12 +1553,6 @@
     <t>4:16</t>
   </si>
   <si>
-    <t>1Coríntios 2:9</t>
-  </si>
-  <si>
-    <t>2:8,9</t>
-  </si>
-  <si>
     <t>3:13</t>
   </si>
   <si>
@@ -1595,9 +1565,6 @@
     <t>1 João 1:9</t>
   </si>
   <si>
-    <t>2 Coríntios 5:17</t>
-  </si>
-  <si>
     <t>1:7</t>
   </si>
   <si>
@@ -1715,18 +1682,6 @@
     <t>4:19</t>
   </si>
   <si>
-    <t>119.25</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>2 Co 9.6-9</t>
-  </si>
-  <si>
     <t>16.13  Tg 1.5</t>
   </si>
   <si>
@@ -1814,9 +1769,6 @@
     <t>Hebreus</t>
   </si>
   <si>
-    <t>1Coríntios</t>
-  </si>
-  <si>
     <t>Gálatas</t>
   </si>
   <si>
@@ -1844,9 +1796,6 @@
     <t>Colossenses</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>1 Tessalonicenses</t>
   </si>
   <si>
@@ -1871,12 +1820,6 @@
     <t>1 Crônicas</t>
   </si>
   <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>Rm</t>
-  </si>
-  <si>
     <t>Sl</t>
   </si>
   <si>
@@ -1886,9 +1829,6 @@
     <t>2 Co</t>
   </si>
   <si>
-    <t>Lc</t>
-  </si>
-  <si>
     <t>Jo</t>
   </si>
   <si>
@@ -2018,9 +1958,6 @@
     <t>1:4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sl 91.10-11 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Provérbios 12.28</t>
   </si>
   <si>
@@ -2150,9 +2087,6 @@
     <t xml:space="preserve">4:19 </t>
   </si>
   <si>
-    <t>2Co 8.9  Jo 10.10</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1 O Senhor é o meu pastor, nada me faltará.  </t>
   </si>
   <si>
@@ -2171,9 +2105,6 @@
     <t>Eu vim para que tenham vida, e a tenham com abundância.</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1 2Co 8.9  </t>
-  </si>
-  <si>
     <t>João 10:10</t>
   </si>
   <si>
@@ -2241,6 +2172,84 @@
   </si>
   <si>
     <t>Tenho a sabedoria de Deus, e sei lidar com qualquer circunstância.</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>1 Coríntios 2:9 - ARA</t>
+  </si>
+  <si>
+    <t>1 Coríntios</t>
+  </si>
+  <si>
+    <t>Efésios 2:8-9 - ACF</t>
+  </si>
+  <si>
+    <t>2:8-9</t>
+  </si>
+  <si>
+    <t>2 Crônicas 20:15-17 - ACF</t>
+  </si>
+  <si>
+    <t>2 Crônicas</t>
+  </si>
+  <si>
+    <t>Isaías 1:19 — KJV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanos 12:21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salmos 91.10-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 Na verdade, na verdade vos digo que quem ouve a minha palavra, e crê naquele que me enviou, tem a vida eterna, e não entrará em condenação, mas passou da morte para a vida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eu vim para que tenham vida, e a tenham com abundância. </t>
+  </si>
+  <si>
+    <t>Em lugar da pobreza Ele me deu riquezas,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> em lugar da doença Ele me deu saúde, </t>
+  </si>
+  <si>
+    <t>em lugar da morte Ele me deu vida eterna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Coríntios 8:9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João 10:10 </t>
+  </si>
+  <si>
+    <t>João 5:24</t>
+  </si>
+  <si>
+    <t>5:24</t>
+  </si>
+  <si>
+    <t>119:25</t>
+  </si>
+  <si>
+    <t>37:4</t>
+  </si>
+  <si>
+    <t>Salmos 37:4</t>
+  </si>
+  <si>
+    <t>Salmos 119:25</t>
+  </si>
+  <si>
+    <t>Lucas 6:38</t>
+  </si>
+  <si>
+    <t>2 Coríntios 9:6-9</t>
+  </si>
+  <si>
+    <t>9:6-9</t>
   </si>
 </sst>
 </file>
@@ -2436,29 +2445,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2472,10 +2479,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,16 +2509,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2501,16 +2520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2835,34 +2844,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -2872,66 +2881,66 @@
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="16" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="20" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="26" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="22" t="s">
         <v>113</v>
       </c>
@@ -2939,89 +2948,89 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="26" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="20" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="26" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="16" t="s">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="22" t="s">
         <v>127</v>
       </c>
@@ -3029,13 +3038,13 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="22" t="s">
         <v>300</v>
       </c>
@@ -3045,20 +3054,20 @@
       <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="30" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="22" t="s">
         <v>239</v>
       </c>
@@ -3089,13 +3098,13 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="24" t="s">
         <v>308</v>
       </c>
@@ -3112,13 +3121,13 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="22" t="s">
         <v>248</v>
       </c>
@@ -3135,87 +3144,87 @@
       <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="26" t="s">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="26" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="16" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="16" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="24" t="s">
         <v>329</v>
       </c>
@@ -3225,27 +3234,27 @@
       <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="26" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="22" t="s">
         <v>334</v>
       </c>
@@ -3262,13 +3271,13 @@
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="22" t="s">
         <v>268</v>
       </c>
@@ -3285,27 +3294,27 @@
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="20" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
       <c r="P16" s="24" t="s">
         <v>272</v>
       </c>
@@ -3322,13 +3331,13 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="24" t="s">
         <v>213</v>
       </c>
@@ -3336,52 +3345,52 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="20" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="26" t="s">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="22" t="s">
         <v>110</v>
       </c>
@@ -3389,29 +3398,29 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="26" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="24" t="s">
         <v>123</v>
       </c>
@@ -3427,29 +3436,29 @@
       <c r="J20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="26" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="24" t="s">
         <v>122</v>
       </c>
@@ -3465,29 +3474,29 @@
       <c r="J21" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="16" t="s">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
     </row>
     <row r="22" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="22" t="s">
         <v>128</v>
       </c>
@@ -3495,13 +3504,13 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="22" t="s">
         <v>301</v>
       </c>
@@ -3511,13 +3520,13 @@
       <c r="T22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="24" t="s">
         <v>170</v>
       </c>
@@ -3555,13 +3564,13 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="24" t="s">
         <v>309</v>
       </c>
@@ -3578,13 +3587,13 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="22" t="s">
         <v>249</v>
       </c>
@@ -3601,43 +3610,43 @@
       <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="14" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="26" t="s">
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="24" t="s">
         <v>186</v>
       </c>
@@ -3645,43 +3654,43 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="16" t="s">
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="24" t="s">
         <v>328</v>
       </c>
@@ -3691,27 +3700,27 @@
       <c r="T28" s="25"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="32" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="22" t="s">
         <v>333</v>
       </c>
@@ -3728,13 +3737,13 @@
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="22" t="s">
         <v>267</v>
       </c>
@@ -3753,15 +3762,93 @@
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
     <mergeCell ref="P27:T27"/>
     <mergeCell ref="P28:T28"/>
     <mergeCell ref="P29:T29"/>
@@ -3786,93 +3873,15 @@
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="K25:O25"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4234,14 +4243,14 @@
       <c r="G16" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -4250,8 +4259,8 @@
       <c r="B17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -4260,8 +4269,8 @@
       <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4270,8 +4279,8 @@
       <c r="B19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4617,17 +4626,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="6" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
@@ -4638,13 +4647,13 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>501</v>
+        <v>492</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="D1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
@@ -4658,19 +4667,19 @@
         <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>504</v>
+        <v>573</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G2">
         <v>49</v>
@@ -4684,13 +4693,13 @@
         <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>505</v>
+        <v>574</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>96</v>
@@ -4710,13 +4719,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>506</v>
+        <v>495</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>498</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>100</v>
@@ -4736,13 +4745,13 @@
         <v>121</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>507</v>
+        <v>575</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>499</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>120</v>
@@ -4762,13 +4771,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>508</v>
+        <v>575</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>500</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>124</v>
@@ -4788,13 +4797,13 @@
         <v>141</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>509</v>
+        <v>576</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>140</v>
@@ -4814,13 +4823,13 @@
         <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>510</v>
+        <v>495</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>502</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>153</v>
@@ -4840,13 +4849,13 @@
         <v>178</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>511</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>177</v>
@@ -4866,13 +4875,13 @@
         <v>197</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>512</v>
+        <v>495</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>504</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>196</v>
@@ -4892,13 +4901,13 @@
         <v>216</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>513</v>
+        <v>577</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>505</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>215</v>
@@ -4915,16 +4924,16 @@
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>246</v>
+        <v>714</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>514</v>
+        <v>715</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>713</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>245</v>
@@ -4941,16 +4950,16 @@
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>273</v>
+        <v>716</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>515</v>
+        <v>573</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>717</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>271</v>
@@ -4970,13 +4979,13 @@
         <v>293</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>516</v>
+        <v>578</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>506</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>292</v>
@@ -4996,13 +5005,13 @@
         <v>311</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>517</v>
+        <v>495</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>507</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>310</v>
@@ -5022,13 +5031,13 @@
         <v>316</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>518</v>
+        <v>579</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>508</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>315</v>
@@ -5048,13 +5057,13 @@
         <v>322</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>519</v>
+        <v>580</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>321</v>
@@ -5074,13 +5083,13 @@
         <v>346</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>520</v>
+        <v>581</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>694</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>347</v>
@@ -5100,13 +5109,13 @@
         <v>348</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>521</v>
+        <v>573</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>510</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>349</v>
@@ -5126,13 +5135,13 @@
         <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>522</v>
+        <v>574</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>511</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>85</v>
@@ -5152,13 +5161,13 @@
         <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>523</v>
+        <v>574</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>512</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -5178,13 +5187,13 @@
         <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>524</v>
+        <v>573</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>513</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>376</v>
@@ -5204,13 +5213,13 @@
         <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>525</v>
+        <v>576</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>133</v>
@@ -5230,13 +5239,13 @@
         <v>192</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>526</v>
+        <v>582</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>515</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>191</v>
@@ -5256,13 +5265,13 @@
         <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>527</v>
+        <v>495</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>516</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>88</v>
@@ -5282,13 +5291,13 @@
         <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>637</v>
+        <v>581</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>617</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>89</v>
@@ -5308,13 +5317,13 @@
         <v>114</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>528</v>
+        <v>583</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>517</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>111</v>
@@ -5334,13 +5343,13 @@
         <v>130</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>529</v>
+        <v>576</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>129</v>
@@ -5360,13 +5369,13 @@
         <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>530</v>
+        <v>576</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>519</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>145</v>
@@ -5386,13 +5395,13 @@
         <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>531</v>
+        <v>576</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>520</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>149</v>
@@ -5412,13 +5421,13 @@
         <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>532</v>
+        <v>495</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>181</v>
@@ -5438,13 +5447,13 @@
         <v>202</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>533</v>
+        <v>577</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>201</v>
@@ -5464,13 +5473,13 @@
         <v>211</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>534</v>
+        <v>584</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>523</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>210</v>
@@ -5490,13 +5499,13 @@
         <v>219</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>535</v>
+        <v>575</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>218</v>
@@ -5516,13 +5525,13 @@
         <v>224</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>536</v>
+        <v>585</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>223</v>
@@ -5542,13 +5551,13 @@
         <v>229</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>537</v>
+        <v>582</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>228</v>
@@ -5568,13 +5577,13 @@
         <v>232</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>538</v>
+        <v>586</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>527</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>231</v>
@@ -5591,16 +5600,16 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>237</v>
+        <v>718</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>539</v>
+        <v>719</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>236</v>
@@ -5620,13 +5629,13 @@
         <v>242</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>540</v>
+        <v>573</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>241</v>
@@ -5646,13 +5655,13 @@
         <v>251</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>541</v>
+        <v>495</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>250</v>
@@ -5672,13 +5681,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>638</v>
+        <v>587</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>618</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>254</v>
@@ -5698,13 +5707,13 @@
         <v>264</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>639</v>
+        <v>580</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>619</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>263</v>
@@ -5724,13 +5733,13 @@
         <v>269</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>542</v>
+        <v>588</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>268</v>
@@ -5750,13 +5759,13 @@
         <v>288</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>543</v>
+        <v>589</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>532</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>287</v>
@@ -5768,7 +5777,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5776,13 +5785,13 @@
         <v>340</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>544</v>
+        <v>495</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>339</v>
@@ -5802,13 +5811,13 @@
         <v>338</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>545</v>
+        <v>495</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>337</v>
@@ -5828,13 +5837,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>546</v>
+        <v>589</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>352</v>
@@ -5854,13 +5863,13 @@
         <v>354</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>547</v>
+        <v>589</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>536</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>355</v>
@@ -5880,13 +5889,13 @@
         <v>357</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>548</v>
+        <v>589</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>358</v>
@@ -5906,13 +5915,13 @@
         <v>360</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>640</v>
+        <v>580</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>620</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>361</v>
@@ -5932,13 +5941,13 @@
         <v>362</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>549</v>
+        <v>495</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>363</v>
@@ -5958,13 +5967,13 @@
         <v>365</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>550</v>
+        <v>590</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>366</v>
@@ -5984,13 +5993,13 @@
         <v>84</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>641</v>
+        <v>495</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>621</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>83</v>
@@ -6010,13 +6019,13 @@
         <v>108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>551</v>
+        <v>585</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>107</v>
@@ -6036,13 +6045,13 @@
         <v>369</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>552</v>
+        <v>495</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>541</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>158</v>
@@ -6062,13 +6071,13 @@
         <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>528</v>
+        <v>591</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>517</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>163</v>
@@ -6085,16 +6094,16 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>642</v>
+        <v>495</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>622</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>172</v>
@@ -6114,13 +6123,13 @@
         <v>169</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>553</v>
+        <v>591</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>168</v>
@@ -6140,13 +6149,13 @@
         <v>188</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>529</v>
+        <v>592</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>187</v>
@@ -6166,13 +6175,13 @@
         <v>208</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>554</v>
+        <v>495</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>543</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>207</v>
@@ -6192,13 +6201,13 @@
         <v>258</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>555</v>
+        <v>593</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>256</v>
@@ -6218,13 +6227,13 @@
         <v>261</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>644</v>
+        <v>594</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>624</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>259</v>
@@ -6241,16 +6250,16 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>278</v>
+        <v>720</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>531</v>
+        <v>589</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>520</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>277</v>
@@ -6270,13 +6279,13 @@
         <v>283</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>556</v>
+        <v>574</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>282</v>
@@ -6296,13 +6305,13 @@
         <v>298</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>645</v>
+        <v>581</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>625</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>297</v>
@@ -6322,13 +6331,13 @@
         <v>304</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>557</v>
+        <v>576</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>546</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>303</v>
@@ -6348,13 +6357,13 @@
         <v>307</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>558</v>
+        <v>579</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>306</v>
@@ -6374,13 +6383,13 @@
         <v>326</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>559</v>
+        <v>590</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>325</v>
@@ -6400,13 +6409,13 @@
         <v>331</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>504</v>
+        <v>495</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>330</v>
@@ -6423,1252 +6432,1293 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>498</v>
+        <v>721</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>633</v>
-      </c>
       <c r="E70" s="8" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>647</v>
+      <c r="A71" s="14" t="s">
+        <v>627</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>640</v>
+        <v>580</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>620</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>423</v>
+        <v>613</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>422</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>649</v>
+      <c r="A72" s="14" t="s">
+        <v>629</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>648</v>
+        <v>495</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>628</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>424</v>
+        <v>613</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
-        <v>650</v>
+      <c r="A73" s="14" t="s">
+        <v>630</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>651</v>
+        <v>589</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>631</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>425</v>
+        <v>613</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>652</v>
+      <c r="A74" s="14" t="s">
+        <v>632</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>653</v>
+        <v>589</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>633</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>655</v>
+        <v>613</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
-        <v>658</v>
+      <c r="A75" s="14" t="s">
+        <v>638</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>504</v>
+        <v>495</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>654</v>
+        <v>613</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>634</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>659</v>
+      <c r="A76" s="14" t="s">
+        <v>639</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>660</v>
+        <v>578</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>640</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>426</v>
+        <v>613</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>425</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
-        <v>661</v>
+      <c r="A77" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>664</v>
+        <v>495</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>666</v>
+        <v>613</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>645</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>662</v>
+      <c r="A78" s="14" t="s">
+        <v>641</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>663</v>
+        <v>574</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>642</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>665</v>
+        <v>613</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>644</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>667</v>
+      <c r="A79" s="14" t="s">
+        <v>646</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>669</v>
+        <v>647</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>648</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E79" s="36" t="s">
-        <v>427</v>
+        <v>613</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>670</v>
+      <c r="A80" s="14" t="s">
+        <v>649</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>671</v>
+        <v>573</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>650</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>428</v>
+        <v>613</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>674</v>
+      <c r="A81" s="14" t="s">
+        <v>653</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>516</v>
+        <v>578</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>506</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>680</v>
+        <v>613</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>659</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
-        <v>675</v>
+      <c r="A82" s="14" t="s">
+        <v>654</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>677</v>
+        <v>655</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>656</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>682</v>
+        <v>613</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>661</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>678</v>
+      <c r="A83" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>679</v>
+        <v>588</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>658</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E83" s="36" t="s">
-        <v>681</v>
+        <v>613</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>660</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
-        <v>686</v>
+      <c r="A84" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>535</v>
+        <v>575</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E84" s="36" t="s">
-        <v>429</v>
+        <v>613</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
-        <v>687</v>
+      <c r="A85" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>688</v>
+        <v>647</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>667</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>430</v>
+        <v>613</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>429</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>689</v>
+      <c r="A86" s="14" t="s">
+        <v>668</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>690</v>
+        <v>495</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>669</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>431</v>
+        <v>613</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
-        <v>692</v>
+      <c r="A87" s="14" t="s">
+        <v>671</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>691</v>
+        <v>589</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>670</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E87" s="36" t="s">
-        <v>432</v>
+        <v>613</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
-        <v>693</v>
+      <c r="A88" s="14" t="s">
+        <v>672</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>694</v>
+        <v>578</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>673</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="36" t="s">
-        <v>680</v>
+      <c r="E88" s="14" t="s">
+        <v>659</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E95" t="s">
+        <v>432</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E89" s="36" t="s">
-        <v>696</v>
-      </c>
-      <c r="F89" s="8" t="s">
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
-        <v>678</v>
-      </c>
-      <c r="B90" s="8" t="s">
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C90" s="37" t="s">
-        <v>679</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E90" s="36" t="s">
-        <v>699</v>
-      </c>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>700</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>702</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E91" s="36" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E92" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E93" t="s">
-        <v>436</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E94" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C95" s="37" t="s">
+      <c r="C124" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E95" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C96" s="37" t="s">
+      <c r="D124" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="D125" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C97" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>707</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E98" s="36" t="s">
-        <v>706</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
-        <v>705</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>712</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E99" s="36" t="s">
-        <v>710</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>711</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>716</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>717</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E101" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
-        <v>726</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E102" s="36" t="s">
-        <v>719</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>718</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="36" t="s">
-        <v>729</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>730</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E104" s="36" t="s">
-        <v>732</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="36" t="s">
-        <v>731</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>733</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="36" t="s">
-        <v>724</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>722</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E106" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>723</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>565</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E108" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>566</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E109" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E110" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>569</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E112" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E113" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E114" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E115" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C116" s="37" t="s">
+      <c r="C133" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E116" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C117" s="37" t="s">
+      <c r="D133" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E117" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E118" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E119" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E120" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E121" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E122" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E123" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E124" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E125" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E126" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E127" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E128" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A129" s="36" t="s">
+      <c r="D134" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E134" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E129" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E130" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E131" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="F131" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="E132" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5B84C-0E0E-4CAA-95A0-D3675D4CB9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5120494F-E1D4-4145-B09C-219DA625E3F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="747">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1250,9 +1250,6 @@
     <t>Eu me despi do velho homem e revisto do novo homem que se renova no conhecimento, segundo a imagem daquele que me criou.</t>
   </si>
   <si>
-    <t>Recebo o Espirito de sabedoria e revelação no conhecimento Dele, sendo iluminados os olhos do meu conhecimento, e não me conformo com este mundo, mas sou transformado pela renovação da minha mente. A minha mente é renovada pela palavra de Deus.</t>
-  </si>
-  <si>
     <t>Estou crescendo no conhecimento de Deus. Sou fortalecido com todo o poder de acordo com o seu glorioso poder.</t>
   </si>
   <si>
@@ -1355,9 +1352,6 @@
     <t>Reconhece-o em todos os teus caminhos, e ele endireitará as tuas veredas</t>
   </si>
   <si>
-    <t>Sl 119.105</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lâmpada para os meus pés é tua palavra, e luz para o meu caminho. </t>
   </si>
   <si>
@@ -1379,102 +1373,39 @@
     <t xml:space="preserve"> A este o porteiro abre, e as ovelhas ouvem a sua voz, e chama pelo nome às suas ovelhas, e as traz para fora. 4 E, quando tira para fora as suas ovelhas, vai adiante delas, e as ovelhas o seguem, porque conhecem a sua voz.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1Co 1.30  2Co 5.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 Mas vós sois dele, em Jesus Cristo, o qual para nós foi feito por Deus sabedoria, e justiça, e santificação, e redenção; 21 Àquele que não conheceu pecado, o fez pecado por nós; para que nele fôssemos feitos justiça de Deus. </t>
-  </si>
-  <si>
-    <t>Cl 1.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Por esta razão, nós também, desde o dia em que o ouvimos, não cessamos de orar por vós, e de pedir que sejais cheios do conhecimento da sua vontade, em toda a sabedoria e inteligência espiritual;  </t>
   </si>
   <si>
-    <t>2Co 5.17  Ef 2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assim que, se alguém está em Cristo, nova criatura é; as coisas velhas já passaram; eis que tudo se fez novo. Porque somos feitura sua, criados em Cri10sto Jesus para as boas obras, as quais Deus preparou para que andássemos nelas. </t>
-  </si>
-  <si>
     <t> Porque, quem conheceu a mente do Senhor, para que possa instruí-lo? Mas nós temos a mente de Cristo.</t>
   </si>
   <si>
-    <t>Cl 3.10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E vos vestistes do novo, que se renova para o conhecimento, segundo a imagem daquele que o criou; </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ef 1.17 Rm 12.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  17 Para que o Deus de nosso Senhor Jesus Cristo, o Pai da glória, vos dê em seu conhecimento o espírito de sabedoria e de revelação; 2 E não sede conformados com este mundo, mas sede transformados pela renovação do vosso entendimento, para que experimenteis qual seja a boa, agradável, e perfeita vontade de Deus.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cl 1.10-11</t>
-  </si>
-  <si>
     <t>10 Para que possais andar dignamente diante do Senhor, agradando-lhe em tudo, frutificando em toda a boa obra, e crescendo no conhecimento de Deus; 11 Corroborados em toda a fortaleza, segundo a força da sua glória, em toda a paciência, e longanimidade com gozo;</t>
   </si>
   <si>
-    <t>Cl 1.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">O qual nos tirou da potestade das trevas, e nos transportou para o reino do Filho do seu amor; </t>
   </si>
   <si>
-    <t xml:space="preserve">  1Jo 5.4  1Jo 4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 Quem é que vence o mundo, senão aquele que crê que Jesus é o Filho de Deus? 4 Filhinhos, sois de Deus, e já os tendes vencido; porque maior é o que está em vós do que o que está no mundo.</t>
-  </si>
-  <si>
-    <t>Fp 4.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Posso todas as coisas em Cristo que me fortalece. </t>
   </si>
   <si>
-    <t>Ne 8.10  Sl 27.1</t>
-  </si>
-  <si>
-    <t>10 Disse-lhes mais: Ide, comei as gorduras, e bebei as doçuras, e enviai porções aos que não têm nada preparado para si; porque este dia é consagrado ao nosso Senhor; portanto não vos entristeçais; porque a alegria do Senhor é a vossa força.  1 O SENHOR é a minha luz e a minha salvação; a quem temerei? O SENHOR é a força da minha vida; de quem me recearei?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fp 4.7-8</t>
-  </si>
-  <si>
     <t>7 E a paz de Deus, que excede todo o entendimento, guardará os vossos corações e os vossos pensamentos em Cristo Jesus. 8 Quanto ao mais, irmãos, tudo o que é verdadeiro, tudo o que é honesto, tudo o que é justo, tudo o que é puro, tudo o que é amável, tudo o que é de boa fama, se há alguma virtude, e se há algum louvor, nisso pensai.</t>
   </si>
   <si>
-    <t>Ef 4.15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antes, seguindo a verdade em amor, cresçamos em tudo naquele que é a cabeça, Cristo, </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ef 4.29-30</t>
-  </si>
-  <si>
     <t> Não saia da vossa boca nenhuma palavra torpe, mas só a que for boa para promover a edificação, para que dê graça aos que a ouvem. 30 E não entristeçais o Espírito Santo de Deus, no qual estais selados para o dia da redenção.</t>
   </si>
   <si>
-    <t>Jo 10.29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meu Pai, que me deu, é maior do que todos; e ninguém pode arrebatá-las da mão de meu Pai. </t>
   </si>
   <si>
-    <t>Cl 3.15</t>
-  </si>
-  <si>
     <t xml:space="preserve">E a paz de Deus, para a qual também fostes chamados em um corpo, domine em vossos corações; e sede agradecidos. </t>
   </si>
   <si>
-    <t xml:space="preserve">Pv 4.21-22 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Não as deixes apartar-se dos teus olhos; guarda-as no íntimo do teu coração. 22 Porque são vida para os que as acham, e saúde para todo o seu corpo. </t>
   </si>
   <si>
@@ -1682,12 +1613,6 @@
     <t>4:19</t>
   </si>
   <si>
-    <t>16.13  Tg 1.5</t>
-  </si>
-  <si>
-    <t>119.105</t>
-  </si>
-  <si>
     <t>138.8</t>
   </si>
   <si>
@@ -1697,51 +1622,6 @@
     <t>10.3-4</t>
   </si>
   <si>
-    <t>1Co 1.30  2Co 5.21</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>1.17 Rm 12.2</t>
-  </si>
-  <si>
-    <t>1.10-11</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1Jo 5.4  1Jo 4.4</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>8.10  Sl 27.1</t>
-  </si>
-  <si>
-    <t>4.7-8</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4.29-30</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>4.21-22</t>
-  </si>
-  <si>
     <t>2 Co 6.16  Jo 10.11  2 Pd 1.4 Rm 8.31</t>
   </si>
   <si>
@@ -1823,36 +1703,15 @@
     <t>Sl</t>
   </si>
   <si>
-    <t>Ef</t>
-  </si>
-  <si>
     <t>2 Co</t>
   </si>
   <si>
     <t>Jo</t>
   </si>
   <si>
-    <t>Pv</t>
-  </si>
-  <si>
     <t>Cl</t>
   </si>
   <si>
-    <t>1Co</t>
-  </si>
-  <si>
-    <t>2Co</t>
-  </si>
-  <si>
-    <t>1Jo</t>
-  </si>
-  <si>
-    <t>Fp</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
     <t>Mc</t>
   </si>
   <si>
@@ -2250,6 +2109,171 @@
   </si>
   <si>
     <t>9:6-9</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>Salmos 119:105</t>
+  </si>
+  <si>
+    <t>119:105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Àquele que não conheceu pecado, o fez pecado por nós; para que nele fôssemos feitos justiça de Deus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Mas vós sois dele, em Jesus Cristo, o qual para nós foi feito por Deus sabedoria, e justiça, e santificação, e redenção; </t>
+  </si>
+  <si>
+    <t>1:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Coríntios 1:30 </t>
+  </si>
+  <si>
+    <t>2 Coríntios 5:21</t>
+  </si>
+  <si>
+    <t>5:21</t>
+  </si>
+  <si>
+    <t>Colossenses 1:9</t>
+  </si>
+  <si>
+    <t>Efésios 2:10</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assim que, se alguém está em Cristo, nova criatura é; as coisas velhas já passaram; eis que tudo se fez novo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque somos feitura sua, criados em Cristo Jesus para as boas obras, as quais Deus preparou para que andássemos nelas. </t>
+  </si>
+  <si>
+    <t>2 Coríntios 5:17</t>
+  </si>
+  <si>
+    <t>1 Coríntios 2:16 - ARA</t>
+  </si>
+  <si>
+    <t>2:16</t>
+  </si>
+  <si>
+    <t>Colossenses 3:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 E não sede conformados com este mundo, mas sede transformados pela renovação do vosso entendimento, para que experimenteis qual seja a boa, agradável, e perfeita vontade de Deus.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17 Para que o Deus de nosso Senhor Jesus Cristo, o Pai da glória, vos dê em seu conhecimento o espírito de sabedoria e de revelação;</t>
+  </si>
+  <si>
+    <t>Recebo o Espirito de sabedoria e revelação no conhecimento Dele, sendo iluminados os olhos do meu conhecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Não me conformo com este mundo, mas sou transformado pela renovação da minha mente. A minha mente é renovada pela palavra de Deus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efésios 1:17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:17 </t>
+  </si>
+  <si>
+    <t>Romanos 12:2</t>
+  </si>
+  <si>
+    <t>12:2</t>
+  </si>
+  <si>
+    <t>Colossenses 1:10-11</t>
+  </si>
+  <si>
+    <t>1:10-11</t>
+  </si>
+  <si>
+    <t>Colossenses 1:13</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 João 5:4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:4  </t>
+  </si>
+  <si>
+    <t>1 João 4:4</t>
+  </si>
+  <si>
+    <t>4 Filhinhos, sois de Deus, e já os tendes vencido; porque maior é o que está em vós do que o que está no mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 Quem é que vence o mundo, senão aquele que crê que Jesus é o Filho de Deus? </t>
+  </si>
+  <si>
+    <t>Filipenses 4:13</t>
+  </si>
+  <si>
+    <t>Nemias</t>
+  </si>
+  <si>
+    <t>Nemias 8:10</t>
+  </si>
+  <si>
+    <t>8:10</t>
+  </si>
+  <si>
+    <t>Salmos 27:1</t>
+  </si>
+  <si>
+    <t>27:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 O SENHOR é a minha luz e a minha salvação; a quem temerei? O SENHOR é a força da minha vida; de quem me recearei?</t>
+  </si>
+  <si>
+    <t>10 Disse-lhes mais: Ide, comei as gorduras, e bebei as doçuras, e enviai porções aos que não têm nada preparado para si; porque este dia é consagrado ao nosso Senhor; portanto não vos entristeçais; porque a alegria do Senhor é a vossa força.</t>
+  </si>
+  <si>
+    <t>Filipenses 4:7-8</t>
+  </si>
+  <si>
+    <t>4:7-8</t>
+  </si>
+  <si>
+    <t>Efésios 4:15</t>
+  </si>
+  <si>
+    <t>4:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Efésios 4:29-30</t>
+  </si>
+  <si>
+    <t>4:29-30</t>
+  </si>
+  <si>
+    <t>João 10:29</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>Colossenses 3.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provérbios 4:21-22 </t>
+  </si>
+  <si>
+    <t>4:21-22</t>
+  </si>
+  <si>
+    <t>3:15</t>
   </si>
 </sst>
 </file>
@@ -4626,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4647,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="D1" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
@@ -4667,19 +4691,19 @@
         <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2">
         <v>49</v>
@@ -4693,13 +4717,13 @@
         <v>95</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>96</v>
@@ -4719,13 +4743,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>100</v>
@@ -4745,13 +4769,13 @@
         <v>121</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>120</v>
@@ -4771,13 +4795,13 @@
         <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>124</v>
@@ -4797,13 +4821,13 @@
         <v>141</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>140</v>
@@ -4823,13 +4847,13 @@
         <v>154</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>153</v>
@@ -4849,13 +4873,13 @@
         <v>178</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>177</v>
@@ -4875,13 +4899,13 @@
         <v>197</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>196</v>
@@ -4901,13 +4925,13 @@
         <v>216</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>215</v>
@@ -4924,16 +4948,16 @@
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>245</v>
@@ -4950,16 +4974,16 @@
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>271</v>
@@ -4979,13 +5003,13 @@
         <v>293</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>292</v>
@@ -5005,13 +5029,13 @@
         <v>311</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>310</v>
@@ -5031,13 +5055,13 @@
         <v>316</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>315</v>
@@ -5057,13 +5081,13 @@
         <v>322</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>321</v>
@@ -5083,13 +5107,13 @@
         <v>346</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>347</v>
@@ -5109,13 +5133,13 @@
         <v>348</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>349</v>
@@ -5135,13 +5159,13 @@
         <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>85</v>
@@ -5161,13 +5185,13 @@
         <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -5187,13 +5211,13 @@
         <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>376</v>
@@ -5213,13 +5237,13 @@
         <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>133</v>
@@ -5239,13 +5263,13 @@
         <v>192</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>191</v>
@@ -5265,13 +5289,13 @@
         <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>88</v>
@@ -5291,13 +5315,13 @@
         <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>89</v>
@@ -5317,13 +5341,13 @@
         <v>114</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>111</v>
@@ -5343,13 +5367,13 @@
         <v>130</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>129</v>
@@ -5369,13 +5393,13 @@
         <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>145</v>
@@ -5395,13 +5419,13 @@
         <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>149</v>
@@ -5421,13 +5445,13 @@
         <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>181</v>
@@ -5447,13 +5471,13 @@
         <v>202</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>201</v>
@@ -5473,13 +5497,13 @@
         <v>211</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>210</v>
@@ -5499,13 +5523,13 @@
         <v>219</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>218</v>
@@ -5525,13 +5549,13 @@
         <v>224</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>223</v>
@@ -5551,13 +5575,13 @@
         <v>229</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>228</v>
@@ -5577,13 +5601,13 @@
         <v>232</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>231</v>
@@ -5600,16 +5624,16 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>236</v>
@@ -5629,13 +5653,13 @@
         <v>242</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>241</v>
@@ -5655,13 +5679,13 @@
         <v>251</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>250</v>
@@ -5681,13 +5705,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>254</v>
@@ -5707,13 +5731,13 @@
         <v>264</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>263</v>
@@ -5733,13 +5757,13 @@
         <v>269</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>268</v>
@@ -5759,13 +5783,13 @@
         <v>288</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>287</v>
@@ -5777,7 +5801,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5785,13 +5809,13 @@
         <v>340</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>339</v>
@@ -5811,13 +5835,13 @@
         <v>338</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>337</v>
@@ -5837,13 +5861,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>352</v>
@@ -5863,13 +5887,13 @@
         <v>354</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>355</v>
@@ -5889,13 +5913,13 @@
         <v>357</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>358</v>
@@ -5915,13 +5939,13 @@
         <v>360</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>361</v>
@@ -5941,13 +5965,13 @@
         <v>362</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>363</v>
@@ -5967,13 +5991,13 @@
         <v>365</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>366</v>
@@ -5993,13 +6017,13 @@
         <v>84</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>83</v>
@@ -6019,13 +6043,13 @@
         <v>108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>107</v>
@@ -6045,13 +6069,13 @@
         <v>369</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>158</v>
@@ -6071,13 +6095,13 @@
         <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>163</v>
@@ -6094,16 +6118,16 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>172</v>
@@ -6123,13 +6147,13 @@
         <v>169</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>168</v>
@@ -6149,13 +6173,13 @@
         <v>188</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>187</v>
@@ -6175,13 +6199,13 @@
         <v>208</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>207</v>
@@ -6201,13 +6225,13 @@
         <v>258</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>256</v>
@@ -6227,13 +6251,13 @@
         <v>261</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>259</v>
@@ -6250,16 +6274,16 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>277</v>
@@ -6279,13 +6303,13 @@
         <v>283</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>282</v>
@@ -6305,13 +6329,13 @@
         <v>298</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>297</v>
@@ -6331,13 +6355,13 @@
         <v>304</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>303</v>
@@ -6357,13 +6381,13 @@
         <v>307</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>306</v>
@@ -6383,13 +6407,13 @@
         <v>326</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>325</v>
@@ -6409,13 +6433,13 @@
         <v>331</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>330</v>
@@ -6432,22 +6456,22 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>374</v>
@@ -6455,19 +6479,19 @@
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>377</v>
@@ -6475,19 +6499,19 @@
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>378</v>
@@ -6495,19 +6519,19 @@
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>379</v>
@@ -6515,59 +6539,59 @@
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>380</v>
@@ -6575,59 +6599,59 @@
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>381</v>
@@ -6635,19 +6659,19 @@
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>382</v>
@@ -6655,79 +6679,79 @@
     </row>
     <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>660</v>
-      </c>
       <c r="F83" s="8" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>383</v>
@@ -6735,19 +6759,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>384</v>
@@ -6755,19 +6779,19 @@
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>385</v>
@@ -6775,19 +6799,19 @@
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>386</v>
@@ -6795,17 +6819,17 @@
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="14" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>387</v>
@@ -6813,135 +6837,135 @@
     </row>
     <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>725</v>
+        <v>678</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>726</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>735</v>
+        <v>688</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>388</v>
@@ -6949,19 +6973,19 @@
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>389</v>
@@ -6969,19 +6993,19 @@
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>390</v>
@@ -6989,19 +7013,19 @@
     </row>
     <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>391</v>
@@ -7009,19 +7033,19 @@
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>392</v>
@@ -7029,79 +7053,79 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>393</v>
@@ -7109,99 +7133,99 @@
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>549</v>
+        <v>692</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>394</v>
@@ -7209,19 +7233,19 @@
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>395</v>
@@ -7229,19 +7253,19 @@
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>440</v>
+        <v>693</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>595</v>
+        <v>472</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>550</v>
+        <v>694</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>396</v>
@@ -7249,19 +7273,19 @@
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>397</v>
@@ -7269,19 +7293,19 @@
     </row>
     <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>398</v>
@@ -7289,436 +7313,523 @@
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>448</v>
+        <v>698</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>601</v>
+        <v>668</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>613</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="D114" s="8"/>
       <c r="E114" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="F114" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>452</v>
+        <v>701</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="8" t="s">
-        <v>613</v>
-      </c>
+      <c r="A117" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D117" s="8"/>
       <c r="E117" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>403</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>455</v>
+        <v>702</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>556</v>
+        <v>703</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>456</v>
+        <v>705</v>
       </c>
       <c r="F118" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="F119" s="8" t="s">
+    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="F120" s="8" t="s">
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="F121" s="8" t="s">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="F122" s="8" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="F123" s="8" t="s">
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>477</v>
+        <v>731</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>600</v>
+        <v>472</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>567</v>
+        <v>732</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>479</v>
+        <v>735</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>568</v>
+        <v>736</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>481</v>
+        <v>737</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>569</v>
+        <v>738</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>483</v>
+        <v>739</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>570</v>
+        <v>740</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="F132" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="F133" s="8" t="s">
+    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5120494F-E1D4-4145-B09C-219DA625E3F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35138D5-4DE3-4CF2-8297-E3BDD9B40D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$H$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="745">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1421,15 +1421,6 @@
     <t xml:space="preserve">E estes sinais seguirão aos que crerem: Em meu nome expulsarão os demônios; falarão novas línguas; 18 Pegarão nas serpentes; e, se beberem alguma coisa mortífera, não lhes fará dano algum; e porãoas mãos sobre os enfermos, e os curarão. </t>
   </si>
   <si>
-    <t>Mt 16.19 Mt 18.18 Ef 6.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.  18 Em verdade vos digo que tudo o que ligardes na terra será ligado no céu, e tudo o que desligardes na terra será desligado no céu.  12 Porque não temos que lutar contra a carne e o sangue, mas, sim, contra os principados, contra as potestades, contra os príncipes das trevas deste século, contra as hostes espirituais da maldade, nos lugares celestiais. </t>
-  </si>
-  <si>
-    <t>Cl 2.10  Ef 2.10</t>
-  </si>
-  <si>
     <t>10 E estais perfeitos nele, que é a cabeça de todo o principado e potestade;  10 Porque somos feitura sua, criados em Cristo Jesus para as boas obras, as quais Deus preparou para que andássemos nelas.</t>
   </si>
   <si>
@@ -1628,12 +1619,6 @@
     <t>16.17-18</t>
   </si>
   <si>
-    <t>16.19 Mt 18.18 Ef 6.12</t>
-  </si>
-  <si>
-    <t>2.10  Ef 2.10</t>
-  </si>
-  <si>
     <t>Efésios</t>
   </si>
   <si>
@@ -1715,9 +1700,6 @@
     <t>Mc</t>
   </si>
   <si>
-    <t>Mt</t>
-  </si>
-  <si>
     <t>ARA</t>
   </si>
   <si>
@@ -2274,13 +2256,25 @@
   </si>
   <si>
     <t>3:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.  12 Porque não temos que lutar contra a carne e o sangue, mas, sim, contra os principados, contra as potestades, contra os príncipes das trevas deste século, contra as hostes espirituais da maldade, nos lugares celestiais. </t>
+  </si>
+  <si>
+    <t>Mateus 16:19 Efésios 6.12</t>
+  </si>
+  <si>
+    <t>Colossenses 2:10  Ef 2:10</t>
+  </si>
+  <si>
+    <t>Confessar a palavra de Deus prospera o meu caminho e me faz bem sucedido.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2350,8 +2344,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2400,6 +2402,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2428,7 +2442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2479,17 +2493,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2503,28 +2529,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,10 +2541,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2544,6 +2558,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2861,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14F1B4-78FF-40F2-8B6E-6A68EC962608}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:O30"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,29 +2916,29 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="18" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="20" t="s">
         <v>99</v>
       </c>
@@ -2912,13 +2946,13 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="20" t="s">
         <v>275</v>
       </c>
@@ -2928,13 +2962,13 @@
       <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="20" t="s">
         <v>105</v>
       </c>
@@ -2942,103 +2976,103 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="21" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="26" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="21" t="s">
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="26" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="21" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="26" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="20" t="s">
         <v>296</v>
       </c>
@@ -3055,149 +3089,149 @@
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="26" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="22" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="18" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="22" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24" t="s">
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="24" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="31" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="22" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="21" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>151</v>
       </c>
@@ -3205,20 +3239,20 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="21" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="20" t="s">
         <v>324</v>
       </c>
@@ -3228,20 +3262,20 @@
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="28" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="20" t="s">
         <v>259</v>
       </c>
@@ -3249,22 +3283,22 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="20" t="s">
         <v>194</v>
       </c>
@@ -3272,103 +3306,103 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="22" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="26" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="24" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="24" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="20" t="s">
         <v>276</v>
       </c>
@@ -3378,133 +3412,133 @@
       <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="26" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="21" t="s">
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="22" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="26" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="21" t="s">
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="24" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="21" t="s">
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="24" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="20" t="s">
         <v>295</v>
       </c>
@@ -3521,147 +3555,147 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="26" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="22" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="24" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="22" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="31" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="24" t="s">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="31" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="22" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="21" t="s">
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -3671,20 +3705,20 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28" t="s">
+      <c r="F27" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
       <c r="P27" s="20" t="s">
         <v>323</v>
       </c>
@@ -3694,20 +3728,20 @@
       <c r="T27" s="20"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="20" t="s">
         <v>260</v>
       </c>
@@ -3715,13 +3749,13 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="24" t="s">
+      <c r="P28" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
@@ -3738,29 +3772,29 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="22" t="s">
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="20" t="s">
         <v>204</v>
       </c>
@@ -3768,41 +3802,103 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="22" t="s">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="F15:J15"/>
@@ -3827,85 +3923,23 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4652,479 +4686,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="6" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="42">
+        <v>49</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="45">
+        <v>50</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="D1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C4" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="42">
+        <v>51</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="45">
+        <v>54</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="42">
+        <v>55</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="45">
+        <v>58</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="42">
+        <v>61</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="45">
+        <v>66</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="42">
+        <v>70</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="45">
+        <v>74</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="42">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="H12" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="45">
+        <v>88</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2">
-        <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C14" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="42">
+        <v>92</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="45">
+        <v>96</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="C16" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="42">
+        <v>97</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4">
-        <v>51</v>
-      </c>
-      <c r="H4" s="8" t="s">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="45">
+        <v>98</v>
+      </c>
+      <c r="H17" s="43" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5">
-        <v>54</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G6">
-        <v>55</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7">
-        <v>58</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8">
-        <v>61</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9">
-        <v>66</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10">
-        <v>70</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11">
-        <v>74</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12">
-        <v>81</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13">
-        <v>88</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14">
-        <v>92</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15">
-        <v>96</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16">
-        <v>97</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17">
-        <v>98</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="42">
         <v>103</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="40" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5133,13 +5167,13 @@
         <v>348</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>349</v>
@@ -5159,13 +5193,13 @@
         <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>85</v>
@@ -5185,13 +5219,13 @@
         <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>86</v>
@@ -5211,13 +5245,13 @@
         <v>117</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>376</v>
@@ -5237,13 +5271,13 @@
         <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>133</v>
@@ -5263,13 +5297,13 @@
         <v>192</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>191</v>
@@ -5289,13 +5323,13 @@
         <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>88</v>
@@ -5315,13 +5349,13 @@
         <v>90</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>89</v>
@@ -5341,13 +5375,13 @@
         <v>114</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>111</v>
@@ -5367,13 +5401,13 @@
         <v>130</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>129</v>
@@ -5393,13 +5427,13 @@
         <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>145</v>
@@ -5419,13 +5453,13 @@
         <v>150</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>149</v>
@@ -5445,13 +5479,13 @@
         <v>182</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>181</v>
@@ -5471,13 +5505,13 @@
         <v>202</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>201</v>
@@ -5497,13 +5531,13 @@
         <v>211</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>210</v>
@@ -5523,13 +5557,13 @@
         <v>219</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>218</v>
@@ -5549,13 +5583,13 @@
         <v>224</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>223</v>
@@ -5575,13 +5609,13 @@
         <v>229</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>228</v>
@@ -5601,13 +5635,13 @@
         <v>232</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>231</v>
@@ -5624,16 +5658,16 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>236</v>
@@ -5653,13 +5687,13 @@
         <v>242</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>241</v>
@@ -5679,13 +5713,13 @@
         <v>251</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>250</v>
@@ -5705,13 +5739,13 @@
         <v>255</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>254</v>
@@ -5731,13 +5765,13 @@
         <v>264</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>263</v>
@@ -5757,13 +5791,13 @@
         <v>269</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>268</v>
@@ -5783,13 +5817,13 @@
         <v>288</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>287</v>
@@ -5801,7 +5835,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5809,13 +5843,13 @@
         <v>340</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>339</v>
@@ -5835,13 +5869,13 @@
         <v>338</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>337</v>
@@ -5861,13 +5895,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>352</v>
@@ -5887,13 +5921,13 @@
         <v>354</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>355</v>
@@ -5913,13 +5947,13 @@
         <v>357</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>358</v>
@@ -5939,13 +5973,13 @@
         <v>360</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>361</v>
@@ -5965,13 +5999,13 @@
         <v>362</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>363</v>
@@ -5991,13 +6025,13 @@
         <v>365</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>366</v>
@@ -6017,13 +6051,13 @@
         <v>84</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>83</v>
@@ -6043,13 +6077,13 @@
         <v>108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>107</v>
@@ -6069,13 +6103,13 @@
         <v>369</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>158</v>
@@ -6095,13 +6129,13 @@
         <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>163</v>
@@ -6118,16 +6152,16 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>172</v>
@@ -6147,13 +6181,13 @@
         <v>169</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>168</v>
@@ -6173,13 +6207,13 @@
         <v>188</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>187</v>
@@ -6199,13 +6233,13 @@
         <v>208</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>207</v>
@@ -6225,13 +6259,13 @@
         <v>258</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>256</v>
@@ -6251,13 +6285,13 @@
         <v>261</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>259</v>
@@ -6274,16 +6308,16 @@
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>277</v>
@@ -6303,13 +6337,13 @@
         <v>283</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>282</v>
@@ -6329,13 +6363,13 @@
         <v>298</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>297</v>
@@ -6355,13 +6389,13 @@
         <v>304</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>303</v>
@@ -6381,13 +6415,13 @@
         <v>307</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>306</v>
@@ -6407,13 +6441,13 @@
         <v>326</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>325</v>
@@ -6433,13 +6467,13 @@
         <v>331</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>330</v>
@@ -6456,22 +6490,22 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>374</v>
@@ -6479,16 +6513,16 @@
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>421</v>
@@ -6499,16 +6533,16 @@
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>422</v>
@@ -6519,16 +6553,16 @@
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>423</v>
@@ -6539,56 +6573,56 @@
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>424</v>
@@ -6599,56 +6633,56 @@
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>425</v>
@@ -6659,16 +6693,16 @@
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>426</v>
@@ -6679,76 +6713,76 @@
     </row>
     <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>612</v>
-      </c>
       <c r="F81" s="8" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="F82" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C83" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>427</v>
@@ -6759,16 +6793,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>428</v>
@@ -6779,16 +6813,16 @@
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>429</v>
@@ -6799,16 +6833,16 @@
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>430</v>
@@ -6819,17 +6853,17 @@
     </row>
     <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="14" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>387</v>
@@ -6837,132 +6871,132 @@
     </row>
     <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E95" t="s">
         <v>431</v>
@@ -6973,16 +7007,16 @@
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>432</v>
@@ -6993,16 +7027,16 @@
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>433</v>
@@ -7013,16 +7047,16 @@
     </row>
     <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>434</v>
@@ -7033,16 +7067,16 @@
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>435</v>
@@ -7053,76 +7087,76 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>436</v>
@@ -7133,96 +7167,96 @@
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>437</v>
@@ -7233,16 +7267,16 @@
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>438</v>
@@ -7253,16 +7287,16 @@
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>439</v>
@@ -7276,13 +7310,13 @@
         <v>440</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>441</v>
@@ -7296,13 +7330,13 @@
         <v>442</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>443</v>
@@ -7316,13 +7350,13 @@
         <v>444</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>445</v>
@@ -7333,35 +7367,35 @@
     </row>
     <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="14" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>400</v>
@@ -7369,16 +7403,16 @@
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>446</v>
@@ -7389,35 +7423,35 @@
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="14" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>402</v>
@@ -7425,16 +7459,16 @@
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>447</v>
@@ -7445,16 +7479,16 @@
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>448</v>
@@ -7465,54 +7499,54 @@
     </row>
     <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="14" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>449</v>
@@ -7523,16 +7557,16 @@
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>450</v>
@@ -7543,35 +7577,35 @@
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="14" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>407</v>
@@ -7579,16 +7613,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>451</v>
@@ -7599,17 +7633,17 @@
     </row>
     <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="14" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>409</v>
@@ -7617,33 +7651,33 @@
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>452</v>
@@ -7654,16 +7688,16 @@
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>453</v>
@@ -7674,16 +7708,16 @@
     </row>
     <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>454</v>
@@ -7694,16 +7728,16 @@
     </row>
     <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>455</v>
@@ -7714,16 +7748,16 @@
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>456</v>
@@ -7734,21 +7768,21 @@
     </row>
     <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="14" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7757,13 +7791,13 @@
         <v>458</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>459</v>
@@ -7777,13 +7811,13 @@
         <v>460</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>461</v>
@@ -7792,21 +7826,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>462</v>
+        <v>742</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C138" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>566</v>
-      </c>
       <c r="E138" s="14" t="s">
-        <v>463</v>
+        <v>741</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>418</v>
@@ -7814,19 +7848,19 @@
     </row>
     <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>464</v>
+        <v>743</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>532</v>
+        <v>697</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>419</v>

--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35138D5-4DE3-4CF2-8297-E3BDD9B40D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60918E54-4032-4DDD-A984-435F133262EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="798">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -2268,13 +2268,194 @@
   </si>
   <si>
     <t>Confessar a palavra de Deus prospera o meu caminho e me faz bem sucedido.</t>
+  </si>
+  <si>
+    <t>Eu sou como uma cidade protegida. Os anjos do Senhor me protegem como coluna de ferro e como um muro de bronze.</t>
+  </si>
+  <si>
+    <t>DERROTAR A PREOCUPAÇÃO E O MEDO</t>
+  </si>
+  <si>
+    <t>PARA NECESSIDADES MATERIAIS</t>
+  </si>
+  <si>
+    <t>SABEDORIA E ORIENTAÇÃO</t>
+  </si>
+  <si>
+    <t>PARA TER CONSOLO E FORÇA</t>
+  </si>
+  <si>
+    <t>Saúde e Condição Física</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Intelectual</t>
+  </si>
+  <si>
+    <t>Equilíbrio Emocional</t>
+  </si>
+  <si>
+    <t>Realização e propósito</t>
+  </si>
+  <si>
+    <t>Saúde Financeira</t>
+  </si>
+  <si>
+    <t>Contribuição Social</t>
+  </si>
+  <si>
+    <t>Vida Social e Amizades</t>
+  </si>
+  <si>
+    <t>Relacionamento amoroso</t>
+  </si>
+  <si>
+    <t>Família</t>
+  </si>
+  <si>
+    <t>Espiritualidade</t>
+  </si>
+  <si>
+    <t>Plenitude e Felicidade</t>
+  </si>
+  <si>
+    <t>Lazer, Hobbies e Diversão</t>
+  </si>
+  <si>
+    <t>Colossenses 3:17 (NAA)</t>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>E tudo o que fizerem, seja em palavra, seja em ação, façam em nome do Senhor Jesus, dando por ele graças a Deus Pai.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tiago 1:17 (NAA)</t>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Toda boa dádiva e todo dom perfeito vêm lá do alto, descendo do Pai das luzes, em quem não pode existir variação ou sombra de mudança.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confissão </t>
+  </si>
+  <si>
+    <t>justificação</t>
+  </si>
+  <si>
+    <t>Ajuda ao próximo</t>
+  </si>
+  <si>
+    <t>Redenção</t>
+  </si>
+  <si>
+    <t>#c63637</t>
+  </si>
+  <si>
+    <t>#FF6961</t>
+  </si>
+  <si>
+    <t>#ff9688</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (198,54,55)</t>
+  </si>
+  <si>
+    <t>Tons de vermelho pastéis</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (255,105,97)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (255,150,136)</t>
+  </si>
+  <si>
+    <t>Tons de Azuis pastéis</t>
+  </si>
+  <si>
+    <t>#5086c1</t>
+  </si>
+  <si>
+    <t>#84b6f4</t>
+  </si>
+  <si>
+    <t>#b2dafa</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (80,134,193)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (132,182,244)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (178,218,250)</t>
+  </si>
+  <si>
+    <t>Tons de Verde pastéis</t>
+  </si>
+  <si>
+    <t>#42ab49</t>
+  </si>
+  <si>
+    <t>#5dc460</t>
+  </si>
+  <si>
+    <t>#77dd77</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (66,171,73)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (93,196,96)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (119,221,119)</t>
+  </si>
+  <si>
+    <t>Tons de Amarelo pastéis</t>
+  </si>
+  <si>
+    <t>#fdfd22</t>
+  </si>
+  <si>
+    <t>#ffff4E</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (255,255,50)</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (255,255,150)</t>
+  </si>
+  <si>
+    <t>#FFF44f</t>
+  </si>
+  <si>
+    <t>(r,g,b) value is (255,244,79)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,8 +2533,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="72 Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.95"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6C757D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2398,12 +2619,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2411,6 +2626,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC63637"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6961"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9688"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5086C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84B6F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2DAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42AB49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5DC460"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77DD77"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDC1E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,7 +2729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2471,18 +2758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2493,29 +2768,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2529,10 +2812,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2541,16 +2842,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2559,32 +2854,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDCDC1E"/>
+      <color rgb="FFFFF44F"/>
+      <color rgb="FFFFFAAA"/>
+      <color rgb="FFFDFD96"/>
+      <color rgb="FFFFFF32"/>
+      <color rgb="FFFFFF96"/>
+      <color rgb="FFFFFF64"/>
+      <color rgb="FFFFFF7E"/>
+      <color rgb="FFFFFF4E"/>
+      <color rgb="FFFDFD22"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2895,41 +3230,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14F1B4-78FF-40F2-8B6E-6A68EC962608}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="34" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -2939,66 +3274,66 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="34" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="20" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="24" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="30" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="26" t="s">
         <v>113</v>
       </c>
@@ -3006,89 +3341,89 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="30" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="24" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="30" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="34" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="24" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="20" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="26" t="s">
         <v>127</v>
       </c>
@@ -3096,13 +3431,13 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="26" t="s">
         <v>300</v>
       </c>
@@ -3112,20 +3447,20 @@
       <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="26" t="s">
         <v>239</v>
       </c>
@@ -3156,13 +3491,13 @@
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="28" t="s">
         <v>308</v>
       </c>
@@ -3179,13 +3514,13 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="26" t="s">
         <v>248</v>
       </c>
@@ -3202,87 +3537,87 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="30" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30" t="s">
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="20" t="s">
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="28" t="s">
         <v>329</v>
       </c>
@@ -3292,27 +3627,27 @@
       <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="30" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="26" t="s">
         <v>334</v>
       </c>
@@ -3329,13 +3664,13 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="26" t="s">
         <v>268</v>
       </c>
@@ -3352,27 +3687,27 @@
       <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="24" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="28" t="s">
         <v>272</v>
       </c>
@@ -3389,13 +3724,13 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="28" t="s">
         <v>213</v>
       </c>
@@ -3403,52 +3738,52 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="24" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="30" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="26" t="s">
         <v>110</v>
       </c>
@@ -3456,29 +3791,29 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="30" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="28" t="s">
         <v>123</v>
       </c>
@@ -3494,29 +3829,29 @@
       <c r="J20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="30" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="28" t="s">
         <v>122</v>
       </c>
@@ -3532,29 +3867,29 @@
       <c r="J21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="20" t="s">
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
     </row>
     <row r="22" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="26" t="s">
         <v>128</v>
       </c>
@@ -3562,13 +3897,13 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="26" t="s">
         <v>301</v>
       </c>
@@ -3578,13 +3913,13 @@
       <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="28" t="s">
         <v>170</v>
       </c>
@@ -3622,13 +3957,13 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
       <c r="P24" s="28" t="s">
         <v>309</v>
       </c>
@@ -3645,13 +3980,13 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="26" t="s">
         <v>249</v>
       </c>
@@ -3668,43 +4003,43 @@
       <c r="T25" s="29"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="18" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="30" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="28" t="s">
         <v>744</v>
       </c>
@@ -3712,43 +4047,43 @@
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="20" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="28" t="s">
         <v>328</v>
       </c>
@@ -3758,27 +4093,27 @@
       <c r="T28" s="29"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="36" t="s">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="26" t="s">
         <v>333</v>
       </c>
@@ -3795,13 +4130,13 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="26" t="s">
         <v>267</v>
       </c>
@@ -3820,15 +4155,93 @@
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
     <mergeCell ref="P27:T27"/>
     <mergeCell ref="P28:T28"/>
     <mergeCell ref="P29:T29"/>
@@ -3853,93 +4266,15 @@
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="K25:O25"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3948,10 +4283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B126ADBD-F5D3-41E0-9768-A30995F5196A}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,15 +4297,17 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3986,12 +4323,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
+      <c r="G1" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>42</v>
@@ -4013,6 +4352,9 @@
       </c>
       <c r="O1" s="9" t="s">
         <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4028,33 +4370,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -4069,34 +4387,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -4105,39 +4398,9 @@
       <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4149,38 +4412,32 @@
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="F5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>768</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4190,25 +4447,9 @@
       <c r="B6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -4223,6 +4464,39 @@
       <c r="D7" t="s">
         <v>55</v>
       </c>
+      <c r="F7" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -4231,6 +4505,9 @@
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -4239,6 +4516,9 @@
       <c r="B9" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4247,6 +4527,33 @@
       <c r="B10" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4255,6 +4562,15 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4263,6 +4579,9 @@
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4271,6 +4590,27 @@
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4296,19 +4636,29 @@
         <v>142</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="K16" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -4317,8 +4667,8 @@
       <c r="B17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -4327,8 +4677,8 @@
       <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4337,8 +4687,6 @@
       <c r="B19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4371,6 +4719,9 @@
       <c r="B23" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="F23" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4379,6 +4730,12 @@
       <c r="B24" t="s">
         <v>179</v>
       </c>
+      <c r="F24" t="s">
+        <v>770</v>
+      </c>
+      <c r="G24" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -4387,6 +4744,12 @@
       <c r="B25" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="F25" t="s">
+        <v>771</v>
+      </c>
+      <c r="G25" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -4395,6 +4758,12 @@
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="F26" t="s">
+        <v>772</v>
+      </c>
+      <c r="G26" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4403,6 +4772,9 @@
       <c r="B27" t="s">
         <v>193</v>
       </c>
+      <c r="F27" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -4411,6 +4783,12 @@
       <c r="B28" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="F28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G28" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -4419,6 +4797,12 @@
       <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="F29" t="s">
+        <v>779</v>
+      </c>
+      <c r="G29" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -4427,6 +4811,12 @@
       <c r="B30" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="F30" t="s">
+        <v>780</v>
+      </c>
+      <c r="G30" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -4435,6 +4825,9 @@
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="F31" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -4443,56 +4836,122 @@
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>785</v>
+      </c>
+      <c r="G32" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>786</v>
+      </c>
+      <c r="G33" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="S33" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="V33" s="42"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>787</v>
+      </c>
+      <c r="G34" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q35" s="50" t="s">
+        <v>746</v>
+      </c>
+      <c r="R35" s="49"/>
+    </row>
+    <row r="36" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>792</v>
+      </c>
+      <c r="G36" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q36" s="50" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>793</v>
+      </c>
+      <c r="G37" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q37" s="50" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>796</v>
+      </c>
+      <c r="G38" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q38" s="50" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>246</v>
       </c>
@@ -4500,103 +4959,151 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q40" s="51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q41" s="51" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>258</v>
       </c>
       <c r="B42" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q42" s="51" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q43" s="51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q44" s="51" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q45" s="51" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q46" s="51" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q47" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B48" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q48" s="51" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q49" s="51" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>293</v>
       </c>
       <c r="B50" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q50" s="51" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="396.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q51" s="51" t="s">
+        <v>761</v>
+      </c>
+      <c r="U51" s="52" t="s">
+        <v>762</v>
+      </c>
+      <c r="V51" s="53" t="s">
+        <v>763</v>
+      </c>
+      <c r="W51" s="52" t="s">
+        <v>764</v>
+      </c>
+      <c r="X51" s="53" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>304</v>
       </c>
@@ -4604,7 +5111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>307</v>
       </c>
@@ -4612,7 +5119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>311</v>
       </c>
@@ -4620,7 +5127,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>316</v>
       </c>
@@ -4628,7 +5135,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>322</v>
       </c>
@@ -4636,7 +5143,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>326</v>
       </c>
@@ -4644,7 +5151,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>331</v>
       </c>
@@ -4652,7 +5159,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>340</v>
       </c>
@@ -4660,7 +5167,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>338</v>
       </c>
@@ -4669,12 +5176,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H16:I16"/>
+  <mergeCells count="4">
+    <mergeCell ref="S33:T33"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="U33:V33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4686,2313 +5192,2338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H18"/>
+    <sheetView topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="19" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="6" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="44" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="16">
         <v>49</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="19">
         <v>50</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="16">
         <v>51</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="19">
         <v>54</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="16">
         <v>55</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="19">
         <v>58</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="16">
         <v>61</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="19">
         <v>66</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="16">
         <v>70</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="19">
         <v>74</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="16">
         <v>81</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="46" t="s">
         <v>663</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="19">
         <v>88</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="16">
         <v>92</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="19">
         <v>96</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="16">
         <v>97</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="19">
         <v>98</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="16">
         <v>103</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="19">
         <v>104</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="45" t="s">
         <v>529</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="16">
         <v>44</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="19">
         <v>45</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="17" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="45" t="s">
         <v>528</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="16">
         <v>47</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="19">
         <v>57</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="17" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="45" t="s">
         <v>537</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="16">
         <v>69</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="19">
         <v>46</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="45" t="s">
         <v>536</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="16">
         <v>48</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="19">
         <v>53</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="45" t="s">
         <v>531</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="16">
         <v>56</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="G29" s="19">
         <v>59</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="45" t="s">
         <v>531</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="16">
         <v>60</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="19">
         <v>67</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="45" t="s">
         <v>532</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="16">
         <v>71</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="19">
         <v>73</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="45" t="s">
         <v>530</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="16">
         <v>75</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="19">
         <v>76</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="45" t="s">
         <v>537</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="16">
         <v>77</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="19">
         <v>78</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="45" t="s">
         <v>665</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="45" t="s">
         <v>666</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="16">
         <v>79</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="19">
         <v>80</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="45" t="s">
         <v>469</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="16">
         <v>82</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="19">
         <v>83</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="45" t="s">
         <v>535</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="16">
         <v>86</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="19">
         <v>87</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="45" t="s">
         <v>544</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="16">
         <v>91</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="19">
         <v>101</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="45" t="s">
         <v>469</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="16">
         <v>102</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="19">
         <v>105</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="45" t="s">
         <v>544</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="16">
         <v>106</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="19">
         <v>107</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="45" t="s">
         <v>535</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="16">
         <v>108</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="19">
         <v>109</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="45" t="s">
         <v>545</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="16">
         <v>110</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="19">
         <v>43</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="45" t="s">
         <v>540</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="16">
         <v>52</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="19">
         <v>62</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="45" t="s">
         <v>546</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="16">
         <v>63</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="19">
         <v>64</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="45" t="s">
         <v>546</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="16">
         <v>65</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="19">
         <v>68</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="45" t="s">
         <v>469</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="16">
         <v>72</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="19">
         <v>84</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="45" t="s">
         <v>549</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="16">
         <v>85</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="46" t="s">
         <v>667</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="19">
         <v>89</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="45" t="s">
         <v>529</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="16">
         <v>90</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="19">
         <v>93</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="45" t="s">
         <v>531</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="16">
         <v>94</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="19">
         <v>95</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="45" t="s">
         <v>545</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="16">
         <v>99</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="19">
         <v>100</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="17" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="45" t="s">
         <v>668</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="45" t="s">
         <v>602</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="17" t="s">
         <v>377</v>
       </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="45" t="s">
         <v>469</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="14" t="s">
         <v>378</v>
       </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="17" t="s">
         <v>379</v>
       </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="45" t="s">
         <v>579</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="45" t="s">
         <v>544</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="14" t="s">
         <v>583</v>
       </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="17" t="s">
         <v>584</v>
       </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="45" t="s">
         <v>586</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="45" t="s">
         <v>533</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="14" t="s">
         <v>380</v>
       </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="46" t="s">
         <v>669</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="17" t="s">
         <v>599</v>
       </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="45" t="s">
         <v>588</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="45" t="s">
         <v>529</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="14" t="s">
         <v>598</v>
       </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="17" t="s">
         <v>381</v>
       </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="45" t="s">
         <v>528</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="14" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="G80" s="16"/>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="17" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+      <c r="G81" s="19"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
         <v>601</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="45" t="s">
         <v>602</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="14" t="s">
         <v>560</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="14" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+      <c r="G82" s="16"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
         <v>604</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="11" t="s">
         <v>605</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="10" t="s">
         <v>607</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="47" t="s">
         <v>530</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="11" t="s">
         <v>498</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="10" t="s">
         <v>427</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="47" t="s">
         <v>613</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="11" t="s">
         <v>614</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="10" t="s">
         <v>428</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="47" t="s">
         <v>615</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="11" t="s">
         <v>616</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="10" t="s">
         <v>429</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="11" t="s">
         <v>617</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="10" t="s">
         <v>430</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
         <v>619</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="47" t="s">
         <v>533</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="11" t="s">
         <v>620</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="10" t="s">
         <v>606</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="11" t="s">
         <v>603</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="10" t="s">
         <v>622</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="s">
         <v>604</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="11" t="s">
         <v>605</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="10" t="s">
         <v>625</v>
       </c>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="47" t="s">
         <v>627</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="11" t="s">
         <v>628</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="10" t="s">
         <v>621</v>
       </c>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="11" t="s">
         <v>572</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="10" t="s">
         <v>635</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="10" t="s">
         <v>671</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="11" t="s">
         <v>678</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="10" t="s">
         <v>670</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
         <v>682</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="11" t="s">
         <v>679</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -7005,20 +7536,20 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="11" t="s">
         <v>680</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="10" t="s">
         <v>432</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -7026,19 +7557,19 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="47" t="s">
         <v>683</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="11" t="s">
         <v>514</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="10" t="s">
         <v>433</v>
       </c>
       <c r="F97" s="8" t="s">
@@ -7046,19 +7577,19 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="47" t="s">
         <v>684</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="11" t="s">
         <v>685</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="10" t="s">
         <v>434</v>
       </c>
       <c r="F98" s="8" t="s">
@@ -7066,19 +7597,19 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="47" t="s">
         <v>629</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="11" t="s">
         <v>630</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="10" t="s">
         <v>435</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -7086,19 +7617,19 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="11" t="s">
         <v>633</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="10" t="s">
         <v>631</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -7106,19 +7637,19 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="11" t="s">
         <v>572</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="10" t="s">
         <v>635</v>
       </c>
       <c r="F101" s="8" t="s">
@@ -7126,19 +7657,19 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="47" t="s">
         <v>637</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="10" t="s">
         <v>636</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -7146,19 +7677,19 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="47" t="s">
         <v>640</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="11" t="s">
         <v>641</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="10" t="s">
         <v>436</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -7166,19 +7697,19 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="11" t="s">
         <v>569</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="10" t="s">
         <v>643</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -7186,19 +7717,19 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="47" t="s">
         <v>533</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="11" t="s">
         <v>652</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="10" t="s">
         <v>642</v>
       </c>
       <c r="F105" s="8" t="s">
@@ -7206,19 +7737,19 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="47" t="s">
         <v>653</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="11" t="s">
         <v>654</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="10" t="s">
         <v>656</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -7226,19 +7757,19 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="11" t="s">
         <v>686</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="10" t="s">
         <v>657</v>
       </c>
       <c r="F107" s="8" t="s">
@@ -7246,19 +7777,19 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="47" t="s">
         <v>648</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="11" t="s">
         <v>646</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="10" t="s">
         <v>437</v>
       </c>
       <c r="F108" s="8" t="s">
@@ -7266,19 +7797,19 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="47" t="s">
         <v>649</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="11" t="s">
         <v>647</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="10" t="s">
         <v>438</v>
       </c>
       <c r="F109" s="8" t="s">
@@ -7286,19 +7817,19 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="11" t="s">
         <v>688</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="10" t="s">
         <v>439</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -7306,19 +7837,19 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="47" t="s">
         <v>550</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="11" t="s">
         <v>523</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="10" t="s">
         <v>441</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -7326,19 +7857,19 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="11" t="s">
         <v>524</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="10" t="s">
         <v>443</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -7346,19 +7877,19 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="11" t="s">
         <v>525</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="10" t="s">
         <v>445</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -7366,35 +7897,35 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="47" t="s">
         <v>692</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="11" t="s">
         <v>691</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="10" t="s">
         <v>690</v>
       </c>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="47" t="s">
         <v>693</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="11" t="s">
         <v>694</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="10" t="s">
         <v>689</v>
       </c>
       <c r="F115" s="8" t="s">
@@ -7402,19 +7933,19 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="11" t="s">
         <v>488</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="10" t="s">
         <v>446</v>
       </c>
       <c r="F116" s="8" t="s">
@@ -7422,35 +7953,35 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="47" t="s">
         <v>700</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="47" t="s">
         <v>536</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="11" t="s">
         <v>641</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="10" t="s">
         <v>698</v>
       </c>
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="47" t="s">
         <v>696</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="11" t="s">
         <v>697</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="10" t="s">
         <v>699</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -7458,19 +7989,19 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="47" t="s">
         <v>701</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="13" t="s">
         <v>702</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="10" t="s">
         <v>447</v>
       </c>
       <c r="F119" s="8" t="s">
@@ -7478,19 +8009,19 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="47" t="s">
         <v>703</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="11" t="s">
         <v>491</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="10" t="s">
         <v>448</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -7498,17 +8029,17 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="47" t="s">
         <v>708</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="11" t="s">
         <v>709</v>
       </c>
       <c r="D121" s="8"/>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="10" t="s">
         <v>705</v>
       </c>
       <c r="F121" s="8" t="s">
@@ -7516,19 +8047,19 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="11" t="s">
         <v>711</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="10" t="s">
         <v>704</v>
       </c>
       <c r="F122" s="8" t="s">
@@ -7536,19 +8067,19 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="47" t="s">
         <v>712</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="11" t="s">
         <v>713</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="10" t="s">
         <v>449</v>
       </c>
       <c r="F123" s="8" t="s">
@@ -7556,19 +8087,19 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="47" t="s">
         <v>714</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="11" t="s">
         <v>715</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="10" t="s">
         <v>450</v>
       </c>
       <c r="F124" s="8" t="s">
@@ -7576,35 +8107,35 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="47" t="s">
         <v>716</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="11" t="s">
         <v>717</v>
       </c>
       <c r="D125" s="8"/>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="10" t="s">
         <v>720</v>
       </c>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="47" t="s">
         <v>718</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="11" t="s">
         <v>567</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="10" t="s">
         <v>719</v>
       </c>
       <c r="F126" s="8" t="s">
@@ -7612,19 +8143,19 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="47" t="s">
         <v>721</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="11" t="s">
         <v>513</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="10" t="s">
         <v>451</v>
       </c>
       <c r="F127" s="8" t="s">
@@ -7632,17 +8163,17 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="47" t="s">
         <v>723</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="47" t="s">
         <v>722</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="11" t="s">
         <v>724</v>
       </c>
       <c r="D128" s="8"/>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="10" t="s">
         <v>728</v>
       </c>
       <c r="F128" s="8" t="s">
@@ -7650,36 +8181,36 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="47" t="s">
         <v>725</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="11" t="s">
         <v>726</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="10" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="47" t="s">
         <v>729</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="47" t="s">
         <v>545</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="11" t="s">
         <v>730</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" s="10" t="s">
         <v>452</v>
       </c>
       <c r="F130" s="8" t="s">
@@ -7687,19 +8218,19 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="47" t="s">
         <v>731</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="11" t="s">
         <v>732</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="10" t="s">
         <v>453</v>
       </c>
       <c r="F131" s="8" t="s">
@@ -7707,19 +8238,19 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="47" t="s">
         <v>733</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="11" t="s">
         <v>734</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="10" t="s">
         <v>454</v>
       </c>
       <c r="F132" s="8" t="s">
@@ -7727,19 +8258,19 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="47" t="s">
         <v>735</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="11" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" s="10" t="s">
         <v>455</v>
       </c>
       <c r="F133" s="8" t="s">
@@ -7747,19 +8278,19 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="11" t="s">
         <v>740</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="10" t="s">
         <v>456</v>
       </c>
       <c r="F134" s="8" t="s">
@@ -7767,39 +8298,39 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="11" t="s">
         <v>739</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="11" t="s">
         <v>526</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="10" t="s">
         <v>459</v>
       </c>
       <c r="F136" s="8" t="s">
@@ -7807,19 +8338,19 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="11" t="s">
         <v>527</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="10" t="s">
         <v>461</v>
       </c>
       <c r="F137" s="8" t="s">
@@ -7827,19 +8358,19 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="47" t="s">
         <v>742</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="11" t="s">
         <v>605</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="10" t="s">
         <v>741</v>
       </c>
       <c r="F138" s="8" t="s">
@@ -7847,19 +8378,19 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="47" t="s">
         <v>743</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="11" t="s">
         <v>697</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="10" t="s">
         <v>462</v>
       </c>
       <c r="F139" s="8" t="s">

--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FDF763-ADBB-4E91-919F-8089570EA4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC954E7B-9D01-4CC1-A9AB-CF80E2F126A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$U$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$U$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="920">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1160,9 +1160,6 @@
     <t>Sou um crente e esses sinais me seguem: em nome de Jesus expulso demônios, falo em novas línguas, imponho as mãos sobre os enfermos e eles são curados</t>
   </si>
   <si>
-    <t>Jesus me deu a autoridade para usar o seu nome, e aquilo que eu ligo na terra é ligado no céu, e aquilo que eu desligo na terra é desligado no céu, portanto em nome do Senhor Jesus Cristo amarro os principados, os poderes os dominadores deste mundo tenebroso. Amarro e expulso a maldade espiritual nas regiões celestiais e os tornos impotentes e ineficazes contra mim em nome de Jesus.</t>
-  </si>
-  <si>
     <t>Estou completo nele que é o cabeça de todo principado e potestade, porque sou feitura dele criado em Cristo Jesus para as boas obras que Deus preordenou que eu andasse nelas</t>
   </si>
   <si>
@@ -1781,9 +1778,6 @@
     <t>O Espírito do Senhor me vivifíca e me dá saúde plena.</t>
   </si>
   <si>
-    <t>E eu te darei as chaves do Reino dos céus, e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Deuteronômio 28:8</t>
   </si>
   <si>
@@ -1922,15 +1916,6 @@
     <t xml:space="preserve"> Eu vim para que tenham vida, e a tenham com abundância. </t>
   </si>
   <si>
-    <t>Em lugar da pobreza Ele me deu riquezas,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> em lugar da doença Ele me deu saúde, </t>
-  </si>
-  <si>
-    <t>em lugar da morte Ele me deu vida eterna</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 Coríntios 8:9 </t>
   </si>
   <si>
@@ -2127,12 +2112,6 @@
   </si>
   <si>
     <t>3:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.  12 Porque não temos que lutar contra a carne e o sangue, mas, sim, contra os principados, contra as potestades, contra os príncipes das trevas deste século, contra as hostes espirituais da maldade, nos lugares celestiais. </t>
-  </si>
-  <si>
-    <t>Mateus 16:19 Efésios 6.12</t>
   </si>
   <si>
     <t>Colossenses 2:10  Ef 2:10</t>
@@ -2682,139 +2661,6 @@
     <t>Vida eterna</t>
   </si>
   <si>
-    <r>
-      <t>Céu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ruas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>de</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ouro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tesouro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Iluminação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Claridade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Portas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>abertas</t>
-    </r>
-  </si>
-  <si>
     <t>Bem-estar, Vitalidade, Saúde plena, Estado perfeito</t>
   </si>
   <si>
@@ -2860,14 +2706,122 @@
     <t>Vida</t>
   </si>
   <si>
-    <t>Palavra chave</t>
+    <t>PALAVRA CHAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12 Porque não temos que lutar contra a carne e o sangue, mas, sim, contra os principados, contra as potestades, contra os príncipes das trevas deste século, contra as hostes espirituais da maldade, nos lugares celestiais. </t>
+  </si>
+  <si>
+    <t>19 E eu te darei as chaves do reino dos céus; e tudo o que ligares na terra será ligado nos céus, e tudo o que desligares na terra será desligado nos céus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateus 16:19 </t>
+  </si>
+  <si>
+    <t>6:12</t>
+  </si>
+  <si>
+    <t>Efésios 6:12</t>
+  </si>
+  <si>
+    <t>Em nome do Senhor Jesus Cristo amarro os principados, os poderes os dominadores deste mundo tenebroso. Amarro e expulso a maldade espiritual nas regiões celestiais e os tornos impotentes e ineficazes contra mim em nome de Jesus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus me deu a autoridade para usar o seu nome, e aquilo que eu ligo na terra é ligado no céu, e aquilo que eu desligo na terra é desligado no céu, portanto... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sou favorecido com a benção de Deus na minha despensa, e em tudo que faço. Todo negócio que eu coloco as mãos será abençoado por Deus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Em lugar da doença Ele me deu saúde. </t>
+  </si>
+  <si>
+    <t>Em lugar da pobreza Ele me deu riquezas.</t>
+  </si>
+  <si>
+    <t>Em lugar da morte Ele me deu vida eterna.</t>
+  </si>
+  <si>
+    <t>Deleitar</t>
+  </si>
+  <si>
+    <t>Possuir uma sensação de contentamento; satisfazer-se</t>
+  </si>
+  <si>
+    <t>21 Jesus respondeu: "Eu lhes asseguro que, se vocês tiverem fé e não duvidarem, poderão fazer não somente o que foi feito à figueira, mas também dizer a este monte: ‘Levante-se e atire-se no mar’, e assim será feito. 22 E tudo o que pedirem em oração, se crerem, vocês receberão".</t>
+  </si>
+  <si>
+    <t>21:21-22</t>
+  </si>
+  <si>
+    <t>Mateus 21:21-22</t>
+  </si>
+  <si>
+    <t>24 Portanto, eu lhes digo: tudo o que vocês pedirem em oração, creiam que já o receberam, e assim lhes sucederá.</t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>25 E quando estiverem orando, se tiverem alguma coisa contra alguém, perdoem-no, para que também o Pai celestial lhes perdoe os seus pecados".</t>
+  </si>
+  <si>
+    <t>Assim como eu perdoo quem me ofende, tenho a confiança que Jesus perdoou todo os meus pecados.</t>
+  </si>
+  <si>
+    <t>Marcos 11:24</t>
+  </si>
+  <si>
+    <t>Marcos 11:25</t>
+  </si>
+  <si>
+    <t>Confiado nas palavras de Jesus eu oro e creio que já recebi, e agora tenho certeza que vai acontecer.</t>
+  </si>
+  <si>
+    <t>Contas ouça-me eu estou falando com vocês. Jesus disse que vocês me obedeceriam. Em nome do Senhor Jesus Cristo eu ordeno sejam totalmente pagas, desmaterializem-se, sumam, desapareça. Em nome de Jesus você me obedeceram.</t>
+  </si>
+  <si>
+    <t>Dívidas</t>
+  </si>
+  <si>
+    <t>17:6</t>
+  </si>
+  <si>
+    <t>6 Ele respondeu: "Se vocês tiverem fé do tamanho de uma semente de mostarda, poderão dizer a esta amoreira: ‘Arranque-se e plante-se no mar’, e ela lhes obedecerá.</t>
+  </si>
+  <si>
+    <t>Lucas 17:6</t>
+  </si>
+  <si>
+    <t>9 Por isso Deus o exaltou à mais alta posição e lhe deu o nome que está acima de todo nome,</t>
+  </si>
+  <si>
+    <t>Filipenses 2:9</t>
+  </si>
+  <si>
+    <t>O dinheiro em papel e contas são feito de arvores. E Jesus disse que arvores obedeceriam suas palavras cheias de fé. Por isso eu digo as dívidas que desapareçam.</t>
+  </si>
+  <si>
+    <t>4:17</t>
+  </si>
+  <si>
+    <t>Romanos 4:17</t>
+  </si>
+  <si>
+    <t>"Eu o constituí pai de muitas nações". Ele é nosso pai aos olhos de Deus, em quem creu, o Deus que dá vida aos mortos e chama à existência coisas que não existem, como se existissem.”</t>
+  </si>
+  <si>
+    <t>Chamo a existências as coisas que não são como se fossem. Agora chamo a propriedade que atende as minhas necessidades e desejos e que será uma benção para mim. Eu a chamo para mim agora em nome de Jesus. Eu declaro que o melhor e superior de Deus são feitos nesta questão e que os anjos agora estão operando ao meu favor.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2947,14 +2901,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="72 Black"/>
@@ -3024,24 +2970,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -3215,7 +3163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3247,7 +3195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3300,17 +3248,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3323,16 +3262,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3343,6 +3282,131 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3410,117 +3474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3853,927 +3807,927 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C14F1B4-78FF-40F2-8B6E-6A68EC962608}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:O18"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="42" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="52" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="52" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="38" t="s">
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="48" t="s">
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="42" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="48" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="42" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="48" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="52" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="42" t="s">
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="38" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+    </row>
+    <row r="7" spans="1:20" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="44" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="52" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="44" t="s">
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46" t="s">
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="48" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46" t="s">
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="37" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="44" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46" t="s">
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="48" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48" t="s">
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="52" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="48" t="s">
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="38" t="s">
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="38" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="46" t="s">
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="38" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="48" t="s">
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="44" t="s">
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="50" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="44" t="s">
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44" t="s">
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="42" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="46" t="s">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="38" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="46" t="s">
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="38" t="s">
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="38" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="42" t="s">
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="48" t="s">
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44" t="s">
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="42" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="48" t="s">
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="46" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="48" t="s">
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="46" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="38" t="s">
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
     </row>
     <row r="22" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="44" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="42" t="s">
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44" t="s">
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="46" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="44" t="s">
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46" t="s">
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="37" t="s">
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="46" t="s">
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="37" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="44" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46" t="s">
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="36" t="s">
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="48" t="s">
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="46" t="s">
-        <v>701</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="36" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="88" t="s">
+        <v>694</v>
+      </c>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="38" t="s">
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38" t="s">
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="46" t="s">
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="54" t="s">
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="44" t="s">
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="38" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="44" t="s">
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="44" t="s">
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4908,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B126ADBD-F5D3-41E0-9768-A30995F5196A}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,25 +4901,25 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="H1" s="95" t="s">
+      <c r="F1" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="9"/>
-      <c r="O1" s="70" t="s">
-        <v>785</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>786</v>
+      <c r="O1" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4981,30 +4935,30 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>784</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>765</v>
-      </c>
-      <c r="I2" s="61" t="s">
+      <c r="G2" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="61" t="s">
-        <v>873</v>
-      </c>
-      <c r="L2" s="61"/>
-      <c r="O2" s="90" t="s">
+      <c r="K2" s="36" t="s">
+        <v>866</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="O2" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="P2" s="72" t="s">
-        <v>787</v>
+      <c r="P2" s="47" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5020,30 +4974,30 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>782</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>764</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>874</v>
-      </c>
-      <c r="J3" s="63" t="s">
+      <c r="F3" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>770</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="38"/>
+      <c r="O3" s="66" t="s">
         <v>777</v>
       </c>
-      <c r="K3" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="63"/>
-      <c r="O3" s="91" t="s">
-        <v>784</v>
-      </c>
-      <c r="P3" s="73" t="s">
-        <v>788</v>
+      <c r="P3" s="48" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5053,32 +5007,32 @@
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>790</v>
-      </c>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="90" t="s">
-        <v>724</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>793</v>
+      <c r="O4" s="65" t="s">
+        <v>717</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -5091,32 +5045,32 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>768</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>799</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>794</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>800</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="L5" s="34" t="s">
+      <c r="F5" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="L5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="91" t="s">
-        <v>776</v>
-      </c>
-      <c r="P5" s="73" t="s">
-        <v>795</v>
+      <c r="O5" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5126,24 +5080,24 @@
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>760</v>
-      </c>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="O6" s="90" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="O6" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="P6" s="72" t="s">
-        <v>796</v>
+      <c r="P6" s="47" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5159,24 +5113,24 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="O7" s="91" t="s">
-        <v>797</v>
-      </c>
-      <c r="P7" s="73" t="s">
-        <v>798</v>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="O7" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5186,48 +5140,52 @@
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="81" t="s">
-        <v>871</v>
-      </c>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="56" t="s">
+        <v>864</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="81" t="s">
-        <v>763</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="72"/>
+      <c r="H8" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="O8" s="65" t="s">
+        <v>895</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>770</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>842</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>801</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>761</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>762</v>
-      </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="73"/>
+        <v>775</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>835</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>794</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -5236,27 +5194,27 @@
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>780</v>
-      </c>
-      <c r="G10" s="64" t="s">
+      <c r="F10" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>781</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="72"/>
+      <c r="J10" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5265,25 +5223,25 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="65" t="s">
-        <v>774</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>771</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>789</v>
-      </c>
-      <c r="J11" s="65" t="s">
+      <c r="G11" s="40" t="s">
+        <v>767</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>764</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="73"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5292,19 +5250,19 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>772</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>773</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="G12" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5313,17 +5271,17 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>778</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="G13" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5332,15 +5290,15 @@
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -5349,15 +5307,15 @@
       <c r="B15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -5377,8 +5335,8 @@
       <c r="B17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -5388,9 +5346,9 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>729</v>
-      </c>
-      <c r="I18" s="22"/>
+        <v>722</v>
+      </c>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -5400,14 +5358,12 @@
         <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G19" t="s">
-        <v>728</v>
-      </c>
-      <c r="N19" s="93" t="s">
-        <v>875</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5417,14 +5373,12 @@
         <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G20" t="s">
-        <v>730</v>
-      </c>
-      <c r="N20" s="93" t="s">
-        <v>878</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -5434,14 +5388,12 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="G21" t="s">
-        <v>731</v>
-      </c>
-      <c r="N21" s="93" t="s">
-        <v>877</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="N21" s="67"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -5451,11 +5403,9 @@
         <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
-      </c>
-      <c r="N22" s="93" t="s">
-        <v>879</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="N22" s="67"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5465,14 +5415,12 @@
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="G23" t="s">
-        <v>736</v>
-      </c>
-      <c r="N23" s="93" t="s">
-        <v>876</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5482,12 +5430,12 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G24" t="s">
-        <v>737</v>
-      </c>
-      <c r="N24" s="93"/>
+        <v>730</v>
+      </c>
+      <c r="N24" s="67"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -5497,12 +5445,12 @@
         <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="G25" t="s">
-        <v>738</v>
-      </c>
-      <c r="N25" s="93"/>
+        <v>731</v>
+      </c>
+      <c r="N25" s="67"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5512,7 +5460,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5523,10 +5471,10 @@
         <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G27" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5537,10 +5485,10 @@
         <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="G28" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5551,10 +5499,10 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G29" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5565,7 +5513,7 @@
         <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5573,13 +5521,13 @@
         <v>173</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F31" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G31" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5590,10 +5538,10 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G32" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -5604,10 +5552,10 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G33" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>303</v>
@@ -5615,14 +5563,14 @@
       <c r="R33" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="S33" s="56" t="s">
+      <c r="S33" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56" t="s">
+      <c r="T33" s="98"/>
+      <c r="U33" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="V33" s="56"/>
+      <c r="V33" s="98"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -5632,10 +5580,10 @@
         <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="G34" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5646,12 +5594,12 @@
         <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q35" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="R35" s="28"/>
+        <v>746</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -5661,13 +5609,13 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G36" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>704</v>
+        <v>750</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5678,13 +5626,13 @@
         <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="G37" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q37" s="29" t="s">
-        <v>705</v>
+        <v>751</v>
+      </c>
+      <c r="Q37" s="26" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5695,13 +5643,13 @@
         <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G38" t="s">
-        <v>759</v>
-      </c>
-      <c r="Q38" s="29" t="s">
-        <v>706</v>
+        <v>752</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -5719,8 +5667,8 @@
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="30" t="s">
-        <v>707</v>
+      <c r="Q40" s="27" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -5730,8 +5678,8 @@
       <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="Q41" s="30" t="s">
-        <v>708</v>
+      <c r="Q41" s="27" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5741,8 +5689,8 @@
       <c r="B42" t="s">
         <v>142</v>
       </c>
-      <c r="Q42" s="30" t="s">
-        <v>709</v>
+      <c r="Q42" s="27" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5752,8 +5700,8 @@
       <c r="B43" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q43" s="30" t="s">
-        <v>710</v>
+      <c r="Q43" s="27" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5763,8 +5711,8 @@
       <c r="B44" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q44" s="30" t="s">
-        <v>711</v>
+      <c r="Q44" s="27" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5774,8 +5722,8 @@
       <c r="B45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q45" s="30" t="s">
-        <v>712</v>
+      <c r="Q45" s="27" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5785,8 +5733,8 @@
       <c r="B46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q46" s="30" t="s">
-        <v>713</v>
+      <c r="Q46" s="27" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5796,8 +5744,8 @@
       <c r="B47" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="Q47" s="30" t="s">
-        <v>714</v>
+      <c r="Q47" s="27" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5807,8 +5755,8 @@
       <c r="B48" t="s">
         <v>247</v>
       </c>
-      <c r="Q48" s="30" t="s">
-        <v>715</v>
+      <c r="Q48" s="27" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.25">
@@ -5818,8 +5766,8 @@
       <c r="B49" t="s">
         <v>250</v>
       </c>
-      <c r="Q49" s="30" t="s">
-        <v>716</v>
+      <c r="Q49" s="27" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.25">
@@ -5829,8 +5777,8 @@
       <c r="B50" t="s">
         <v>255</v>
       </c>
-      <c r="Q50" s="30" t="s">
-        <v>717</v>
+      <c r="Q50" s="27" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="224.25" x14ac:dyDescent="0.25">
@@ -5840,20 +5788,20 @@
       <c r="B51" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q51" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="U51" s="31" t="s">
-        <v>719</v>
-      </c>
-      <c r="V51" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="W51" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="X51" s="32" t="s">
-        <v>722</v>
+      <c r="Q51" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="U51" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="V51" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="W51" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="X51" s="29" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -5945,16 +5893,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:U139"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="24" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
@@ -5966,95 +5914,95 @@
     <col min="21" max="21" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21" s="74" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="74" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="U1" s="92" t="s">
-        <v>803</v>
+      <c r="H1" s="74" t="s">
+        <v>883</v>
+      </c>
+      <c r="T1" s="74" t="s">
+        <v>795</v>
+      </c>
+      <c r="U1" s="74" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>485</v>
+      <c r="B2" s="21" t="s">
+        <v>484</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" s="16">
         <v>49</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="74" t="s">
-        <v>776</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>724</v>
-      </c>
-      <c r="L2" s="74" t="s">
+      <c r="J2" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="L2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="89" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="89" t="s">
-        <v>847</v>
+      <c r="U2" s="64" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>486</v>
+      <c r="B3" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>60</v>
@@ -6065,52 +6013,54 @@
       <c r="G3" s="19">
         <v>50</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="M3" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="N3" s="75" t="s">
+      <c r="L3" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="75" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="89" t="s">
+      <c r="P3" s="50" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>909</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="89" t="s">
-        <v>844</v>
+      <c r="U3" s="64" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>426</v>
+      <c r="B4" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>64</v>
@@ -6121,50 +6071,50 @@
       <c r="G4" s="16">
         <v>51</v>
       </c>
-      <c r="H4" s="76" t="s">
-        <v>782</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>782</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>764</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>874</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>777</v>
-      </c>
-      <c r="O4" s="76" t="s">
+      <c r="H4" s="51" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>775</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="O4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="79" t="s">
-        <v>723</v>
-      </c>
-      <c r="U4" s="79" t="s">
-        <v>830</v>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>487</v>
+      <c r="B5" s="22" t="s">
+        <v>486</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>83</v>
@@ -6175,54 +6125,54 @@
       <c r="G5" s="19">
         <v>54</v>
       </c>
-      <c r="H5" s="87" t="s">
-        <v>789</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77" t="s">
-        <v>790</v>
-      </c>
-      <c r="L5" s="77" t="s">
+      <c r="H5" s="62" t="s">
+        <v>782</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52" t="s">
+        <v>783</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="77" t="s">
+      <c r="P5" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="R5" s="77" t="s">
-        <v>883</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="88" t="s">
+      <c r="Q5" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="88" t="s">
-        <v>858</v>
+      <c r="U5" s="63" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>487</v>
+      <c r="B6" s="21" t="s">
+        <v>486</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>87</v>
@@ -6233,54 +6183,54 @@
       <c r="G6" s="16">
         <v>55</v>
       </c>
-      <c r="H6" s="87" t="s">
-        <v>789</v>
-      </c>
-      <c r="J6" s="78" t="s">
-        <v>768</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>799</v>
-      </c>
-      <c r="L6" s="78" t="s">
-        <v>766</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>794</v>
-      </c>
-      <c r="N6" s="78" t="s">
-        <v>800</v>
-      </c>
-      <c r="O6" s="78" t="s">
+      <c r="H6" s="62" t="s">
+        <v>782</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="O6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="78" t="s">
-        <v>890</v>
-      </c>
-      <c r="Q6" s="78" t="s">
-        <v>891</v>
-      </c>
-      <c r="R6" s="78"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="U6" s="79" t="s">
-        <v>832</v>
+      <c r="P6" s="53" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>879</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="54" t="s">
+        <v>753</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>488</v>
+      <c r="B7" s="22" t="s">
+        <v>487</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>103</v>
@@ -6291,44 +6241,44 @@
       <c r="G7" s="19">
         <v>58</v>
       </c>
-      <c r="H7" s="59" t="s">
-        <v>790</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>723</v>
-      </c>
-      <c r="K7" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="L7" s="79" t="s">
+      <c r="H7" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>753</v>
+      </c>
+      <c r="L7" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="77" t="s">
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="U7" s="77" t="s">
-        <v>816</v>
+      <c r="U7" s="52" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>426</v>
+      <c r="B8" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>116</v>
@@ -6339,46 +6289,46 @@
       <c r="G8" s="16">
         <v>61</v>
       </c>
-      <c r="H8" s="89" t="s">
-        <v>781</v>
-      </c>
-      <c r="J8" s="80" t="s">
+      <c r="H8" s="64" t="s">
+        <v>774</v>
+      </c>
+      <c r="J8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="80" t="s">
-        <v>888</v>
-      </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="59" t="s">
-        <v>790</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>822</v>
+      <c r="M8" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>426</v>
+      <c r="B9" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>140</v>
@@ -6389,44 +6339,44 @@
       <c r="G9" s="19">
         <v>66</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="81" t="s">
-        <v>871</v>
-      </c>
-      <c r="K9" s="81" t="s">
+      <c r="J9" s="56" t="s">
+        <v>864</v>
+      </c>
+      <c r="K9" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="81" t="s">
-        <v>763</v>
-      </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="74" t="s">
+      <c r="L9" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="74" t="s">
-        <v>806</v>
+      <c r="U9" s="49" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>426</v>
+      <c r="B10" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>158</v>
@@ -6437,48 +6387,48 @@
       <c r="G10" s="16">
         <v>70</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="82" t="s">
-        <v>770</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>842</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>801</v>
-      </c>
-      <c r="M10" s="82" t="s">
-        <v>761</v>
-      </c>
-      <c r="N10" s="82" t="s">
+      <c r="J10" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>835</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>754</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>755</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="81" t="s">
-        <v>769</v>
-      </c>
-      <c r="U10" s="81" t="s">
-        <v>836</v>
+      <c r="U10" s="56" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>489</v>
+      <c r="B11" s="22" t="s">
+        <v>488</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>176</v>
@@ -6489,54 +6439,54 @@
       <c r="G11" s="19">
         <v>74</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="J11" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="K11" s="83" t="s">
+      <c r="J11" s="58" t="s">
+        <v>773</v>
+      </c>
+      <c r="K11" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="M11" s="83" t="s">
+      <c r="M11" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="N11" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="O11" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="P11" s="83" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q11" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="79" t="s">
-        <v>872</v>
-      </c>
-      <c r="U11" s="79" t="s">
-        <v>831</v>
+      <c r="N11" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>768</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="R11" s="58"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="54" t="s">
+        <v>865</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>618</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>619</v>
+      <c r="A12" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>617</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>206</v>
@@ -6547,48 +6497,48 @@
       <c r="G12" s="16">
         <v>81</v>
       </c>
-      <c r="H12" s="88" t="s">
-        <v>772</v>
-      </c>
-      <c r="J12" s="84" t="s">
+      <c r="H12" s="63" t="s">
+        <v>765</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="84" t="s">
-        <v>774</v>
-      </c>
-      <c r="L12" s="84" t="s">
-        <v>771</v>
-      </c>
-      <c r="M12" s="84" t="s">
-        <v>789</v>
-      </c>
-      <c r="N12" s="84" t="s">
+      <c r="K12" s="59" t="s">
+        <v>767</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>764</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="N12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="82" t="s">
-        <v>770</v>
-      </c>
-      <c r="U12" s="82" t="s">
-        <v>839</v>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>485</v>
+      <c r="A13" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>484</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>232</v>
@@ -6599,54 +6549,54 @@
       <c r="G13" s="19">
         <v>88</v>
       </c>
-      <c r="H13" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="J13" s="85" t="s">
+      <c r="H13" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="85" t="s">
-        <v>772</v>
-      </c>
-      <c r="L13" s="85" t="s">
-        <v>773</v>
-      </c>
-      <c r="M13" s="85" t="s">
+      <c r="K13" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="85" t="s">
+      <c r="N13" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="O13" s="85" t="s">
+      <c r="O13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="85" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q13" s="85" t="s">
-        <v>887</v>
-      </c>
-      <c r="R13" s="85"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="87" t="s">
-        <v>850</v>
-      </c>
-      <c r="U13" s="87" t="s">
-        <v>851</v>
+      <c r="P13" s="60" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>875</v>
+      </c>
+      <c r="R13" s="60"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="U13" s="62" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>490</v>
+      <c r="B14" s="21" t="s">
+        <v>489</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>253</v>
@@ -6657,42 +6607,42 @@
       <c r="G14" s="16">
         <v>92</v>
       </c>
-      <c r="H14" s="74" t="s">
-        <v>724</v>
-      </c>
-      <c r="J14" s="86" t="s">
+      <c r="H14" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="J14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="86" t="s">
-        <v>778</v>
-      </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="87" t="s">
-        <v>774</v>
-      </c>
-      <c r="U14" s="87" t="s">
-        <v>856</v>
+      <c r="K14" s="61" t="s">
+        <v>771</v>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="62" t="s">
+        <v>767</v>
+      </c>
+      <c r="U14" s="62" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>426</v>
+      <c r="B15" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>271</v>
@@ -6703,38 +6653,38 @@
       <c r="G15" s="19">
         <v>96</v>
       </c>
-      <c r="H15" s="78" t="s">
-        <v>794</v>
-      </c>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="78" t="s">
-        <v>779</v>
-      </c>
-      <c r="U15" s="78" t="s">
-        <v>868</v>
+      <c r="H15" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>491</v>
+      <c r="B16" s="21" t="s">
+        <v>490</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>276</v>
@@ -6745,29 +6695,29 @@
       <c r="G16" s="16">
         <v>97</v>
       </c>
-      <c r="H16" s="79" t="s">
-        <v>723</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="77" t="s">
+      <c r="H16" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="S16" s="20"/>
+      <c r="T16" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="U16" s="77" t="s">
-        <v>819</v>
+      <c r="U16" s="52" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>492</v>
+      <c r="B17" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>282</v>
@@ -6778,28 +6728,28 @@
       <c r="G17" s="19">
         <v>98</v>
       </c>
-      <c r="H17" s="75" t="s">
-        <v>776</v>
-      </c>
-      <c r="T17" s="86" t="s">
-        <v>778</v>
-      </c>
-      <c r="U17" s="86" t="s">
-        <v>862</v>
+      <c r="H17" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>771</v>
+      </c>
+      <c r="U17" s="61" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>493</v>
+      <c r="B18" s="21" t="s">
+        <v>492</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>308</v>
@@ -6810,28 +6760,28 @@
       <c r="G18" s="16">
         <v>103</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="T18" s="85" t="s">
+      <c r="T18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="85" t="s">
-        <v>865</v>
+      <c r="U18" s="60" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>485</v>
+      <c r="B19" s="22" t="s">
+        <v>484</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>310</v>
@@ -6842,28 +6792,28 @@
       <c r="G19" s="19">
         <v>104</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>724</v>
-      </c>
-      <c r="T19" s="76" t="s">
-        <v>782</v>
-      </c>
-      <c r="U19" s="76" t="s">
-        <v>814</v>
+      <c r="H19" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>775</v>
+      </c>
+      <c r="U19" s="51" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>486</v>
+      <c r="B20" s="21" t="s">
+        <v>485</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>49</v>
@@ -6874,28 +6824,28 @@
       <c r="G20" s="16">
         <v>44</v>
       </c>
-      <c r="H20" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T20" s="78" t="s">
-        <v>768</v>
-      </c>
-      <c r="U20" s="78" t="s">
-        <v>826</v>
+      <c r="H20" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T20" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="U20" s="53" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>486</v>
+      <c r="B21" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>50</v>
@@ -6906,28 +6856,28 @@
       <c r="G21" s="19">
         <v>45</v>
       </c>
-      <c r="H21" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T21" s="80" t="s">
+      <c r="H21" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="80" t="s">
-        <v>834</v>
+      <c r="U21" s="55" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>485</v>
+      <c r="B22" s="21" t="s">
+        <v>484</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>333</v>
@@ -6938,28 +6888,28 @@
       <c r="G22" s="16">
         <v>47</v>
       </c>
-      <c r="H22" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T22" s="76" t="s">
-        <v>764</v>
-      </c>
-      <c r="U22" s="76" t="s">
-        <v>811</v>
+      <c r="H22" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T22" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>488</v>
+      <c r="B23" s="22" t="s">
+        <v>487</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>96</v>
@@ -6970,60 +6920,60 @@
       <c r="G23" s="19">
         <v>57</v>
       </c>
-      <c r="H23" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T23" s="83" t="s">
+      <c r="H23" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T23" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="U23" s="83" t="s">
-        <v>845</v>
+      <c r="U23" s="58" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>494</v>
+      <c r="B24" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="G24" s="16">
         <v>69</v>
       </c>
-      <c r="H24" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T24" s="80" t="s">
+      <c r="H24" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="80" t="s">
-        <v>835</v>
+      <c r="U24" s="55" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>426</v>
+      <c r="B25" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>52</v>
@@ -7034,28 +6984,28 @@
       <c r="G25" s="19">
         <v>46</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="T25" s="80" t="s">
+      <c r="T25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="80" t="s">
-        <v>833</v>
+      <c r="U25" s="55" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>493</v>
+      <c r="B26" s="21" t="s">
+        <v>492</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>53</v>
@@ -7066,28 +7016,28 @@
       <c r="G26" s="16">
         <v>48</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="83" t="s">
+      <c r="T26" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="U26" s="83" t="s">
-        <v>849</v>
+      <c r="U26" s="58" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>495</v>
+      <c r="B27" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>74</v>
@@ -7098,28 +7048,28 @@
       <c r="G27" s="19">
         <v>53</v>
       </c>
-      <c r="H27" s="77" t="s">
+      <c r="H27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="T27" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="U27" s="75" t="s">
-        <v>808</v>
+      <c r="T27" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="U27" s="50" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>488</v>
+      <c r="B28" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>92</v>
@@ -7130,60 +7080,60 @@
       <c r="G28" s="16">
         <v>56</v>
       </c>
-      <c r="H28" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T28" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="U28" s="78" t="s">
-        <v>829</v>
+      <c r="H28" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T28" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="U28" s="53" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>488</v>
+      <c r="B29" s="22" t="s">
+        <v>487</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G29" s="19">
         <v>59</v>
       </c>
-      <c r="H29" s="77" t="s">
+      <c r="H29" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="T29" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="U29" s="83" t="s">
-        <v>848</v>
+      <c r="T29" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="U29" s="58" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>488</v>
+      <c r="B30" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>112</v>
@@ -7194,28 +7144,28 @@
       <c r="G30" s="16">
         <v>60</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="T30" s="77" t="s">
+      <c r="T30" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="U30" s="77" t="s">
-        <v>821</v>
+      <c r="U30" s="52" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>426</v>
+      <c r="B31" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>144</v>
@@ -7226,28 +7176,28 @@
       <c r="G31" s="19">
         <v>67</v>
       </c>
-      <c r="H31" s="77" t="s">
-        <v>883</v>
-      </c>
-      <c r="T31" s="77" t="s">
+      <c r="H31" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="T31" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="U31" s="77" t="s">
-        <v>818</v>
+      <c r="U31" s="52" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>489</v>
+      <c r="B32" s="21" t="s">
+        <v>488</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>163</v>
@@ -7258,28 +7208,28 @@
       <c r="G32" s="16">
         <v>71</v>
       </c>
-      <c r="H32" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T32" s="84" t="s">
-        <v>771</v>
-      </c>
-      <c r="U32" s="84" t="s">
-        <v>855</v>
+      <c r="H32" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T32" s="59" t="s">
+        <v>764</v>
+      </c>
+      <c r="U32" s="59" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>496</v>
+      <c r="B33" s="22" t="s">
+        <v>495</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>172</v>
@@ -7290,28 +7240,28 @@
       <c r="G33" s="19">
         <v>73</v>
       </c>
-      <c r="H33" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="T33" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="U33" s="75" t="s">
-        <v>807</v>
+      <c r="H33" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="T33" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="U33" s="50" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>487</v>
+      <c r="B34" s="21" t="s">
+        <v>486</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>179</v>
@@ -7322,28 +7272,28 @@
       <c r="G34" s="16">
         <v>75</v>
       </c>
-      <c r="H34" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="T34" s="78" t="s">
-        <v>766</v>
-      </c>
-      <c r="U34" s="78" t="s">
-        <v>824</v>
+      <c r="H34" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="T34" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="U34" s="53" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>497</v>
+      <c r="B35" s="22" t="s">
+        <v>496</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>184</v>
@@ -7354,28 +7304,28 @@
       <c r="G35" s="19">
         <v>76</v>
       </c>
-      <c r="H35" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="T35" s="74" t="s">
-        <v>776</v>
-      </c>
-      <c r="U35" s="74" t="s">
-        <v>863</v>
+      <c r="H35" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="T35" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="U35" s="49" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>494</v>
+      <c r="B36" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>189</v>
@@ -7386,28 +7336,28 @@
       <c r="G36" s="16">
         <v>77</v>
       </c>
-      <c r="H36" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="T36" s="82" t="s">
-        <v>842</v>
-      </c>
-      <c r="U36" s="82" t="s">
-        <v>843</v>
+      <c r="H36" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="T36" s="57" t="s">
+        <v>835</v>
+      </c>
+      <c r="U36" s="57" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>498</v>
+      <c r="B37" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>192</v>
@@ -7418,28 +7368,28 @@
       <c r="G37" s="19">
         <v>78</v>
       </c>
-      <c r="H37" s="75" t="s">
-        <v>784</v>
-      </c>
-      <c r="T37" s="85" t="s">
+      <c r="H37" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="T37" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="U37" s="85" t="s">
-        <v>864</v>
+      <c r="U37" s="60" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>623</v>
+      <c r="A38" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>621</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>197</v>
@@ -7450,28 +7400,28 @@
       <c r="G38" s="16">
         <v>79</v>
       </c>
-      <c r="H38" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T38" s="85" t="s">
+      <c r="H38" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T38" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U38" s="85" t="s">
-        <v>867</v>
+      <c r="U38" s="60" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>485</v>
+      <c r="B39" s="22" t="s">
+        <v>484</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>202</v>
@@ -7482,28 +7432,28 @@
       <c r="G39" s="19">
         <v>80</v>
       </c>
-      <c r="H39" s="75" t="s">
+      <c r="H39" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="T39" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="U39" s="83" t="s">
-        <v>846</v>
+      <c r="T39" s="58" t="s">
+        <v>768</v>
+      </c>
+      <c r="U39" s="58" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>426</v>
+      <c r="B40" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>211</v>
@@ -7514,28 +7464,28 @@
       <c r="G40" s="16">
         <v>82</v>
       </c>
-      <c r="H40" s="75" t="s">
+      <c r="H40" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="85" t="s">
-        <v>772</v>
-      </c>
-      <c r="U40" s="85" t="s">
-        <v>859</v>
+      <c r="T40" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="U40" s="60" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>499</v>
+      <c r="B41" s="22" t="s">
+        <v>498</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>215</v>
@@ -7546,28 +7496,28 @@
       <c r="G41" s="19">
         <v>83</v>
       </c>
-      <c r="H41" s="85" t="s">
-        <v>887</v>
-      </c>
-      <c r="T41" s="82" t="s">
-        <v>801</v>
-      </c>
-      <c r="U41" s="82" t="s">
-        <v>840</v>
+      <c r="H41" s="60" t="s">
+        <v>875</v>
+      </c>
+      <c r="T41" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="U41" s="57" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>492</v>
+      <c r="B42" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>224</v>
@@ -7578,28 +7528,28 @@
       <c r="G42" s="16">
         <v>86</v>
       </c>
-      <c r="H42" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T42" s="82" t="s">
-        <v>761</v>
-      </c>
-      <c r="U42" s="82" t="s">
-        <v>838</v>
+      <c r="H42" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T42" s="57" t="s">
+        <v>754</v>
+      </c>
+      <c r="U42" s="57" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>500</v>
+      <c r="B43" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>229</v>
@@ -7610,28 +7560,28 @@
       <c r="G43" s="19">
         <v>87</v>
       </c>
-      <c r="H43" s="80" t="s">
-        <v>888</v>
-      </c>
-      <c r="T43" s="86" t="s">
+      <c r="H43" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="T43" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="U43" s="86" t="s">
-        <v>861</v>
+      <c r="U43" s="61" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>501</v>
+      <c r="B44" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>248</v>
@@ -7642,28 +7592,28 @@
       <c r="G44" s="16">
         <v>91</v>
       </c>
-      <c r="H44" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="T44" s="75" t="s">
+      <c r="H44" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="T44" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="U44" s="75" t="s">
-        <v>809</v>
+      <c r="U44" s="50" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>426</v>
+      <c r="B45" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>300</v>
@@ -7674,28 +7624,28 @@
       <c r="G45" s="19">
         <v>101</v>
       </c>
-      <c r="H45" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T45" s="75" t="s">
+      <c r="H45" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T45" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="U45" s="75" t="s">
-        <v>810</v>
+      <c r="U45" s="50" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>426</v>
+      <c r="B46" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>298</v>
@@ -7706,28 +7656,28 @@
       <c r="G46" s="16">
         <v>102</v>
       </c>
-      <c r="H46" s="77" t="s">
-        <v>883</v>
-      </c>
-      <c r="T46" s="78" t="s">
-        <v>794</v>
-      </c>
-      <c r="U46" s="78" t="s">
-        <v>828</v>
+      <c r="H46" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="T46" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="U46" s="53" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>501</v>
+      <c r="B47" s="22" t="s">
+        <v>500</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>313</v>
@@ -7738,28 +7688,28 @@
       <c r="G47" s="19">
         <v>105</v>
       </c>
-      <c r="H47" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T47" s="77" t="s">
+      <c r="H47" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T47" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="77" t="s">
-        <v>820</v>
+      <c r="U47" s="52" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>501</v>
+      <c r="B48" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>316</v>
@@ -7770,28 +7720,28 @@
       <c r="G48" s="16">
         <v>106</v>
       </c>
-      <c r="H48" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="T48" s="84" t="s">
-        <v>789</v>
-      </c>
-      <c r="U48" s="84" t="s">
-        <v>857</v>
+      <c r="H48" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="T48" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="U48" s="59" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>501</v>
+      <c r="B49" s="22" t="s">
+        <v>500</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>319</v>
@@ -7802,28 +7752,28 @@
       <c r="G49" s="19">
         <v>107</v>
       </c>
-      <c r="H49" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="T49" s="78" t="s">
-        <v>800</v>
-      </c>
-      <c r="U49" s="78" t="s">
-        <v>823</v>
+      <c r="H49" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="T49" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="U49" s="53" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>492</v>
+      <c r="B50" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>322</v>
@@ -7834,28 +7784,28 @@
       <c r="G50" s="16">
         <v>108</v>
       </c>
-      <c r="H50" s="76" t="s">
+      <c r="H50" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="T50" s="85" t="s">
-        <v>767</v>
-      </c>
-      <c r="U50" s="85" t="s">
-        <v>825</v>
+      <c r="T50" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="U50" s="60" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>426</v>
+      <c r="B51" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>324</v>
@@ -7866,28 +7816,28 @@
       <c r="G51" s="19">
         <v>109</v>
       </c>
-      <c r="H51" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="T51" s="74" t="s">
-        <v>724</v>
-      </c>
-      <c r="U51" s="74" t="s">
-        <v>805</v>
+      <c r="H51" s="50" t="s">
+        <v>758</v>
+      </c>
+      <c r="T51" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="U51" s="49" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>502</v>
+      <c r="B52" s="21" t="s">
+        <v>501</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>327</v>
@@ -7898,28 +7848,28 @@
       <c r="G52" s="16">
         <v>110</v>
       </c>
-      <c r="H52" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="T52" s="81" t="s">
+      <c r="H52" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="T52" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="U52" s="81" t="s">
-        <v>866</v>
+      <c r="U52" s="56" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>426</v>
+      <c r="B53" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>47</v>
@@ -7930,28 +7880,28 @@
       <c r="G53" s="19">
         <v>43</v>
       </c>
-      <c r="H53" s="83" t="s">
-        <v>892</v>
-      </c>
-      <c r="T53" s="75" t="s">
-        <v>869</v>
-      </c>
-      <c r="U53" s="75" t="s">
-        <v>870</v>
+      <c r="H53" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="T53" s="50" t="s">
+        <v>862</v>
+      </c>
+      <c r="U53" s="50" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>497</v>
+      <c r="B54" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>70</v>
@@ -7962,28 +7912,28 @@
       <c r="G54" s="16">
         <v>52</v>
       </c>
-      <c r="H54" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="T54" s="84" t="s">
-        <v>852</v>
-      </c>
-      <c r="U54" s="84" t="s">
-        <v>853</v>
+      <c r="H54" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="T54" s="59" t="s">
+        <v>845</v>
+      </c>
+      <c r="U54" s="59" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>426</v>
+      <c r="B55" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>121</v>
@@ -7994,28 +7944,28 @@
       <c r="G55" s="19">
         <v>62</v>
       </c>
-      <c r="H55" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="T55" s="74" t="s">
+      <c r="H55" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="T55" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="U55" s="74" t="s">
-        <v>804</v>
+      <c r="U55" s="49" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>503</v>
+      <c r="B56" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>126</v>
@@ -8026,28 +7976,28 @@
       <c r="G56" s="16">
         <v>63</v>
       </c>
-      <c r="H56" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="T56" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="U56" s="97" t="s">
-        <v>880</v>
+      <c r="H56" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="T56" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="U56" s="71" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>426</v>
+      <c r="A57" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>135</v>
@@ -8058,28 +8008,28 @@
       <c r="G57" s="19">
         <v>64</v>
       </c>
-      <c r="H57" s="83" t="s">
-        <v>892</v>
-      </c>
-      <c r="T57" s="77" t="s">
+      <c r="H57" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="T57" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="U57" s="77" t="s">
-        <v>817</v>
+      <c r="U57" s="52" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>503</v>
+      <c r="B58" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>131</v>
@@ -8090,60 +8040,60 @@
       <c r="G58" s="16">
         <v>65</v>
       </c>
-      <c r="H58" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="T58" s="81" t="s">
-        <v>763</v>
-      </c>
-      <c r="U58" s="81" t="s">
-        <v>837</v>
+      <c r="H58" s="58" t="s">
+        <v>773</v>
+      </c>
+      <c r="T58" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="U58" s="56" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>504</v>
+      <c r="B59" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>149</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G59" s="19">
         <v>68</v>
       </c>
-      <c r="H59" s="78" t="s">
-        <v>783</v>
-      </c>
-      <c r="T59" s="85" t="s">
-        <v>773</v>
-      </c>
-      <c r="U59" s="85" t="s">
-        <v>860</v>
+      <c r="H59" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="T59" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="U59" s="60" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="24" t="s">
-        <v>426</v>
+      <c r="B60" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>169</v>
@@ -8154,28 +8104,28 @@
       <c r="G60" s="16">
         <v>72</v>
       </c>
-      <c r="H60" s="83" t="s">
+      <c r="H60" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="T60" s="84" t="s">
+      <c r="T60" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="U60" s="84" t="s">
-        <v>854</v>
+      <c r="U60" s="59" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>505</v>
+      <c r="B61" s="22" t="s">
+        <v>504</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>217</v>
@@ -8186,28 +8136,28 @@
       <c r="G61" s="19">
         <v>84</v>
       </c>
-      <c r="H61" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="T61" s="78" t="s">
+      <c r="H61" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="T61" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="U61" s="78" t="s">
-        <v>827</v>
+      <c r="U61" s="53" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>506</v>
+      <c r="B62" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>220</v>
@@ -8218,28 +8168,28 @@
       <c r="G62" s="16">
         <v>85</v>
       </c>
-      <c r="H62" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="T62" s="82" t="s">
-        <v>762</v>
-      </c>
-      <c r="U62" s="82" t="s">
-        <v>841</v>
+      <c r="H62" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="T62" s="57" t="s">
+        <v>755</v>
+      </c>
+      <c r="U62" s="57" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>501</v>
+      <c r="A63" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>500</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>238</v>
@@ -8250,28 +8200,28 @@
       <c r="G63" s="19">
         <v>89</v>
       </c>
-      <c r="H63" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="T63" s="76" t="s">
+      <c r="H63" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="T63" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="U63" s="76" t="s">
-        <v>815</v>
+      <c r="U63" s="51" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>486</v>
+      <c r="B64" s="21" t="s">
+        <v>485</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>243</v>
@@ -8282,28 +8232,28 @@
       <c r="G64" s="16">
         <v>90</v>
       </c>
-      <c r="H64" s="79" t="s">
-        <v>723</v>
-      </c>
-      <c r="T64" s="76" t="s">
-        <v>777</v>
-      </c>
-      <c r="U64" s="76" t="s">
-        <v>813</v>
+      <c r="H64" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="T64" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="U64" s="51" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>493</v>
+      <c r="B65" s="22" t="s">
+        <v>492</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>258</v>
@@ -8314,28 +8264,28 @@
       <c r="G65" s="19">
         <v>93</v>
       </c>
-      <c r="H65" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="T65" s="76" t="s">
+      <c r="H65" s="58" t="s">
+        <v>881</v>
+      </c>
+      <c r="T65" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="76" t="s">
-        <v>812</v>
+      <c r="U65" s="51" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>488</v>
+      <c r="B66" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>264</v>
@@ -8346,28 +8296,28 @@
       <c r="G66" s="16">
         <v>94</v>
       </c>
-      <c r="H66" s="83" t="s">
-        <v>892</v>
-      </c>
-      <c r="T66" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="U66" s="77" t="s">
-        <v>884</v>
+      <c r="H66" s="58" t="s">
+        <v>880</v>
+      </c>
+      <c r="T66" s="52" t="s">
+        <v>870</v>
+      </c>
+      <c r="U66" s="52" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>491</v>
+      <c r="B67" s="22" t="s">
+        <v>490</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>267</v>
@@ -8378,28 +8328,28 @@
       <c r="G67" s="19">
         <v>95</v>
       </c>
-      <c r="H67" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="T67" s="77" t="s">
-        <v>885</v>
-      </c>
-      <c r="U67" s="77" t="s">
-        <v>886</v>
+      <c r="H67" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="T67" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="U67" s="52" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>502</v>
+      <c r="B68" s="21" t="s">
+        <v>501</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>286</v>
@@ -8410,22 +8360,22 @@
       <c r="G68" s="16">
         <v>99</v>
       </c>
-      <c r="H68" s="83" t="s">
-        <v>893</v>
+      <c r="H68" s="58" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>427</v>
-      </c>
       <c r="D69" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>291</v>
@@ -8436,1450 +8386,1600 @@
       <c r="G69" s="19">
         <v>100</v>
       </c>
-      <c r="H69" s="83" t="s">
-        <v>892</v>
+      <c r="H69" s="58" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>559</v>
+      <c r="A70" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="C70" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="50" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="75" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>492</v>
+      <c r="B71" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>334</v>
       </c>
       <c r="G71" s="19"/>
-      <c r="H71" s="75" t="s">
-        <v>784</v>
+      <c r="H71" s="50" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>426</v>
+      <c r="A72" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>335</v>
       </c>
       <c r="G72" s="16"/>
-      <c r="H72" s="77" t="s">
-        <v>882</v>
+      <c r="H72" s="52" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>535</v>
-      </c>
       <c r="D73" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>336</v>
       </c>
       <c r="G73" s="19"/>
-      <c r="H73" s="77" t="s">
-        <v>882</v>
+      <c r="H73" s="52" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="C74" s="15" t="s">
+      <c r="D74" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="F74" s="14" t="s">
+      <c r="F75" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="G75" s="19"/>
+      <c r="H75" s="58" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="83" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="B76" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>544</v>
-      </c>
       <c r="D76" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>337</v>
       </c>
       <c r="G76" s="16"/>
-      <c r="H76" s="77" t="s">
-        <v>883</v>
+      <c r="H76" s="52" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>626</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>426</v>
+      <c r="A77" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="C77" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E78" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="E77" s="17" t="s">
+      <c r="F78" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="77" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="76" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="B79" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="C79" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>552</v>
-      </c>
       <c r="D79" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>338</v>
       </c>
       <c r="G79" s="19"/>
-      <c r="H79" s="85" t="s">
+      <c r="H79" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>554</v>
-      </c>
       <c r="D80" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>339</v>
       </c>
       <c r="G80" s="16"/>
-      <c r="H80" s="75" t="s">
+      <c r="H80" s="50" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="E81" s="17" t="s">
+      <c r="B82" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G82" s="16"/>
+      <c r="H82" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F83" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="76" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="76" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="H83" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="H83" s="76" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>487</v>
+      <c r="B84" s="23" t="s">
+        <v>486</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="H84" s="76" t="s">
+      <c r="H84" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>571</v>
-      </c>
       <c r="D85" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="H85" s="75" t="s">
-        <v>784</v>
+      <c r="H85" s="50" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B86" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>573</v>
-      </c>
       <c r="D86" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H86" s="78" t="s">
-        <v>783</v>
+      <c r="H86" s="53" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>501</v>
+      <c r="A87" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="H87" s="82" t="s">
-        <v>761</v>
+      <c r="H87" s="57" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>344</v>
       </c>
+      <c r="H88" s="49" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="F89" s="8" t="s">
+      <c r="H89" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>500</v>
+      <c r="B90" s="23" t="s">
+        <v>582</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="F90" s="8"/>
+        <v>577</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="H90" s="58" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>584</v>
+      <c r="A91" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>492</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="H91" s="58" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="H92" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H94" s="51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="C94" s="11" t="s">
+      <c r="D95" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H95" s="55" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E95" t="s">
-        <v>388</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>426</v>
+      <c r="B96" s="23" t="s">
+        <v>496</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>637</v>
+        <v>470</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>497</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>492</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>471</v>
+        <v>637</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>390</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>493</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>501</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>642</v>
+        <v>585</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>391</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B99" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E99" s="10" t="s">
+      <c r="F99" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>593</v>
-      </c>
       <c r="F102" s="8" t="s">
-        <v>595</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B103" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="F104" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F104" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+    </row>
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="23" t="s">
         <v>490</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>609</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F105" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>603</v>
-      </c>
       <c r="D108" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>394</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>486</v>
+      <c r="A109" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>395</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>426</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>506</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>645</v>
+        <v>479</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>507</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>480</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>510</v>
+      <c r="A112" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>508</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>481</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>509</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>617</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>517</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="D113" s="8"/>
       <c r="E113" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="F115" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="B114" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C115" s="11" t="s">
+      <c r="D117" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E116" s="10" t="s">
+      <c r="F117" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="10" t="s">
+      <c r="F118" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>659</v>
+      <c r="B119" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>404</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="B120" s="26" t="s">
-        <v>498</v>
+      <c r="B120" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>448</v>
+        <v>661</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E120" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C121" s="11" t="s">
+      <c r="F122" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
+      <c r="B123" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="B122" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="B123" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>670</v>
-      </c>
       <c r="D123" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>406</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B124" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E124" s="10" t="s">
+      <c r="F125" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="B125" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="C125" s="11" t="s">
+      <c r="F126" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="B127" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="10" t="s">
+      <c r="C127" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
+      <c r="B128" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="B127" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E127" s="10" t="s">
+      <c r="D128" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C129" s="11" t="s">
+      <c r="F129" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E129" s="10" t="s">
+      <c r="B130" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>687</v>
-      </c>
       <c r="D130" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>409</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>485</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>410</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>485</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>490</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>411</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="B133" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>693</v>
-      </c>
       <c r="D133" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>412</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>498</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>485</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>486</v>
+      <c r="F134" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>507</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>696</v>
+        <v>482</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B136" s="26" t="s">
-        <v>508</v>
+      <c r="F135" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>483</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>511</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>499</v>
       </c>
       <c r="C137" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="F137" s="77" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="B138" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E137" s="10" t="s">
+      <c r="C138" s="76" t="s">
+        <v>887</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F138" s="77" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E139" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="F137" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>376</v>
+    <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="100" t="s">
+        <v>899</v>
+      </c>
+      <c r="B140" s="100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C140" s="76" t="s">
+        <v>898</v>
+      </c>
+      <c r="D140" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="F140" s="77" t="s">
+        <v>908</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="100" t="s">
+        <v>905</v>
+      </c>
+      <c r="B141" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C141" s="76" t="s">
+        <v>901</v>
+      </c>
+      <c r="D141" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="F141" s="77" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="100" t="s">
+        <v>906</v>
+      </c>
+      <c r="B142" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="C142" s="76" t="s">
+        <v>902</v>
+      </c>
+      <c r="D142" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="F142" s="77" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="100" t="s">
+        <v>912</v>
+      </c>
+      <c r="B143" s="100" t="s">
+        <v>496</v>
+      </c>
+      <c r="C143" s="76" t="s">
+        <v>910</v>
+      </c>
+      <c r="D143" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D144" t="s">
+        <v>512</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
+++ b/Profundidade da fe/Caixa de confissão/Caixa de confissão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Heber-EARQ\Treinamentos\Projeto-JavaScript\Profundidade da fe\Caixa de confissão\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517DC41-913C-4E49-93F0-D3CF062D339F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C17C4-25B1-475B-9863-74E46CF6B280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{8C05EC88-38C5-472A-9600-1DCC62948BBD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Índice" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$U$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Índice!$A$1:$U$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="952">
   <si>
     <t>Salmos 128:1-2</t>
   </si>
@@ -1124,12 +1124,6 @@
     <t>A paz de Deus que excede todo entendimento guarda o meu coração e a minha mente através de Cristo Jesus, e todas as coisas que são boas, puras, perfeitas, amáveis e de boa fama, nelas eu penso.</t>
   </si>
   <si>
-    <t>Não permito que nenhuma comunicação corrupta proceda da minha boca, mas somente aquela que for boa para edificação, que possa ministrar graça ao ouvinte. Não entristeço o Espirito Santo de Deus por quem fui selado para o dia da redenção</t>
-  </si>
-  <si>
-    <t>Ninguém me tirará da sua mão, porque tenho vida eterna</t>
-  </si>
-  <si>
     <t>Permito que a paz de Deus governe em meu coração e me recuso a me preocupar com qualquer coisa</t>
   </si>
   <si>
@@ -1223,9 +1217,6 @@
     <t xml:space="preserve">Não as deixes apartar-se dos teus olhos; guarda-as no íntimo do teu coração. 22 Porque são vida para os que as acham, e saúde para todo o seu corpo. </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 Co 6.16  Jo 10.11  2 Pd 1.4 Rm 8.31</t>
-  </si>
-  <si>
     <t>Mc 16.17-18</t>
   </si>
   <si>
@@ -1409,9 +1400,6 @@
     <t>4:19</t>
   </si>
   <si>
-    <t>2 Co 6.16  Jo 10.11  2 Pd 1.4 Rm 8.31</t>
-  </si>
-  <si>
     <t>16.17-18</t>
   </si>
   <si>
@@ -1482,12 +1470,6 @@
   </si>
   <si>
     <t>Sl</t>
-  </si>
-  <si>
-    <t>2 Co</t>
-  </si>
-  <si>
-    <t>Jo</t>
   </si>
   <si>
     <t>Cl</t>
@@ -2745,9 +2727,6 @@
     <t>Cl 3:16</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jo 10:3-4</t>
-  </si>
-  <si>
     <t>10:3-4</t>
   </si>
   <si>
@@ -2805,15 +2784,9 @@
     <t xml:space="preserve">O qual nos tirou da potestáde das trevas, e nos transportou para o reino do Filho do seu amor; </t>
   </si>
   <si>
-    <t>Falo a verdade da palavra de Deus em amor e cresço no Senhor Jesus Cristo em todas estás coisas</t>
-  </si>
-  <si>
     <t> Não saia da vossa boca nenhuma palavra torpe, mas só a que for boa para promover a edificação, para que dê graça aos que a ouvem. 30 E não entristeçais o Espírito Santo de Deus, no qual estáis selados para o dia da redenção.</t>
   </si>
   <si>
-    <t xml:space="preserve">16 E que consenso tem o templo de Deus com os ídolos? Porque vós sois o templo do Deus vivente, como Deus disse: Neles habitarei, e entre eles andarei; e eu serei o seu Deus e eles serão o meu povo. 11 Eu sou o bom Pastor; o bom Pastor dá a sua vida pelas ovelhas.  3 Visto como o seu divino poder nos deu tudo o que diz respeito à vida e piedade, pelo conhecimento daquele que nos chamou pela sua glória e virtude; 4 Pelas quais ele nos tem dado grandíssimas e preciosas promessas, para que por elas fiqueis participantes da natureza divina, havendo escapado da corrupção, que pela concupiscência há no mundo. 31 Que diremos, pois, a estás coisas? Se Deus é por nós, quem será contra nós? </t>
-  </si>
-  <si>
     <t>Deus está do meu lado, Deus está em mim agora, quem pode estár contra mim? Ele me deu toda as coisas que dizem respeito a vida e a piedade, portanto sou participante da sua Natureza Divina</t>
   </si>
   <si>
@@ -2887,6 +2860,57 @@
   </si>
   <si>
     <t>Não tenho medo de nada e tenho força para vencer qualquer coisa, porque o Senhor é a força da minha vida.</t>
+  </si>
+  <si>
+    <t>Amo a verdade da palavra de Deus, e sei que cresço em todas as áreas através Jesus Cristo que é o cabeça de todas as coisas.</t>
+  </si>
+  <si>
+    <t>Não permito que nenhuma comunicação corrupta proceda da minha boca, mas somente aquela que for boa para edificação, que possa ministrar graça ao ouvinte, e Assim não entristeço o Espirito Santo de Deus por quem fui selado para o dia da redenção</t>
+  </si>
+  <si>
+    <t>Ninguém me tirará da sua mão, e é por isso que tenho a vida eterna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> João 10:3-4</t>
+  </si>
+  <si>
+    <t>2 Coríntios 6:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 E que consenso tem o templo de Deus com os ídolos? Porque vós sois o templo do Deus vivente, como Deus disse: Neles habitarei, e entre eles andarei; e eu serei o seu Deus e eles serão o meu povo. </t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>João 10:11</t>
+  </si>
+  <si>
+    <t>11 Eu sou o bom Pastor; o bom Pastor dá a sua vida pelas ovelhas.</t>
+  </si>
+  <si>
+    <t>Romanos 8:31</t>
+  </si>
+  <si>
+    <t>8:31</t>
+  </si>
+  <si>
+    <t>2 Pedro</t>
+  </si>
+  <si>
+    <t>2 Pedro 1:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 Que diremos, pois, a estás coisas? Se Deus é por nós, quem será contra nós? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Visto como o seu divino poder nos deu tudo o que diz respeito à vida e piedade, pelo conhecimento daquele que nos chamou pela sua glória e virtude;  4 Pelas quais ele nos tem dado grandíssimas e preciosas promessas, para que por elas fiqueis participantes da natureza divina, havendo escapado da corrupção, que pela concupiscência há no mundo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sou templo do Deus Vivo e por isso estou sempre confiante pois Deus habita em mim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus é o meu pastor </t>
   </si>
 </sst>
 </file>
@@ -3292,7 +3316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3527,72 +3551,6 @@
     <xf numFmtId="20" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3607,6 +3565,75 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,941 +3972,1003 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="92" t="s">
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="84" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="86" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="86" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="92" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="87" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="88" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="92" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="87" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
     </row>
     <row r="5" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="84" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="92" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="87" t="s">
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
     </row>
     <row r="6" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="84" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="92" t="s">
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="86" t="s">
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
     </row>
     <row r="7" spans="1:20" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="88" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="92" t="s">
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="88" t="s">
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
     </row>
     <row r="8" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="84" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="88" t="s">
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90" t="s">
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
     </row>
     <row r="9" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="87" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="90" t="s">
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="97" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="88" t="s">
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90" t="s">
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
     </row>
     <row r="11" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="92" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="87" t="s">
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="84" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="87" t="s">
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="86" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
     </row>
     <row r="13" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="86" t="s">
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="90" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="99" t="s">
         <v>288</v>
       </c>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="86" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87" t="s">
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88" t="s">
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
     </row>
     <row r="15" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="100" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="88" t="s">
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="88" t="s">
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
     </row>
     <row r="16" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="86" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="92" t="s">
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="90" t="s">
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
     </row>
     <row r="17" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="86" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="90" t="s">
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="86" t="s">
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
     </row>
     <row r="18" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="86" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="92" t="s">
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="87" t="s">
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
     </row>
     <row r="19" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="88" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="92" t="s">
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="87" t="s">
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
     </row>
     <row r="20" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="90" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="91" t="s">
+      <c r="G20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="91" t="s">
+      <c r="I20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="91" t="s">
+      <c r="J20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="92" t="s">
+      <c r="K20" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="87" t="s">
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
     </row>
     <row r="21" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="90" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="H21" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="91" t="s">
+      <c r="I21" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="91" t="s">
+      <c r="J21" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="92" t="s">
+      <c r="K21" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="86" t="s">
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
     </row>
     <row r="22" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="88" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="92" t="s">
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="88" t="s">
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
     </row>
     <row r="23" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="90" t="s">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="88" t="s">
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90" t="s">
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
     </row>
     <row r="24" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="88" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="97" t="s">
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="90" t="s">
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
     </row>
     <row r="25" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="97" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="88" t="s">
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90" t="s">
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
     </row>
     <row r="26" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="92" t="s">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94" t="s">
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="87" t="s">
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
     </row>
     <row r="27" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="90" t="s">
-        <v>664</v>
-      </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="94" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="99" t="s">
+        <v>658</v>
+      </c>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="86" t="s">
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
     </row>
     <row r="28" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="86" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="90" t="s">
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
     </row>
     <row r="29" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86" t="s">
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="95" t="s">
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="88" t="s">
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="97" t="s">
         <v>292</v>
       </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
     </row>
     <row r="30" spans="1:20" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="86" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="88" t="s">
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="88" t="s">
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:J29"/>
     <mergeCell ref="F15:J15"/>
@@ -4904,85 +4993,23 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5033,10 +5060,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>15</v>
@@ -5047,10 +5074,10 @@
       <c r="L1" s="21"/>
       <c r="M1" s="9"/>
       <c r="O1" s="36" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -5070,10 +5097,10 @@
         <v>29</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>198</v>
@@ -5082,14 +5109,14 @@
         <v>147</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="L2" s="27"/>
       <c r="O2" s="56" t="s">
         <v>198</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5106,29 +5133,29 @@
         <v>10</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>34</v>
       </c>
       <c r="L3" s="29"/>
       <c r="O3" s="57" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5142,7 +5169,7 @@
         <v>203</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>230</v>
@@ -5160,10 +5187,10 @@
         <v>94</v>
       </c>
       <c r="O4" s="56" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -5177,31 +5204,31 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I5" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>763</v>
-      </c>
       <c r="K5" s="22" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5212,10 +5239,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>142</v>
@@ -5228,7 +5255,7 @@
         <v>248</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -5258,10 +5285,10 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="O7" s="57" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -5272,23 +5299,23 @@
         <v>41</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>248</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="O8" s="56" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5296,22 +5323,22 @@
         <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -5326,7 +5353,7 @@
         <v>72</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>42</v>
@@ -5338,10 +5365,10 @@
         <v>170</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L10" s="30"/>
       <c r="O10" s="56"/>
@@ -5358,13 +5385,13 @@
         <v>19</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>23</v>
@@ -5385,10 +5412,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
@@ -5406,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -5466,8 +5493,8 @@
       <c r="B17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -5477,7 +5504,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -5489,10 +5516,10 @@
         <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N19" s="58"/>
     </row>
@@ -5504,10 +5531,10 @@
         <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G20" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N20" s="58"/>
     </row>
@@ -5519,13 +5546,13 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
+        <v>684</v>
+      </c>
+      <c r="G21" t="s">
+        <v>688</v>
+      </c>
+      <c r="L21" t="s">
         <v>690</v>
-      </c>
-      <c r="G21" t="s">
-        <v>694</v>
-      </c>
-      <c r="L21" t="s">
-        <v>696</v>
       </c>
       <c r="N21" s="58"/>
     </row>
@@ -5537,10 +5564,10 @@
         <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L22" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="N22" s="58"/>
     </row>
@@ -5552,13 +5579,13 @@
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G23" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L23" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="N23" s="58"/>
     </row>
@@ -5570,16 +5597,16 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G24" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="J24" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="L24" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="N24" s="58"/>
     </row>
@@ -5591,13 +5618,13 @@
         <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G25" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="L25" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="N25" s="58"/>
     </row>
@@ -5609,10 +5636,10 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="L26" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5623,13 +5650,13 @@
         <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G27" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="L27" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5640,13 +5667,13 @@
         <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G28" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="L28" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5657,10 +5684,10 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G29" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5671,7 +5698,7 @@
         <v>170</v>
       </c>
       <c r="F30" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5679,13 +5706,13 @@
         <v>172</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F31" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G31" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5696,10 +5723,10 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G32" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -5710,10 +5737,10 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G33" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>301</v>
@@ -5721,14 +5748,14 @@
       <c r="R33" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="S33" s="104" t="s">
+      <c r="S33" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104" t="s">
+      <c r="T33" s="109"/>
+      <c r="U33" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="V33" s="104"/>
+      <c r="V33" s="109"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -5738,10 +5765,10 @@
         <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5752,10 +5779,10 @@
         <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="R35" s="16"/>
     </row>
@@ -5767,13 +5794,13 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G36" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5784,13 +5811,13 @@
         <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G37" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -5801,13 +5828,13 @@
         <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G38" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -5826,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -5837,7 +5864,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5848,7 +5875,7 @@
         <v>142</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5859,7 +5886,7 @@
         <v>222</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5870,7 +5897,7 @@
         <v>226</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5881,7 +5908,7 @@
         <v>230</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5892,7 +5919,7 @@
         <v>234</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5903,7 +5930,7 @@
         <v>238</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -5914,7 +5941,7 @@
         <v>245</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.25">
@@ -5925,7 +5952,7 @@
         <v>248</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.25">
@@ -5936,7 +5963,7 @@
         <v>253</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="224.25" x14ac:dyDescent="0.25">
@@ -5947,19 +5974,19 @@
         <v>258</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="U51" s="19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="W51" s="19" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="X51" s="20" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -6051,10 +6078,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F324F8-BADA-4D62-86E9-D8DF09E7AF93}">
-  <dimension ref="A1:U147"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,13 +6105,13 @@
         <v>44</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>45</v>
@@ -6092,33 +6120,33 @@
         <v>46</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="T1" s="65" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="U1" s="65" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G2" s="55">
         <v>49</v>
@@ -6127,10 +6155,10 @@
         <v>41</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>15</v>
@@ -6146,7 +6174,7 @@
         <v>41</v>
       </c>
       <c r="U2" s="55" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,13 +6182,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E3" s="72" t="s">
         <v>60</v>
@@ -6181,10 +6209,10 @@
         <v>29</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="N3" s="41" t="s">
         <v>198</v>
@@ -6193,10 +6221,10 @@
         <v>147</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="R3" s="41" t="s">
         <v>11</v>
@@ -6206,48 +6234,48 @@
         <v>42</v>
       </c>
       <c r="U3" s="55" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>407</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E4" s="62" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G4" s="42">
         <v>51</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O4" s="42" t="s">
         <v>34</v>
@@ -6257,40 +6285,40 @@
       <c r="R4" s="42"/>
       <c r="S4" s="13"/>
       <c r="T4" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G5" s="53">
         <v>54</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>230</v>
@@ -6308,31 +6336,31 @@
         <v>94</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="54" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>87</v>
@@ -6344,53 +6372,53 @@
         <v>55</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M6" s="44" t="s">
+        <v>751</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>757</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>763</v>
       </c>
       <c r="O6" s="44" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="R6" s="44"/>
       <c r="S6" s="13"/>
       <c r="T6" s="45" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>103</v>
@@ -6402,13 +6430,13 @@
         <v>58</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>142</v>
@@ -6424,21 +6452,21 @@
         <v>203</v>
       </c>
       <c r="U7" s="43" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>116</v>
@@ -6450,7 +6478,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>21</v>
@@ -6462,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
@@ -6471,30 +6499,30 @@
       <c r="R8" s="46"/>
       <c r="S8" s="13"/>
       <c r="T8" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>140</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="G9" s="55">
         <v>66</v>
@@ -6503,13 +6531,13 @@
         <v>41</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="K9" s="47" t="s">
         <v>248</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
@@ -6522,21 +6550,21 @@
         <v>29</v>
       </c>
       <c r="U9" s="40" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E10" s="72" t="s">
         <v>157</v>
@@ -6551,19 +6579,19 @@
         <v>41</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="48"/>
@@ -6571,24 +6599,24 @@
       <c r="R10" s="48"/>
       <c r="S10" s="13"/>
       <c r="T10" s="47" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>175</v>
@@ -6603,7 +6631,7 @@
         <v>230</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="K11" s="55" t="s">
         <v>42</v>
@@ -6615,40 +6643,40 @@
         <v>170</v>
       </c>
       <c r="N11" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="O11" s="55" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="P11" s="55" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="Q11" s="55" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="45" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>205</v>
@@ -6660,19 +6688,19 @@
         <v>81</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J12" s="50" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="N12" s="50" t="s">
         <v>23</v>
@@ -6683,24 +6711,24 @@
       <c r="R12" s="50"/>
       <c r="S12" s="13"/>
       <c r="T12" s="48" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="U12" s="48" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>231</v>
@@ -6718,10 +6746,10 @@
         <v>26</v>
       </c>
       <c r="K13" s="51" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M13" s="51" t="s">
         <v>24</v>
@@ -6733,50 +6761,50 @@
         <v>16</v>
       </c>
       <c r="P13" s="51" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="Q13" s="51" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="13"/>
       <c r="T13" s="53" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="U13" s="53" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="E14" s="70" t="s">
+      <c r="B14" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="55">
         <v>92</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>687</v>
+      <c r="H14" s="55" t="s">
+        <v>737</v>
       </c>
       <c r="J14" s="52" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -6787,24 +6815,24 @@
       <c r="R14" s="52"/>
       <c r="S14" s="13"/>
       <c r="T14" s="53" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>269</v>
@@ -6816,7 +6844,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="63"/>
@@ -6829,24 +6857,24 @@
       <c r="R15" s="63"/>
       <c r="S15" s="13"/>
       <c r="T15" s="44" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>274</v>
@@ -6858,28 +6886,28 @@
         <v>97</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="43" t="s">
         <v>230</v>
       </c>
       <c r="U16" s="43" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>281</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>280</v>
@@ -6894,24 +6922,24 @@
         <v>123</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="U17" s="52" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>305</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E18" s="78" t="s">
         <v>306</v>
@@ -6929,21 +6957,21 @@
         <v>24</v>
       </c>
       <c r="U18" s="51" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>307</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>308</v>
@@ -6955,13 +6983,13 @@
         <v>104</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="T19" s="42" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="U19" s="42" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6969,31 +6997,31 @@
         <v>56</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E20" s="71" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G20" s="44">
         <v>44</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T20" s="44" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7001,13 +7029,13 @@
         <v>51</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E21" s="71" t="s">
         <v>50</v>
@@ -7019,27 +7047,27 @@
         <v>45</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T21" s="46" t="s">
         <v>21</v>
       </c>
       <c r="U21" s="46" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E22" s="71" t="s">
         <v>330</v>
@@ -7051,27 +7079,27 @@
         <v>47</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T22" s="42" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="U22" s="42" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E23" s="71" t="s">
         <v>96</v>
@@ -7083,59 +7111,59 @@
         <v>57</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>137</v>
       </c>
       <c r="U23" s="49" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>153</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E24" s="71" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="G24" s="44">
         <v>69</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T24" s="46" t="s">
         <v>13</v>
       </c>
       <c r="U24" s="46" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E25" s="79" t="s">
         <v>52</v>
@@ -7153,21 +7181,21 @@
         <v>18</v>
       </c>
       <c r="U25" s="46" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>53</v>
@@ -7185,21 +7213,21 @@
         <v>170</v>
       </c>
       <c r="U26" s="49" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E27" s="79" t="s">
         <v>74</v>
@@ -7214,24 +7242,24 @@
         <v>11</v>
       </c>
       <c r="T27" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="U27" s="41" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E28" s="75" t="s">
         <v>92</v>
@@ -7243,33 +7271,33 @@
         <v>56</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T28" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="U28" s="44" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E29" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G29" s="43">
         <v>59</v>
@@ -7278,30 +7306,30 @@
         <v>94</v>
       </c>
       <c r="T29" s="49" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E30" s="79" t="s">
         <v>112</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="G30" s="41">
         <v>60</v>
@@ -7313,21 +7341,21 @@
         <v>11</v>
       </c>
       <c r="U30" s="43" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>145</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E31" s="75" t="s">
         <v>144</v>
@@ -7339,27 +7367,27 @@
         <v>67</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="T31" s="43" t="s">
         <v>105</v>
       </c>
       <c r="U31" s="43" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>163</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E32" s="75" t="s">
         <v>162</v>
@@ -7371,27 +7399,27 @@
         <v>71</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T32" s="50" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>172</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E33" s="79" t="s">
         <v>171</v>
@@ -7403,27 +7431,27 @@
         <v>73</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="T33" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="U33" s="41" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>179</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E34" s="79" t="s">
         <v>178</v>
@@ -7435,27 +7463,27 @@
         <v>75</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="T34" s="44" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="U34" s="44" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>184</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E35" s="79" t="s">
         <v>183</v>
@@ -7467,27 +7495,27 @@
         <v>76</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="T35" s="40" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="U35" s="40" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>189</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E36" s="79" t="s">
         <v>188</v>
@@ -7499,27 +7527,27 @@
         <v>77</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="U36" s="48" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E37" s="79" t="s">
         <v>191</v>
@@ -7531,27 +7559,27 @@
         <v>78</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="T37" s="51" t="s">
         <v>100</v>
       </c>
       <c r="U37" s="51" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>196</v>
@@ -7563,27 +7591,27 @@
         <v>79</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T38" s="51" t="s">
         <v>16</v>
       </c>
       <c r="U38" s="51" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>202</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E39" s="79" t="s">
         <v>201</v>
@@ -7598,24 +7626,24 @@
         <v>203</v>
       </c>
       <c r="T39" s="49" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="U39" s="49" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>210</v>
@@ -7630,24 +7658,24 @@
         <v>29</v>
       </c>
       <c r="T40" s="51" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="U40" s="51" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80" t="s">
         <v>215</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E41" s="80" t="s">
         <v>214</v>
@@ -7659,27 +7687,27 @@
         <v>83</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="T41" s="48" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="U41" s="48" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>224</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E42" s="75" t="s">
         <v>223</v>
@@ -7691,27 +7719,27 @@
         <v>86</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T42" s="48" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="U42" s="48" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>229</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E43" s="75" t="s">
         <v>228</v>
@@ -7723,59 +7751,59 @@
         <v>87</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="T43" s="52" t="s">
         <v>20</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
         <v>247</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E44" s="62" t="s">
         <v>246</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G44" s="42">
         <v>91</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="T44" s="41" t="s">
         <v>198</v>
       </c>
       <c r="U44" s="41" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>299</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E45" s="75" t="s">
         <v>298</v>
@@ -7787,27 +7815,27 @@
         <v>101</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T45" s="41" t="s">
         <v>147</v>
       </c>
       <c r="U45" s="41" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>297</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E46" s="75" t="s">
         <v>296</v>
@@ -7819,27 +7847,27 @@
         <v>102</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="T46" s="44" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="U46" s="44" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>310</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E47" s="75" t="s">
         <v>311</v>
@@ -7851,59 +7879,59 @@
         <v>105</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T47" s="43" t="s">
         <v>25</v>
       </c>
       <c r="U47" s="43" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>313</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>314</v>
       </c>
       <c r="F48" s="79" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G48" s="41">
         <v>106</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="T48" s="50" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="U48" s="50" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
         <v>315</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E49" s="79" t="s">
         <v>316</v>
@@ -7915,27 +7943,27 @@
         <v>107</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="T49" s="44" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="U49" s="44" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
         <v>318</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E50" s="79" t="s">
         <v>319</v>
@@ -7950,24 +7978,24 @@
         <v>34</v>
       </c>
       <c r="T50" s="51" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="U50" s="51" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
         <v>320</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E51" s="79" t="s">
         <v>321</v>
@@ -7979,27 +8007,27 @@
         <v>109</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="T51" s="40" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="U51" s="40" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>323</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E52" s="75" t="s">
         <v>324</v>
@@ -8011,91 +8039,91 @@
         <v>110</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="T52" s="47" t="s">
         <v>248</v>
       </c>
       <c r="U52" s="47" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E53" s="72" t="s">
         <v>47</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G53" s="55">
         <v>43</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="T53" s="41" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="U53" s="41" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>70</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G54" s="55">
         <v>52</v>
       </c>
       <c r="H54" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="T54" s="50" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="U54" s="50" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>327</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>121</v>
@@ -8107,59 +8135,59 @@
         <v>62</v>
       </c>
       <c r="H55" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>15</v>
       </c>
       <c r="U55" s="40" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E56" s="72" t="s">
         <v>126</v>
       </c>
       <c r="F56" s="72" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="G56" s="55">
         <v>63</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="T56" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U56" s="62" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E57" s="72" t="s">
         <v>135</v>
@@ -8171,27 +8199,27 @@
         <v>64</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="T57" s="43" t="s">
         <v>94</v>
       </c>
       <c r="U57" s="43" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E58" s="72" t="s">
         <v>131</v>
@@ -8203,59 +8231,59 @@
         <v>65</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="T58" s="47" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="U58" s="47" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>149</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F59" s="71" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G59" s="44">
         <v>68</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T59" s="51" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="U59" s="51" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>169</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E60" s="72" t="s">
         <v>168</v>
@@ -8273,21 +8301,21 @@
         <v>23</v>
       </c>
       <c r="U60" s="50" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
         <v>218</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>216</v>
@@ -8299,62 +8327,62 @@
         <v>84</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="T61" s="44" t="s">
         <v>27</v>
       </c>
       <c r="U61" s="44" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
         <v>221</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>219</v>
       </c>
       <c r="F62" s="72" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="G62" s="55">
         <v>85</v>
       </c>
       <c r="H62" s="55" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="T62" s="48" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="U62" s="48" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E63" s="72" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="F63" s="72" t="s">
         <v>236</v>
@@ -8363,13 +8391,13 @@
         <v>89</v>
       </c>
       <c r="H63" s="55" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="T63" s="42" t="s">
         <v>17</v>
       </c>
       <c r="U63" s="42" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -8377,13 +8405,13 @@
         <v>242</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E64" s="72" t="s">
         <v>241</v>
@@ -8395,27 +8423,27 @@
         <v>90</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="T64" s="42" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="U64" s="42" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>257</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E65" s="72" t="s">
         <v>256</v>
@@ -8427,27 +8455,27 @@
         <v>93</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="T65" s="42" t="s">
         <v>34</v>
       </c>
       <c r="U65" s="42" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55" t="s">
         <v>263</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E66" s="72" t="s">
         <v>262</v>
@@ -8459,27 +8487,27 @@
         <v>94</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="T66" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="U66" s="43" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>266</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E67" s="72" t="s">
         <v>265</v>
@@ -8491,27 +8519,27 @@
         <v>95</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="T67" s="43" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="U67" s="43" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>285</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E68" s="72" t="s">
         <v>284</v>
@@ -8523,21 +8551,21 @@
         <v>99</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>290</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E69" s="72" t="s">
         <v>289</v>
@@ -8549,264 +8577,264 @@
         <v>100</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="79" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C70" s="79" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E70" s="79" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F70" s="79" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G70" s="41"/>
       <c r="H70" s="41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="79" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E71" s="79" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F71" s="79" t="s">
         <v>331</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E72" s="75" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F72" s="75" t="s">
         <v>332</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="43" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E73" s="75" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F73" s="75" t="s">
         <v>333</v>
       </c>
       <c r="G73" s="43"/>
       <c r="H73" s="43" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="F74" s="62" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="55" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F75" s="72" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G75" s="55"/>
       <c r="H75" s="55" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F76" s="75" t="s">
         <v>334</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="43" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E77" s="75" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G77" s="43"/>
       <c r="H77" s="43" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E78" s="62" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F78" s="62" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G78" s="42"/>
       <c r="H78" s="42" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="51" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F79" s="80" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G79" s="80"/>
       <c r="H79" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="79" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E80" s="79" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F80" s="79" t="s">
         <v>335</v>
@@ -8816,93 +8844,93 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="E81" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="B81" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="E81" s="62" t="s">
-        <v>535</v>
-      </c>
       <c r="F81" s="62" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G81" s="42"/>
       <c r="H81" s="42" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B82" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="E82" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="F82" s="62" t="s">
         <v>532</v>
-      </c>
-      <c r="D82" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="E82" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="F82" s="62" t="s">
-        <v>538</v>
       </c>
       <c r="G82" s="42"/>
       <c r="H82" s="42" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C83" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="E83" s="62" t="s">
+        <v>530</v>
+      </c>
+      <c r="F83" s="62" t="s">
         <v>534</v>
-      </c>
-      <c r="D83" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="F83" s="62" t="s">
-        <v>540</v>
       </c>
       <c r="G83" s="42"/>
       <c r="H83" s="42" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E84" s="62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F84" s="62" t="s">
         <v>336</v>
@@ -8912,307 +8940,307 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="79" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B85" s="79" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D85" s="79" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E85" s="79" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F85" s="79" t="s">
         <v>337</v>
       </c>
       <c r="G85" s="41"/>
       <c r="H85" s="41" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F86" s="71" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G86" s="44"/>
       <c r="H86" s="44" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="106" t="s">
-        <v>547</v>
-      </c>
-      <c r="B87" s="106" t="s">
-        <v>476</v>
-      </c>
-      <c r="C87" s="106" t="s">
-        <v>546</v>
-      </c>
-      <c r="D87" s="106" t="s">
-        <v>492</v>
-      </c>
-      <c r="E87" s="106" t="s">
-        <v>376</v>
-      </c>
-      <c r="F87" s="106" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="B87" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="C87" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="D87" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F87" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="G87" s="106"/>
-      <c r="H87" s="106" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G87" s="84"/>
+      <c r="H87" s="84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="70" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F88" s="70" t="s">
         <v>339</v>
       </c>
       <c r="G88" s="40"/>
       <c r="H88" s="40" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E89" s="62" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F89" s="62" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="G89" s="42"/>
       <c r="H89" s="42" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="55" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E90" s="72" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F90" s="72" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="G90" s="55"/>
       <c r="H90" s="55" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E91" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F91" s="72" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G91" s="55"/>
       <c r="H91" s="55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E92" s="62" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F92" s="62" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G92" s="42"/>
       <c r="H92" s="42" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E93" s="62" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F93" s="62" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G93" s="42"/>
       <c r="H93" s="42" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F94" s="62" t="s">
         <v>340</v>
       </c>
       <c r="G94" s="42"/>
       <c r="H94" s="42" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C95" s="46" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D95" s="46" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E95" s="81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F95" s="81" t="s">
         <v>341</v>
       </c>
       <c r="G95" s="46"/>
       <c r="H95" s="46" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="55" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E96" s="72" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F96" s="72" t="s">
         <v>342</v>
       </c>
       <c r="G96" s="55"/>
       <c r="H96" s="55" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E97" s="72" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="F97" s="72" t="s">
         <v>343</v>
@@ -9222,21 +9250,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="55" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C98" s="55" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D98" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E98" s="72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F98" s="72" t="s">
         <v>344</v>
@@ -9246,333 +9274,333 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="55" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B99" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C99" s="55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D99" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E99" s="72" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F99" s="72" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G99" s="55"/>
       <c r="H99" s="55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="55" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E100" s="72" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F100" s="72" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G100" s="55"/>
       <c r="H100" s="55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="55" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E101" s="72" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F101" s="72" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G101" s="55"/>
       <c r="H101" s="55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="55" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E102" s="72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F102" s="72" t="s">
         <v>345</v>
       </c>
       <c r="G102" s="55"/>
       <c r="H102" s="55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D103" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E103" s="72" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F103" s="72" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G103" s="55"/>
       <c r="H103" s="55" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="55" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C104" s="55" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D104" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E104" s="72" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F104" s="72" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G104" s="55"/>
       <c r="H104" s="55" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C105" s="44" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D105" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E105" s="71" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F105" s="71" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G105" s="44"/>
       <c r="H105" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D106" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F106" s="71" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G106" s="44"/>
       <c r="H106" s="44" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D107" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E107" s="71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F107" s="71" t="s">
         <v>346</v>
       </c>
       <c r="G107" s="44"/>
       <c r="H107" s="44" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D108" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F108" s="71" t="s">
         <v>347</v>
       </c>
       <c r="G108" s="44"/>
       <c r="H108" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D109" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E109" s="71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F109" s="71" t="s">
         <v>348</v>
       </c>
       <c r="G109" s="44"/>
       <c r="H109" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C110" s="82" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E110" s="72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F110" s="72" t="s">
         <v>349</v>
       </c>
       <c r="G110" s="55"/>
       <c r="H110" s="55" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C111" s="83">
         <v>0.1361111111111111</v>
       </c>
       <c r="D111" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E111" s="71" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F111" s="71" t="s">
         <v>350</v>
       </c>
       <c r="G111" s="44"/>
       <c r="H111" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C112" s="79" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="D112" s="79" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E112" s="79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F112" s="79" t="s">
         <v>351</v>
@@ -9582,19 +9610,19 @@
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="70" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F113" s="70" t="s">
         <v>352</v>
@@ -9604,213 +9632,213 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E114" s="70" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F114" s="70" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G114" s="40"/>
       <c r="H114" s="40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D115" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E115" s="71" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F115" s="71" t="s">
         <v>353</v>
       </c>
       <c r="G115" s="44"/>
       <c r="H115" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C116" s="44" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D116" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E116" s="71" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F116" s="71" t="s">
         <v>354</v>
       </c>
       <c r="G116" s="44"/>
       <c r="H116" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D117" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E117" s="71" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F117" s="71" t="s">
         <v>355</v>
       </c>
       <c r="G117" s="44"/>
       <c r="H117" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C118" s="44" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D118" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F118" s="71" t="s">
         <v>356</v>
       </c>
       <c r="G118" s="44"/>
       <c r="H118" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B119" s="44" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C119" s="44" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D119" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E119" s="71" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F119" s="71" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G119" s="44"/>
       <c r="H119" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B120" s="44" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C120" s="44" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D120" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F120" s="71" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G120" s="44"/>
       <c r="H120" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B121" s="44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C121" s="44" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D121" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E121" s="71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F121" s="71" t="s">
         <v>357</v>
       </c>
       <c r="G121" s="44"/>
       <c r="H121" s="44" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E122" s="70" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F122" s="70" t="s">
         <v>358</v>
@@ -9820,43 +9848,43 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="42" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D123" s="42"/>
       <c r="E123" s="62" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F123" s="62" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G123" s="42"/>
       <c r="H123" s="42" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E124" s="62" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F124" s="62" t="s">
         <v>359</v>
@@ -9866,21 +9894,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="42" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B125" s="42" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E125" s="62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F125" s="62" t="s">
         <v>360</v>
@@ -9890,19 +9918,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="79" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F126" s="79" t="s">
         <v>361</v>
@@ -9912,34 +9940,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="B127" s="108" t="s">
-        <v>404</v>
-      </c>
-      <c r="C127" s="108" t="s">
-        <v>648</v>
-      </c>
-      <c r="D127" s="108" t="s">
-        <v>492</v>
-      </c>
-      <c r="E127" s="109" t="s">
-        <v>649</v>
-      </c>
-      <c r="F127" s="109" t="s">
-        <v>943</v>
-      </c>
-      <c r="G127" s="108"/>
-      <c r="H127" s="110" t="s">
+    <row r="127" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="85" t="s">
+        <v>641</v>
+      </c>
+      <c r="B127" s="86" t="s">
+        <v>401</v>
+      </c>
+      <c r="C127" s="86" t="s">
+        <v>642</v>
+      </c>
+      <c r="D127" s="86" t="s">
+        <v>486</v>
+      </c>
+      <c r="E127" s="87" t="s">
+        <v>643</v>
+      </c>
+      <c r="F127" s="87" t="s">
+        <v>934</v>
+      </c>
+      <c r="G127" s="86"/>
+      <c r="H127" s="88" t="s">
         <v>11</v>
       </c>
       <c r="J127" s="40" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="K127" s="40" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="L127" s="40" t="s">
         <v>15</v>
@@ -9951,24 +9979,28 @@
       <c r="Q127" s="40"/>
       <c r="R127" s="40"/>
     </row>
-    <row r="128" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="F128" s="8" t="s">
+    <row r="128" spans="1:18" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="D128" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="F128" s="111" t="s">
         <v>362</v>
+      </c>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47" t="s">
+        <v>718</v>
       </c>
       <c r="J128" s="41" t="s">
         <v>203</v>
@@ -9977,10 +10009,10 @@
         <v>29</v>
       </c>
       <c r="L128" s="41" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M128" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="N128" s="41" t="s">
         <v>198</v>
@@ -9989,48 +10021,52 @@
         <v>147</v>
       </c>
       <c r="P128" s="41" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Q128" s="41" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="R128" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>916</v>
+    <row r="129" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="81" t="s">
+        <v>647</v>
+      </c>
+      <c r="B129" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="C129" s="81" t="s">
+        <v>648</v>
+      </c>
+      <c r="D129" s="81" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="F129" s="81" t="s">
+        <v>935</v>
+      </c>
+      <c r="G129" s="81"/>
+      <c r="H129" s="81" t="s">
+        <v>21</v>
       </c>
       <c r="J129" s="42" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="K129" s="42" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="L129" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M129" s="42" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="N129" s="42" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O129" s="42" t="s">
         <v>34</v>
@@ -10039,28 +10075,32 @@
       <c r="Q129" s="42"/>
       <c r="R129" s="42"/>
     </row>
-    <row r="130" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>917</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>363</v>
+    <row r="130" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="71" t="s">
+        <v>649</v>
+      </c>
+      <c r="B130" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="C130" s="71" t="s">
+        <v>650</v>
+      </c>
+      <c r="D130" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" s="71" t="s">
+        <v>909</v>
+      </c>
+      <c r="F130" s="71" t="s">
+        <v>936</v>
+      </c>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44" t="s">
+        <v>838</v>
       </c>
       <c r="J130" s="43"/>
       <c r="K130" s="43" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="L130" s="43" t="s">
         <v>230</v>
@@ -10078,81 +10118,89 @@
         <v>94</v>
       </c>
       <c r="Q130" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="R130" s="43" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>364</v>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="62" t="s">
+        <v>651</v>
+      </c>
+      <c r="B131" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C131" s="62" t="s">
+        <v>652</v>
+      </c>
+      <c r="D131" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="E131" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="F131" s="62" t="s">
+        <v>937</v>
+      </c>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42" t="s">
+        <v>829</v>
       </c>
       <c r="J131" s="44" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="K131" s="44" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L131" s="44" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M131" s="44" t="s">
+        <v>751</v>
+      </c>
+      <c r="N131" s="44" t="s">
         <v>757</v>
-      </c>
-      <c r="N131" s="44" t="s">
-        <v>763</v>
       </c>
       <c r="O131" s="44" t="s">
         <v>27</v>
       </c>
       <c r="P131" s="44" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q131" s="44" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="R131" s="44"/>
     </row>
-    <row r="132" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>365</v>
+    <row r="132" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="E132" s="111" t="s">
+        <v>392</v>
+      </c>
+      <c r="F132" s="111" t="s">
+        <v>363</v>
+      </c>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47" t="s">
+        <v>718</v>
       </c>
       <c r="J132" s="45" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K132" s="45" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L132" s="45" t="s">
         <v>142</v>
@@ -10165,23 +10213,27 @@
       <c r="R132" s="45"/>
     </row>
     <row r="133" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>366</v>
+      <c r="A133" s="71" t="s">
+        <v>654</v>
+      </c>
+      <c r="B133" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="C133" s="71" t="s">
+        <v>655</v>
+      </c>
+      <c r="D133" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="E133" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="F133" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44" t="s">
+        <v>756</v>
       </c>
       <c r="J133" s="46" t="s">
         <v>21</v>
@@ -10193,7 +10245,7 @@
         <v>18</v>
       </c>
       <c r="M133" s="46" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="N133" s="46"/>
       <c r="O133" s="46"/>
@@ -10201,386 +10253,480 @@
       <c r="Q133" s="46"/>
       <c r="R133" s="46"/>
     </row>
-    <row r="134" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>396</v>
+        <v>939</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="J134" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="K134" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="J134" s="46"/>
+      <c r="K134" s="46"/>
+      <c r="L134" s="46"/>
+      <c r="M134" s="46"/>
+      <c r="N134" s="46"/>
+      <c r="O134" s="46"/>
+      <c r="P134" s="46"/>
+      <c r="Q134" s="46"/>
+      <c r="R134" s="46"/>
+    </row>
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="J135" s="46"/>
+      <c r="K135" s="46"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="46"/>
+      <c r="N135" s="46"/>
+      <c r="O135" s="46"/>
+      <c r="P135" s="46"/>
+      <c r="Q135" s="46"/>
+      <c r="R135" s="46"/>
+    </row>
+    <row r="136" spans="1:18" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="J136" s="46"/>
+      <c r="K136" s="46"/>
+      <c r="L136" s="46"/>
+      <c r="M136" s="46"/>
+      <c r="N136" s="46"/>
+      <c r="O136" s="46"/>
+      <c r="P136" s="46"/>
+      <c r="Q136" s="46"/>
+      <c r="R136" s="46"/>
+    </row>
+    <row r="137" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="J137" s="47" t="s">
+        <v>826</v>
+      </c>
+      <c r="K137" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="L134" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="M134" s="47"/>
-      <c r="N134" s="47"/>
-      <c r="O134" s="47"/>
-      <c r="P134" s="47"/>
-      <c r="Q134" s="47"/>
-      <c r="R134" s="47"/>
-    </row>
-    <row r="135" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B135" s="14" t="s">
+      <c r="L137" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+    </row>
+    <row r="138" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J135" s="48" t="s">
-        <v>733</v>
-      </c>
-      <c r="K135" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="L135" s="48" t="s">
-        <v>764</v>
-      </c>
-      <c r="M135" s="48" t="s">
-        <v>724</v>
-      </c>
-      <c r="N135" s="48" t="s">
-        <v>725</v>
-      </c>
-      <c r="O135" s="48"/>
-      <c r="P135" s="48"/>
-      <c r="Q135" s="48"/>
-      <c r="R135" s="48"/>
-    </row>
-    <row r="136" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="F136" s="68" t="s">
-        <v>854</v>
-      </c>
-      <c r="J136" s="55" t="s">
-        <v>743</v>
-      </c>
-      <c r="K136" s="55" t="s">
+      <c r="E138" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J138" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="K138" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="L138" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="M138" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="N138" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="O138" s="48"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="48"/>
+      <c r="R138" s="48"/>
+    </row>
+    <row r="139" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="F139" s="68" t="s">
+        <v>848</v>
+      </c>
+      <c r="J139" s="55" t="s">
+        <v>737</v>
+      </c>
+      <c r="K139" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="L136" s="55" t="s">
+      <c r="L139" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="M136" s="55" t="s">
+      <c r="M139" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="N136" s="55" t="s">
-        <v>744</v>
-      </c>
-      <c r="O136" s="55" t="s">
+      <c r="N139" s="55" t="s">
         <v>738</v>
       </c>
-      <c r="P136" s="55" t="s">
+      <c r="O139" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="P139" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q139" s="55" t="s">
+        <v>840</v>
+      </c>
+      <c r="R139" s="55"/>
+    </row>
+    <row r="140" spans="1:18" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C140" s="67" t="s">
+        <v>845</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="F140" s="68" t="s">
+        <v>847</v>
+      </c>
+      <c r="J140" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="L140" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="M140" s="50" t="s">
+        <v>746</v>
+      </c>
+      <c r="N140" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O140" s="50"/>
+      <c r="P140" s="50"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="50"/>
+    </row>
+    <row r="141" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="J141" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="L141" s="51" t="s">
+        <v>730</v>
+      </c>
+      <c r="M141" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N141" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="O141" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P141" s="51" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q141" s="51" t="s">
+        <v>835</v>
+      </c>
+      <c r="R141" s="51"/>
+    </row>
+    <row r="142" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="69" t="s">
+        <v>857</v>
+      </c>
+      <c r="B142" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="C142" s="67" t="s">
+        <v>856</v>
+      </c>
+      <c r="D142" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="F142" s="68" t="s">
+        <v>866</v>
+      </c>
+      <c r="H142" s="41" t="s">
+        <v>867</v>
+      </c>
+      <c r="J142" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="L142" s="52"/>
+      <c r="M142" s="52"/>
+      <c r="N142" s="52"/>
+      <c r="O142" s="52"/>
+      <c r="P142" s="52"/>
+      <c r="Q142" s="52"/>
+      <c r="R142" s="52"/>
+    </row>
+    <row r="143" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="69" t="s">
+        <v>863</v>
+      </c>
+      <c r="B143" s="69" t="s">
+        <v>465</v>
+      </c>
+      <c r="C143" s="67" t="s">
+        <v>859</v>
+      </c>
+      <c r="D143" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="F143" s="68" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="69" t="s">
+        <v>864</v>
+      </c>
+      <c r="B144" s="69" t="s">
+        <v>465</v>
+      </c>
+      <c r="C144" s="67" t="s">
+        <v>860</v>
+      </c>
+      <c r="D144" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="F144" s="68" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="69" t="s">
+        <v>869</v>
+      </c>
+      <c r="B145" s="69" t="s">
+        <v>468</v>
+      </c>
+      <c r="C145" s="67" t="s">
+        <v>868</v>
+      </c>
+      <c r="D145" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D146" t="s">
+        <v>482</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="B148" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="Q136" s="55" t="s">
-        <v>846</v>
-      </c>
-      <c r="R136" s="55"/>
-    </row>
-    <row r="137" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="B137" s="14" t="s">
+      <c r="D148" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="C137" s="67" t="s">
-        <v>851</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>920</v>
-      </c>
-      <c r="F137" s="68" t="s">
-        <v>853</v>
-      </c>
-      <c r="J137" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K137" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="L137" s="50" t="s">
-        <v>734</v>
-      </c>
-      <c r="M137" s="50" t="s">
-        <v>752</v>
-      </c>
-      <c r="N137" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="O137" s="50"/>
-      <c r="P137" s="50"/>
-      <c r="Q137" s="50"/>
-      <c r="R137" s="50"/>
-    </row>
-    <row r="138" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>934</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="J138" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K138" s="51" t="s">
-        <v>735</v>
-      </c>
-      <c r="L138" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="M138" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N138" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="O138" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="P138" s="51" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q138" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="R138" s="51"/>
-    </row>
-    <row r="139" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" s="69" t="s">
-        <v>863</v>
-      </c>
-      <c r="B139" s="69" t="s">
-        <v>475</v>
-      </c>
-      <c r="C139" s="67" t="s">
-        <v>862</v>
-      </c>
-      <c r="D139" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="F139" s="68" t="s">
-        <v>872</v>
-      </c>
-      <c r="H139" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="J139" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K139" s="52" t="s">
-        <v>741</v>
-      </c>
-      <c r="L139" s="52"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="52"/>
-      <c r="O139" s="52"/>
-      <c r="P139" s="52"/>
-      <c r="Q139" s="52"/>
-      <c r="R139" s="52"/>
-    </row>
-    <row r="140" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="69" t="s">
-        <v>869</v>
-      </c>
-      <c r="B140" s="69" t="s">
-        <v>469</v>
-      </c>
-      <c r="C140" s="67" t="s">
-        <v>865</v>
-      </c>
-      <c r="D140" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="F140" s="68" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="69" t="s">
-        <v>870</v>
-      </c>
-      <c r="B141" s="69" t="s">
-        <v>469</v>
-      </c>
-      <c r="C141" s="67" t="s">
-        <v>866</v>
-      </c>
-      <c r="D141" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="F141" s="68" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="69" t="s">
-        <v>875</v>
-      </c>
-      <c r="B142" s="69" t="s">
-        <v>472</v>
-      </c>
-      <c r="C142" s="67" t="s">
-        <v>874</v>
-      </c>
-      <c r="D142" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="D143" t="s">
-        <v>488</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="C149" s="12" t="s">
         <v>879</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="B145" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>885</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>936</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="10"/>
+      <c r="D149" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U149" xr:uid="{04C08D99-4458-4803-9DCE-A863C4ED2D00}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Provérbios"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="T2:U67">
     <sortCondition ref="T2"/>
   </sortState>
